--- a/外部データ/ステージデザイン/ステージデザイン_waterside.xlsx
+++ b/外部データ/ステージデザイン/ステージデザイン_waterside.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>ステージデザイン</t>
     <phoneticPr fontId="1"/>
@@ -43,13 +43,6 @@
     <t>背景テクスチャ</t>
     <rPh sb="0" eb="2">
       <t>ハイケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テクスチャ名</t>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -284,6 +277,82 @@
       <t>ドウロ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>waterside_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>waterside_02</t>
+  </si>
+  <si>
+    <t>waterside_03</t>
+  </si>
+  <si>
+    <t>waterside_04</t>
+  </si>
+  <si>
+    <t>waterside_05</t>
+  </si>
+  <si>
+    <t>waterside_06</t>
+  </si>
+  <si>
+    <t>waterside_07</t>
+  </si>
+  <si>
+    <t>waterside_08</t>
+  </si>
+  <si>
+    <t>waterside_09</t>
+  </si>
+  <si>
+    <t>waterside_10</t>
+  </si>
+  <si>
+    <t>waterside_11</t>
+  </si>
+  <si>
+    <t>waterside_12</t>
+  </si>
+  <si>
+    <t>waterside_13</t>
+  </si>
+  <si>
+    <t>waterside_14</t>
+  </si>
+  <si>
+    <t>waterside_15</t>
+  </si>
+  <si>
+    <t>waterside_16</t>
+  </si>
+  <si>
+    <t>waterside_17</t>
+  </si>
+  <si>
+    <t>waterside_18</t>
+  </si>
+  <si>
+    <t>waterside_19</t>
+  </si>
+  <si>
+    <t>waterside_20</t>
+  </si>
+  <si>
+    <t>waterside_21</t>
+  </si>
+  <si>
+    <t>waterside_22</t>
+  </si>
+  <si>
+    <t>waterside_23</t>
+  </si>
+  <si>
+    <t>waterside_24</t>
+  </si>
+  <si>
+    <t>waterside_25</t>
   </si>
 </sst>
 </file>
@@ -920,7 +989,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -993,6 +1062,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1026,6 +1110,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1048,21 +1147,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1106,9 +1190,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1413,8 +1494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AOP1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="CG32" sqref="CG32"/>
+    <sheetView tabSelected="1" topLeftCell="PH6" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="RY18" sqref="RY18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1425,31 +1506,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1082" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="37" t="s">
+      <c r="C1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="39"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="49"/>
     </row>
     <row r="2" spans="1:1082" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="53" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="16"/>
@@ -1614,7 +1695,7 @@
     </row>
     <row r="4" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
-      <c r="B4" s="49"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="16"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1774,10 +1855,16 @@
       <c r="FC4" s="3"/>
       <c r="FD4" s="3"/>
       <c r="FE4" s="3"/>
+      <c r="HJ4" s="28">
+        <v>0</v>
+      </c>
+      <c r="HK4" s="28">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
-      <c r="B5" s="49"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="16"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1937,10 +2024,22 @@
       <c r="FC5" s="3"/>
       <c r="FD5" s="3"/>
       <c r="FE5" s="3"/>
+      <c r="HJ5" s="28">
+        <v>0</v>
+      </c>
+      <c r="HK5" s="28">
+        <v>0</v>
+      </c>
+      <c r="MW5" s="28">
+        <v>15</v>
+      </c>
+      <c r="MX5" s="28">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
-      <c r="B6" s="49"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="16"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -2062,18 +2161,30 @@
       <c r="DQ6" s="3"/>
       <c r="DR6" s="3"/>
       <c r="DS6" s="3"/>
-      <c r="DT6" s="3"/>
-      <c r="DU6" s="3"/>
+      <c r="DT6" s="28">
+        <v>7</v>
+      </c>
+      <c r="DU6" s="28">
+        <v>7</v>
+      </c>
       <c r="DV6" s="3"/>
       <c r="DW6" s="3"/>
       <c r="DX6" s="3"/>
       <c r="DY6" s="3"/>
       <c r="DZ6" s="3"/>
       <c r="EA6" s="3"/>
-      <c r="EB6" s="3"/>
-      <c r="EC6" s="3"/>
-      <c r="ED6" s="3"/>
-      <c r="EE6" s="3"/>
+      <c r="EB6" s="25">
+        <v>0</v>
+      </c>
+      <c r="EC6" s="25">
+        <v>0</v>
+      </c>
+      <c r="ED6" s="25">
+        <v>0</v>
+      </c>
+      <c r="EE6" s="25">
+        <v>0</v>
+      </c>
       <c r="EF6" s="3"/>
       <c r="EG6" s="3"/>
       <c r="EH6" s="3"/>
@@ -2100,10 +2211,94 @@
       <c r="FC6" s="3"/>
       <c r="FD6" s="3"/>
       <c r="FE6" s="3"/>
+      <c r="FW6" s="28">
+        <v>15</v>
+      </c>
+      <c r="FX6" s="28">
+        <v>15</v>
+      </c>
+      <c r="HD6" s="25">
+        <v>0</v>
+      </c>
+      <c r="HE6" s="25">
+        <v>0</v>
+      </c>
+      <c r="HF6" s="25">
+        <v>0</v>
+      </c>
+      <c r="HG6" s="25">
+        <v>0</v>
+      </c>
+      <c r="HH6" s="25">
+        <v>0</v>
+      </c>
+      <c r="HI6" s="25">
+        <v>0</v>
+      </c>
+      <c r="HJ6" s="25">
+        <v>0</v>
+      </c>
+      <c r="HK6" s="25">
+        <v>0</v>
+      </c>
+      <c r="HL6" s="25">
+        <v>0</v>
+      </c>
+      <c r="HM6" s="25">
+        <v>0</v>
+      </c>
+      <c r="HN6" s="25">
+        <v>0</v>
+      </c>
+      <c r="HO6" s="25">
+        <v>0</v>
+      </c>
+      <c r="HP6" s="25">
+        <v>0</v>
+      </c>
+      <c r="HQ6" s="25">
+        <v>0</v>
+      </c>
+      <c r="HR6" s="25">
+        <v>0</v>
+      </c>
+      <c r="HS6" s="25">
+        <v>0</v>
+      </c>
+      <c r="HT6" s="25">
+        <v>0</v>
+      </c>
+      <c r="HU6" s="25">
+        <v>0</v>
+      </c>
+      <c r="HV6" s="25">
+        <v>0</v>
+      </c>
+      <c r="HW6" s="25">
+        <v>0</v>
+      </c>
+      <c r="HX6" s="25">
+        <v>0</v>
+      </c>
+      <c r="HY6" s="25">
+        <v>0</v>
+      </c>
+      <c r="MW6" s="28">
+        <v>15</v>
+      </c>
+      <c r="MX6" s="28">
+        <v>15</v>
+      </c>
+      <c r="OI6" s="28">
+        <v>15</v>
+      </c>
+      <c r="OJ6" s="28">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
-      <c r="B7" s="49"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="16"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -2225,8 +2420,12 @@
       <c r="DQ7" s="3"/>
       <c r="DR7" s="3"/>
       <c r="DS7" s="3"/>
-      <c r="DT7" s="3"/>
-      <c r="DU7" s="3"/>
+      <c r="DT7" s="28">
+        <v>7</v>
+      </c>
+      <c r="DU7" s="28">
+        <v>7</v>
+      </c>
       <c r="DV7" s="3"/>
       <c r="DW7" s="3"/>
       <c r="DX7" s="3"/>
@@ -2263,10 +2462,28 @@
       <c r="FC7" s="3"/>
       <c r="FD7" s="3"/>
       <c r="FE7" s="3"/>
+      <c r="FW7" s="28">
+        <v>15</v>
+      </c>
+      <c r="FX7" s="28">
+        <v>15</v>
+      </c>
+      <c r="GW7" s="25">
+        <v>0</v>
+      </c>
+      <c r="GX7" s="25">
+        <v>0</v>
+      </c>
+      <c r="OI7" s="28">
+        <v>15</v>
+      </c>
+      <c r="OJ7" s="28">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
-      <c r="B8" s="49"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="16"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -2346,53 +2563,115 @@
       <c r="CA8" s="3"/>
       <c r="CB8" s="3"/>
       <c r="CC8" s="3"/>
-      <c r="CD8" s="3"/>
-      <c r="CE8" s="3"/>
-      <c r="CF8" s="3"/>
-      <c r="CG8" s="3"/>
-      <c r="CH8" s="3"/>
-      <c r="CI8" s="3"/>
+      <c r="CD8" s="25">
+        <v>0</v>
+      </c>
+      <c r="CE8" s="25">
+        <v>0</v>
+      </c>
+      <c r="CF8" s="25">
+        <v>0</v>
+      </c>
+      <c r="CG8" s="25">
+        <v>0</v>
+      </c>
+      <c r="CH8" s="25">
+        <v>0</v>
+      </c>
+      <c r="CI8" s="25">
+        <v>0</v>
+      </c>
       <c r="CJ8" s="3"/>
       <c r="CK8" s="3"/>
       <c r="CL8" s="3"/>
       <c r="CM8" s="3"/>
-      <c r="CN8" s="3"/>
-      <c r="CO8" s="3"/>
-      <c r="CP8" s="3"/>
-      <c r="CQ8" s="3"/>
-      <c r="CR8" s="3"/>
+      <c r="CN8" s="25">
+        <v>0</v>
+      </c>
+      <c r="CO8" s="25">
+        <v>0</v>
+      </c>
+      <c r="CP8" s="25">
+        <v>0</v>
+      </c>
+      <c r="CQ8" s="25">
+        <v>0</v>
+      </c>
+      <c r="CR8" s="25">
+        <v>0</v>
+      </c>
       <c r="CS8" s="3"/>
       <c r="CT8" s="3"/>
       <c r="CU8" s="3"/>
       <c r="CV8" s="3"/>
-      <c r="CW8" s="3"/>
-      <c r="CX8" s="3"/>
-      <c r="CY8" s="3"/>
-      <c r="CZ8" s="3"/>
-      <c r="DA8" s="3"/>
-      <c r="DB8" s="3"/>
+      <c r="CW8" s="25">
+        <v>0</v>
+      </c>
+      <c r="CX8" s="25">
+        <v>0</v>
+      </c>
+      <c r="CY8" s="25">
+        <v>0</v>
+      </c>
+      <c r="CZ8" s="25">
+        <v>0</v>
+      </c>
+      <c r="DA8" s="25">
+        <v>0</v>
+      </c>
+      <c r="DB8" s="25">
+        <v>0</v>
+      </c>
       <c r="DC8" s="3"/>
       <c r="DD8" s="3"/>
       <c r="DE8" s="3"/>
       <c r="DF8" s="3"/>
-      <c r="DG8" s="3"/>
-      <c r="DH8" s="3"/>
-      <c r="DI8" s="3"/>
-      <c r="DJ8" s="3"/>
-      <c r="DK8" s="3"/>
-      <c r="DL8" s="3"/>
+      <c r="DG8" s="25">
+        <v>0</v>
+      </c>
+      <c r="DH8" s="25">
+        <v>0</v>
+      </c>
+      <c r="DI8" s="25">
+        <v>0</v>
+      </c>
+      <c r="DJ8" s="25">
+        <v>0</v>
+      </c>
+      <c r="DK8" s="25">
+        <v>0</v>
+      </c>
+      <c r="DL8" s="25">
+        <v>0</v>
+      </c>
       <c r="DM8" s="3"/>
       <c r="DN8" s="3"/>
       <c r="DO8" s="3"/>
       <c r="DP8" s="3"/>
-      <c r="DQ8" s="3"/>
-      <c r="DR8" s="3"/>
-      <c r="DS8" s="3"/>
-      <c r="DT8" s="3"/>
-      <c r="DU8" s="3"/>
-      <c r="DV8" s="3"/>
-      <c r="DW8" s="3"/>
-      <c r="DX8" s="3"/>
+      <c r="DQ8" s="25">
+        <v>0</v>
+      </c>
+      <c r="DR8" s="25">
+        <v>0</v>
+      </c>
+      <c r="DS8" s="25">
+        <v>0</v>
+      </c>
+      <c r="DT8" s="25">
+        <v>0</v>
+      </c>
+      <c r="DU8" s="25">
+        <v>0</v>
+      </c>
+      <c r="DV8" s="25">
+        <v>0</v>
+      </c>
+      <c r="DW8" s="25">
+        <v>0</v>
+      </c>
+      <c r="DX8" s="25">
+        <v>0</v>
+      </c>
       <c r="DY8" s="3"/>
       <c r="DZ8" s="3"/>
       <c r="EA8" s="3"/>
@@ -2408,14 +2687,30 @@
       <c r="EK8" s="3"/>
       <c r="EL8" s="3"/>
       <c r="EM8" s="3"/>
-      <c r="EN8" s="3"/>
-      <c r="EO8" s="3"/>
-      <c r="EP8" s="3"/>
-      <c r="EQ8" s="3"/>
-      <c r="ER8" s="3"/>
-      <c r="ES8" s="3"/>
-      <c r="ET8" s="3"/>
-      <c r="EU8" s="3"/>
+      <c r="EN8" s="25">
+        <v>0</v>
+      </c>
+      <c r="EO8" s="25">
+        <v>0</v>
+      </c>
+      <c r="EP8" s="25">
+        <v>0</v>
+      </c>
+      <c r="EQ8" s="25">
+        <v>0</v>
+      </c>
+      <c r="ER8" s="25">
+        <v>0</v>
+      </c>
+      <c r="ES8" s="25">
+        <v>0</v>
+      </c>
+      <c r="ET8" s="25">
+        <v>0</v>
+      </c>
+      <c r="EU8" s="25">
+        <v>0</v>
+      </c>
       <c r="EV8" s="3"/>
       <c r="EW8" s="3"/>
       <c r="EX8" s="3"/>
@@ -2426,10 +2721,28 @@
       <c r="FC8" s="3"/>
       <c r="FD8" s="3"/>
       <c r="FE8" s="3"/>
+      <c r="GQ8" s="25">
+        <v>0</v>
+      </c>
+      <c r="GR8" s="25">
+        <v>0</v>
+      </c>
+      <c r="NR8" s="28">
+        <v>16</v>
+      </c>
+      <c r="NS8" s="28">
+        <v>16</v>
+      </c>
+      <c r="OQ8" s="28">
+        <v>15</v>
+      </c>
+      <c r="OR8" s="28">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
-      <c r="B9" s="49"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="16"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -2461,14 +2774,30 @@
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
+      <c r="AH9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="25">
+        <v>0</v>
+      </c>
       <c r="AP9" s="3"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="3"/>
@@ -2589,10 +2918,64 @@
       <c r="FC9" s="3"/>
       <c r="FD9" s="3"/>
       <c r="FE9" s="3"/>
+      <c r="GK9" s="25">
+        <v>0</v>
+      </c>
+      <c r="GL9" s="25">
+        <v>0</v>
+      </c>
+      <c r="LV9" s="25">
+        <v>0</v>
+      </c>
+      <c r="LW9" s="25">
+        <v>0</v>
+      </c>
+      <c r="LX9" s="25">
+        <v>0</v>
+      </c>
+      <c r="LY9" s="25">
+        <v>0</v>
+      </c>
+      <c r="LZ9" s="25">
+        <v>0</v>
+      </c>
+      <c r="MA9" s="25">
+        <v>0</v>
+      </c>
+      <c r="MB9" s="25">
+        <v>0</v>
+      </c>
+      <c r="MK9" s="25">
+        <v>0</v>
+      </c>
+      <c r="ML9" s="25">
+        <v>0</v>
+      </c>
+      <c r="MM9" s="25">
+        <v>0</v>
+      </c>
+      <c r="MN9" s="25">
+        <v>0</v>
+      </c>
+      <c r="MO9" s="25">
+        <v>0</v>
+      </c>
+      <c r="NR9" s="28">
+        <v>16</v>
+      </c>
+      <c r="NS9" s="28">
+        <v>16</v>
+      </c>
+      <c r="OQ9" s="28">
+        <v>15</v>
+      </c>
+      <c r="OR9" s="28">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
-      <c r="B10" s="49"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="16"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2614,14 +2997,26 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
+      <c r="X10" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="25">
+        <v>0</v>
+      </c>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
+      <c r="AD10" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="25">
+        <v>0</v>
+      </c>
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
@@ -2652,8 +3047,12 @@
       <c r="BG10" s="3"/>
       <c r="BH10" s="3"/>
       <c r="BI10" s="3"/>
-      <c r="BJ10" s="3"/>
-      <c r="BK10" s="3"/>
+      <c r="BJ10" s="28">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="28">
+        <v>0</v>
+      </c>
       <c r="BL10" s="3"/>
       <c r="BM10" s="3"/>
       <c r="BN10" s="3"/>
@@ -2663,11 +3062,21 @@
       <c r="BR10" s="3"/>
       <c r="BS10" s="3"/>
       <c r="BT10" s="3"/>
-      <c r="BU10" s="3"/>
-      <c r="BV10" s="3"/>
-      <c r="BW10" s="3"/>
-      <c r="BX10" s="3"/>
-      <c r="BY10" s="3"/>
+      <c r="BU10" s="25">
+        <v>0</v>
+      </c>
+      <c r="BV10" s="25">
+        <v>0</v>
+      </c>
+      <c r="BW10" s="25">
+        <v>0</v>
+      </c>
+      <c r="BX10" s="25">
+        <v>0</v>
+      </c>
+      <c r="BY10" s="25">
+        <v>0</v>
+      </c>
       <c r="BZ10" s="3"/>
       <c r="CA10" s="3"/>
       <c r="CB10" s="3"/>
@@ -2722,15 +3131,33 @@
       <c r="DY10" s="3"/>
       <c r="DZ10" s="3"/>
       <c r="EA10" s="3"/>
-      <c r="EB10" s="3"/>
-      <c r="EC10" s="3"/>
-      <c r="ED10" s="3"/>
-      <c r="EE10" s="3"/>
-      <c r="EF10" s="3"/>
-      <c r="EG10" s="3"/>
-      <c r="EH10" s="3"/>
-      <c r="EI10" s="3"/>
-      <c r="EJ10" s="3"/>
+      <c r="EB10" s="25">
+        <v>0</v>
+      </c>
+      <c r="EC10" s="25">
+        <v>0</v>
+      </c>
+      <c r="ED10" s="25">
+        <v>0</v>
+      </c>
+      <c r="EE10" s="25">
+        <v>0</v>
+      </c>
+      <c r="EF10" s="25">
+        <v>0</v>
+      </c>
+      <c r="EG10" s="25">
+        <v>0</v>
+      </c>
+      <c r="EH10" s="25">
+        <v>0</v>
+      </c>
+      <c r="EI10" s="25">
+        <v>0</v>
+      </c>
+      <c r="EJ10" s="25">
+        <v>0</v>
+      </c>
       <c r="EK10" s="3"/>
       <c r="EL10" s="3"/>
       <c r="EM10" s="3"/>
@@ -2745,17 +3172,191 @@
       <c r="EV10" s="3"/>
       <c r="EW10" s="3"/>
       <c r="EX10" s="3"/>
-      <c r="EY10" s="3"/>
-      <c r="EZ10" s="3"/>
-      <c r="FA10" s="3"/>
+      <c r="EY10" s="25">
+        <v>0</v>
+      </c>
+      <c r="EZ10" s="25">
+        <v>0</v>
+      </c>
+      <c r="FA10" s="25">
+        <v>0</v>
+      </c>
       <c r="FB10" s="3"/>
       <c r="FC10" s="3"/>
       <c r="FD10" s="3"/>
       <c r="FE10" s="3"/>
+      <c r="FS10" s="28">
+        <v>16</v>
+      </c>
+      <c r="FT10" s="28">
+        <v>16</v>
+      </c>
+      <c r="GE10" s="25">
+        <v>0</v>
+      </c>
+      <c r="GF10" s="25">
+        <v>0</v>
+      </c>
+      <c r="IZ10" s="25">
+        <v>0</v>
+      </c>
+      <c r="JA10" s="25">
+        <v>0</v>
+      </c>
+      <c r="JB10" s="25">
+        <v>0</v>
+      </c>
+      <c r="JC10" s="25">
+        <v>0</v>
+      </c>
+      <c r="JD10" s="25">
+        <v>0</v>
+      </c>
+      <c r="JE10" s="25">
+        <v>0</v>
+      </c>
+      <c r="JF10" s="25">
+        <v>0</v>
+      </c>
+      <c r="JG10" s="25">
+        <v>0</v>
+      </c>
+      <c r="JH10" s="25">
+        <v>0</v>
+      </c>
+      <c r="JI10" s="25">
+        <v>0</v>
+      </c>
+      <c r="JJ10" s="25">
+        <v>0</v>
+      </c>
+      <c r="JK10" s="25">
+        <v>0</v>
+      </c>
+      <c r="JL10" s="25">
+        <v>0</v>
+      </c>
+      <c r="LT10" s="25">
+        <v>0</v>
+      </c>
+      <c r="LU10" s="25">
+        <v>0</v>
+      </c>
+      <c r="LV10" s="25">
+        <v>0</v>
+      </c>
+      <c r="LW10" s="25">
+        <v>0</v>
+      </c>
+      <c r="LX10" s="25">
+        <v>0</v>
+      </c>
+      <c r="LY10" s="25">
+        <v>0</v>
+      </c>
+      <c r="LZ10" s="25">
+        <v>0</v>
+      </c>
+      <c r="MA10" s="25">
+        <v>0</v>
+      </c>
+      <c r="MB10" s="25">
+        <v>0</v>
+      </c>
+      <c r="MC10" s="25">
+        <v>0</v>
+      </c>
+      <c r="MJ10" s="25">
+        <v>0</v>
+      </c>
+      <c r="MK10" s="25">
+        <v>0</v>
+      </c>
+      <c r="ML10" s="25">
+        <v>0</v>
+      </c>
+      <c r="MM10" s="25">
+        <v>0</v>
+      </c>
+      <c r="MN10" s="25">
+        <v>0</v>
+      </c>
+      <c r="MO10" s="25">
+        <v>0</v>
+      </c>
+      <c r="MP10" s="25">
+        <v>0</v>
+      </c>
+      <c r="MQ10" s="25">
+        <v>0</v>
+      </c>
+      <c r="NL10" s="25">
+        <v>0</v>
+      </c>
+      <c r="NM10" s="25">
+        <v>0</v>
+      </c>
+      <c r="NN10" s="25">
+        <v>0</v>
+      </c>
+      <c r="NO10" s="25">
+        <v>0</v>
+      </c>
+      <c r="NP10" s="25">
+        <v>0</v>
+      </c>
+      <c r="NQ10" s="25">
+        <v>0</v>
+      </c>
+      <c r="NR10" s="25">
+        <v>0</v>
+      </c>
+      <c r="NS10" s="25">
+        <v>0</v>
+      </c>
+      <c r="NT10" s="25">
+        <v>0</v>
+      </c>
+      <c r="NU10" s="25">
+        <v>0</v>
+      </c>
+      <c r="NV10" s="25">
+        <v>0</v>
+      </c>
+      <c r="NW10" s="25">
+        <v>0</v>
+      </c>
+      <c r="NX10" s="25">
+        <v>0</v>
+      </c>
+      <c r="PG10" s="28">
+        <v>8</v>
+      </c>
+      <c r="PH10" s="28">
+        <v>8</v>
+      </c>
+      <c r="PI10" s="28">
+        <v>8</v>
+      </c>
+      <c r="PJ10" s="28">
+        <v>8</v>
+      </c>
+      <c r="PO10" s="28">
+        <v>0</v>
+      </c>
+      <c r="PP10" s="28">
+        <v>0</v>
+      </c>
+      <c r="QN10" s="28">
+        <v>7</v>
+      </c>
+      <c r="QO10" s="28">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
-      <c r="B11" s="49"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="16"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2790,8 +3391,12 @@
       <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
+      <c r="AK11" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="28">
+        <v>0</v>
+      </c>
       <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
       <c r="AO11" s="3"/>
@@ -2815,8 +3420,12 @@
       <c r="BG11" s="3"/>
       <c r="BH11" s="3"/>
       <c r="BI11" s="3"/>
-      <c r="BJ11" s="3"/>
-      <c r="BK11" s="3"/>
+      <c r="BJ11" s="28">
+        <v>0</v>
+      </c>
+      <c r="BK11" s="28">
+        <v>0</v>
+      </c>
       <c r="BL11" s="3"/>
       <c r="BM11" s="3"/>
       <c r="BN11" s="3"/>
@@ -2836,10 +3445,18 @@
       <c r="CB11" s="3"/>
       <c r="CC11" s="3"/>
       <c r="CD11" s="3"/>
-      <c r="CE11" s="3"/>
-      <c r="CF11" s="3"/>
-      <c r="CG11" s="3"/>
-      <c r="CH11" s="3"/>
+      <c r="CE11" s="28">
+        <v>8</v>
+      </c>
+      <c r="CF11" s="28">
+        <v>8</v>
+      </c>
+      <c r="CG11" s="28">
+        <v>8</v>
+      </c>
+      <c r="CH11" s="28">
+        <v>8</v>
+      </c>
       <c r="CI11" s="3"/>
       <c r="CJ11" s="3"/>
       <c r="CK11" s="3"/>
@@ -2915,10 +3532,315 @@
       <c r="FC11" s="3"/>
       <c r="FD11" s="3"/>
       <c r="FE11" s="3"/>
+      <c r="FS11" s="28">
+        <v>16</v>
+      </c>
+      <c r="FT11" s="28">
+        <v>16</v>
+      </c>
+      <c r="GD11" s="28">
+        <v>8</v>
+      </c>
+      <c r="GE11" s="28">
+        <v>8</v>
+      </c>
+      <c r="GF11" s="28">
+        <v>8</v>
+      </c>
+      <c r="GG11" s="28">
+        <v>8</v>
+      </c>
+      <c r="IW11" s="25">
+        <v>0</v>
+      </c>
+      <c r="IX11" s="25">
+        <v>0</v>
+      </c>
+      <c r="IY11" s="25">
+        <v>0</v>
+      </c>
+      <c r="IZ11" s="25">
+        <v>0</v>
+      </c>
+      <c r="JA11" s="25">
+        <v>0</v>
+      </c>
+      <c r="JB11" s="25">
+        <v>0</v>
+      </c>
+      <c r="JC11" s="25">
+        <v>0</v>
+      </c>
+      <c r="JD11" s="25">
+        <v>0</v>
+      </c>
+      <c r="JE11" s="25">
+        <v>0</v>
+      </c>
+      <c r="JF11" s="25">
+        <v>0</v>
+      </c>
+      <c r="JG11" s="25">
+        <v>0</v>
+      </c>
+      <c r="JH11" s="25">
+        <v>0</v>
+      </c>
+      <c r="JI11" s="25">
+        <v>0</v>
+      </c>
+      <c r="JJ11" s="25">
+        <v>0</v>
+      </c>
+      <c r="JK11" s="25">
+        <v>0</v>
+      </c>
+      <c r="JL11" s="25">
+        <v>0</v>
+      </c>
+      <c r="JM11" s="25">
+        <v>0</v>
+      </c>
+      <c r="JN11" s="25">
+        <v>0</v>
+      </c>
+      <c r="JT11" s="28">
+        <v>7</v>
+      </c>
+      <c r="JU11" s="28">
+        <v>7</v>
+      </c>
+      <c r="KC11" s="28">
+        <v>16</v>
+      </c>
+      <c r="KD11" s="28">
+        <v>16</v>
+      </c>
+      <c r="KJ11" s="25">
+        <v>0</v>
+      </c>
+      <c r="KK11" s="25">
+        <v>0</v>
+      </c>
+      <c r="KL11" s="25">
+        <v>0</v>
+      </c>
+      <c r="KM11" s="25">
+        <v>0</v>
+      </c>
+      <c r="KN11" s="25">
+        <v>0</v>
+      </c>
+      <c r="KO11" s="25">
+        <v>0</v>
+      </c>
+      <c r="KP11" s="25">
+        <v>0</v>
+      </c>
+      <c r="KQ11" s="25">
+        <v>0</v>
+      </c>
+      <c r="KR11" s="25">
+        <v>0</v>
+      </c>
+      <c r="KS11" s="25">
+        <v>0</v>
+      </c>
+      <c r="KT11" s="25">
+        <v>0</v>
+      </c>
+      <c r="KU11" s="25">
+        <v>0</v>
+      </c>
+      <c r="KV11" s="25">
+        <v>0</v>
+      </c>
+      <c r="KW11" s="25">
+        <v>0</v>
+      </c>
+      <c r="KX11" s="25">
+        <v>0</v>
+      </c>
+      <c r="KY11" s="25">
+        <v>0</v>
+      </c>
+      <c r="LN11" s="28">
+        <v>7</v>
+      </c>
+      <c r="LO11" s="28">
+        <v>7</v>
+      </c>
+      <c r="LR11" s="25">
+        <v>0</v>
+      </c>
+      <c r="LS11" s="25">
+        <v>0</v>
+      </c>
+      <c r="LT11" s="25">
+        <v>0</v>
+      </c>
+      <c r="LU11" s="25">
+        <v>0</v>
+      </c>
+      <c r="LV11" s="25">
+        <v>0</v>
+      </c>
+      <c r="LW11" s="25">
+        <v>0</v>
+      </c>
+      <c r="LX11" s="25">
+        <v>0</v>
+      </c>
+      <c r="LY11" s="25">
+        <v>0</v>
+      </c>
+      <c r="LZ11" s="25">
+        <v>0</v>
+      </c>
+      <c r="MA11" s="25">
+        <v>0</v>
+      </c>
+      <c r="MB11" s="25">
+        <v>0</v>
+      </c>
+      <c r="MC11" s="25">
+        <v>0</v>
+      </c>
+      <c r="MD11" s="25">
+        <v>0</v>
+      </c>
+      <c r="MI11" s="25">
+        <v>0</v>
+      </c>
+      <c r="MJ11" s="25">
+        <v>0</v>
+      </c>
+      <c r="MK11" s="25">
+        <v>0</v>
+      </c>
+      <c r="ML11" s="25">
+        <v>0</v>
+      </c>
+      <c r="MM11" s="25">
+        <v>0</v>
+      </c>
+      <c r="MN11" s="25">
+        <v>0</v>
+      </c>
+      <c r="MO11" s="25">
+        <v>0</v>
+      </c>
+      <c r="MP11" s="25">
+        <v>0</v>
+      </c>
+      <c r="MQ11" s="25">
+        <v>0</v>
+      </c>
+      <c r="MR11" s="25">
+        <v>0</v>
+      </c>
+      <c r="MS11" s="25">
+        <v>0</v>
+      </c>
+      <c r="MW11" s="28">
+        <v>16</v>
+      </c>
+      <c r="MX11" s="28">
+        <v>16</v>
+      </c>
+      <c r="NI11" s="25">
+        <v>0</v>
+      </c>
+      <c r="NJ11" s="25">
+        <v>0</v>
+      </c>
+      <c r="NK11" s="25">
+        <v>0</v>
+      </c>
+      <c r="NL11" s="25">
+        <v>0</v>
+      </c>
+      <c r="NM11" s="25">
+        <v>0</v>
+      </c>
+      <c r="NN11" s="25">
+        <v>0</v>
+      </c>
+      <c r="NO11" s="25">
+        <v>0</v>
+      </c>
+      <c r="NP11" s="25">
+        <v>0</v>
+      </c>
+      <c r="NQ11" s="25">
+        <v>0</v>
+      </c>
+      <c r="NR11" s="25">
+        <v>0</v>
+      </c>
+      <c r="NS11" s="25">
+        <v>0</v>
+      </c>
+      <c r="NT11" s="25">
+        <v>0</v>
+      </c>
+      <c r="NU11" s="25">
+        <v>0</v>
+      </c>
+      <c r="NV11" s="25">
+        <v>0</v>
+      </c>
+      <c r="NW11" s="25">
+        <v>0</v>
+      </c>
+      <c r="NX11" s="25">
+        <v>0</v>
+      </c>
+      <c r="NY11" s="25">
+        <v>0</v>
+      </c>
+      <c r="NZ11" s="25">
+        <v>0</v>
+      </c>
+      <c r="OA11" s="25">
+        <v>0</v>
+      </c>
+      <c r="PG11" s="28">
+        <v>8</v>
+      </c>
+      <c r="PH11" s="28">
+        <v>8</v>
+      </c>
+      <c r="PI11" s="28">
+        <v>8</v>
+      </c>
+      <c r="PJ11" s="28">
+        <v>8</v>
+      </c>
+      <c r="PO11" s="28">
+        <v>0</v>
+      </c>
+      <c r="PP11" s="28">
+        <v>0</v>
+      </c>
+      <c r="QN11" s="28">
+        <v>7</v>
+      </c>
+      <c r="QO11" s="28">
+        <v>7</v>
+      </c>
+      <c r="RJ11" s="28">
+        <v>0</v>
+      </c>
+      <c r="RK11" s="28">
+        <v>0</v>
+      </c>
+      <c r="RY11" s="27"/>
+      <c r="RZ11" s="27"/>
     </row>
     <row r="12" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
-      <c r="B12" s="49"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="16"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -2953,8 +3875,12 @@
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
+      <c r="AK12" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="28">
+        <v>0</v>
+      </c>
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
@@ -2971,20 +3897,48 @@
       <c r="AZ12" s="3"/>
       <c r="BA12" s="3"/>
       <c r="BB12" s="3"/>
-      <c r="BC12" s="3"/>
-      <c r="BD12" s="3"/>
-      <c r="BE12" s="3"/>
-      <c r="BF12" s="3"/>
-      <c r="BG12" s="3"/>
-      <c r="BH12" s="3"/>
-      <c r="BI12" s="3"/>
-      <c r="BJ12" s="3"/>
-      <c r="BK12" s="3"/>
-      <c r="BL12" s="3"/>
-      <c r="BM12" s="3"/>
-      <c r="BN12" s="3"/>
-      <c r="BO12" s="3"/>
-      <c r="BP12" s="3"/>
+      <c r="BC12" s="25">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="25">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="25">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="25">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="25">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="25">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="25">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="25">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="25">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="25">
+        <v>0</v>
+      </c>
+      <c r="BM12" s="25">
+        <v>0</v>
+      </c>
+      <c r="BN12" s="25">
+        <v>0</v>
+      </c>
+      <c r="BO12" s="25">
+        <v>0</v>
+      </c>
+      <c r="BP12" s="25">
+        <v>0</v>
+      </c>
       <c r="BQ12" s="3"/>
       <c r="BR12" s="3"/>
       <c r="BS12" s="3"/>
@@ -2999,10 +3953,18 @@
       <c r="CB12" s="3"/>
       <c r="CC12" s="3"/>
       <c r="CD12" s="3"/>
-      <c r="CE12" s="3"/>
-      <c r="CF12" s="3"/>
-      <c r="CG12" s="3"/>
-      <c r="CH12" s="3"/>
+      <c r="CE12" s="28">
+        <v>8</v>
+      </c>
+      <c r="CF12" s="28">
+        <v>8</v>
+      </c>
+      <c r="CG12" s="28">
+        <v>8</v>
+      </c>
+      <c r="CH12" s="28">
+        <v>8</v>
+      </c>
       <c r="CI12" s="3"/>
       <c r="CJ12" s="3"/>
       <c r="CK12" s="3"/>
@@ -3078,1508 +4040,2040 @@
       <c r="FC12" s="3"/>
       <c r="FD12" s="3"/>
       <c r="FE12" s="3"/>
+      <c r="FM12" s="25">
+        <v>0</v>
+      </c>
+      <c r="FN12" s="25">
+        <v>0</v>
+      </c>
+      <c r="FO12" s="25">
+        <v>0</v>
+      </c>
+      <c r="FP12" s="25">
+        <v>0</v>
+      </c>
+      <c r="FQ12" s="25">
+        <v>0</v>
+      </c>
+      <c r="FR12" s="25">
+        <v>0</v>
+      </c>
+      <c r="FS12" s="25">
+        <v>0</v>
+      </c>
+      <c r="FT12" s="25">
+        <v>0</v>
+      </c>
+      <c r="FU12" s="25">
+        <v>0</v>
+      </c>
+      <c r="FV12" s="25">
+        <v>0</v>
+      </c>
+      <c r="FW12" s="25">
+        <v>0</v>
+      </c>
+      <c r="FX12" s="25">
+        <v>0</v>
+      </c>
+      <c r="FY12" s="25">
+        <v>0</v>
+      </c>
+      <c r="FZ12" s="25">
+        <v>0</v>
+      </c>
+      <c r="GD12" s="28">
+        <v>8</v>
+      </c>
+      <c r="GE12" s="28">
+        <v>8</v>
+      </c>
+      <c r="GF12" s="28">
+        <v>8</v>
+      </c>
+      <c r="GG12" s="28">
+        <v>8</v>
+      </c>
+      <c r="HV12" s="25">
+        <v>0</v>
+      </c>
+      <c r="HW12" s="25">
+        <v>0</v>
+      </c>
+      <c r="HX12" s="25">
+        <v>0</v>
+      </c>
+      <c r="HY12" s="25">
+        <v>0</v>
+      </c>
+      <c r="HZ12" s="25">
+        <v>0</v>
+      </c>
+      <c r="IA12" s="25">
+        <v>0</v>
+      </c>
+      <c r="IB12" s="25">
+        <v>0</v>
+      </c>
+      <c r="IC12" s="25">
+        <v>0</v>
+      </c>
+      <c r="ID12" s="25">
+        <v>0</v>
+      </c>
+      <c r="IE12" s="25">
+        <v>0</v>
+      </c>
+      <c r="IT12" s="25">
+        <v>0</v>
+      </c>
+      <c r="IU12" s="25">
+        <v>0</v>
+      </c>
+      <c r="IV12" s="25">
+        <v>0</v>
+      </c>
+      <c r="IW12" s="25">
+        <v>0</v>
+      </c>
+      <c r="IX12" s="25">
+        <v>0</v>
+      </c>
+      <c r="IY12" s="25">
+        <v>0</v>
+      </c>
+      <c r="IZ12" s="25">
+        <v>0</v>
+      </c>
+      <c r="JA12" s="25">
+        <v>0</v>
+      </c>
+      <c r="JB12" s="25">
+        <v>0</v>
+      </c>
+      <c r="JC12" s="25">
+        <v>0</v>
+      </c>
+      <c r="JD12" s="25">
+        <v>0</v>
+      </c>
+      <c r="JE12" s="25">
+        <v>0</v>
+      </c>
+      <c r="JF12" s="25">
+        <v>0</v>
+      </c>
+      <c r="JG12" s="25">
+        <v>0</v>
+      </c>
+      <c r="JH12" s="25">
+        <v>0</v>
+      </c>
+      <c r="JI12" s="25">
+        <v>0</v>
+      </c>
+      <c r="JJ12" s="25">
+        <v>0</v>
+      </c>
+      <c r="JK12" s="25">
+        <v>0</v>
+      </c>
+      <c r="JL12" s="25">
+        <v>0</v>
+      </c>
+      <c r="JM12" s="25">
+        <v>0</v>
+      </c>
+      <c r="JN12" s="25">
+        <v>0</v>
+      </c>
+      <c r="JO12" s="25">
+        <v>0</v>
+      </c>
+      <c r="JP12" s="25">
+        <v>0</v>
+      </c>
+      <c r="JQ12" s="25">
+        <v>0</v>
+      </c>
+      <c r="JT12" s="28">
+        <v>7</v>
+      </c>
+      <c r="JU12" s="28">
+        <v>7</v>
+      </c>
+      <c r="KC12" s="28">
+        <v>16</v>
+      </c>
+      <c r="KD12" s="28">
+        <v>16</v>
+      </c>
+      <c r="KG12" s="25">
+        <v>0</v>
+      </c>
+      <c r="KH12" s="25">
+        <v>0</v>
+      </c>
+      <c r="KI12" s="25">
+        <v>0</v>
+      </c>
+      <c r="KJ12" s="25">
+        <v>0</v>
+      </c>
+      <c r="KK12" s="25">
+        <v>0</v>
+      </c>
+      <c r="KL12" s="25">
+        <v>0</v>
+      </c>
+      <c r="KM12" s="25">
+        <v>0</v>
+      </c>
+      <c r="KN12" s="25">
+        <v>0</v>
+      </c>
+      <c r="KO12" s="25">
+        <v>0</v>
+      </c>
+      <c r="KP12" s="25">
+        <v>0</v>
+      </c>
+      <c r="KQ12" s="25">
+        <v>0</v>
+      </c>
+      <c r="KR12" s="25">
+        <v>0</v>
+      </c>
+      <c r="KS12" s="25">
+        <v>0</v>
+      </c>
+      <c r="KT12" s="25">
+        <v>0</v>
+      </c>
+      <c r="KU12" s="25">
+        <v>0</v>
+      </c>
+      <c r="KV12" s="25">
+        <v>0</v>
+      </c>
+      <c r="KW12" s="25">
+        <v>0</v>
+      </c>
+      <c r="KX12" s="25">
+        <v>0</v>
+      </c>
+      <c r="KY12" s="25">
+        <v>0</v>
+      </c>
+      <c r="KZ12" s="25">
+        <v>0</v>
+      </c>
+      <c r="LA12" s="25">
+        <v>0</v>
+      </c>
+      <c r="LB12" s="25">
+        <v>0</v>
+      </c>
+      <c r="LC12" s="25">
+        <v>0</v>
+      </c>
+      <c r="LN12" s="28">
+        <v>7</v>
+      </c>
+      <c r="LO12" s="28">
+        <v>7</v>
+      </c>
+      <c r="LP12" s="25">
+        <v>0</v>
+      </c>
+      <c r="LQ12" s="25">
+        <v>0</v>
+      </c>
+      <c r="LR12" s="25">
+        <v>0</v>
+      </c>
+      <c r="LS12" s="25">
+        <v>0</v>
+      </c>
+      <c r="LT12" s="25">
+        <v>0</v>
+      </c>
+      <c r="LU12" s="25">
+        <v>0</v>
+      </c>
+      <c r="LV12" s="25">
+        <v>0</v>
+      </c>
+      <c r="LW12" s="25">
+        <v>0</v>
+      </c>
+      <c r="LX12" s="25">
+        <v>0</v>
+      </c>
+      <c r="LY12" s="25">
+        <v>0</v>
+      </c>
+      <c r="LZ12" s="25">
+        <v>0</v>
+      </c>
+      <c r="MA12" s="25">
+        <v>0</v>
+      </c>
+      <c r="MB12" s="25">
+        <v>0</v>
+      </c>
+      <c r="MC12" s="25">
+        <v>0</v>
+      </c>
+      <c r="MD12" s="25">
+        <v>0</v>
+      </c>
+      <c r="MI12" s="25">
+        <v>0</v>
+      </c>
+      <c r="MJ12" s="25">
+        <v>0</v>
+      </c>
+      <c r="MK12" s="25">
+        <v>0</v>
+      </c>
+      <c r="ML12" s="25">
+        <v>0</v>
+      </c>
+      <c r="MM12" s="25">
+        <v>0</v>
+      </c>
+      <c r="MN12" s="25">
+        <v>0</v>
+      </c>
+      <c r="MO12" s="25">
+        <v>0</v>
+      </c>
+      <c r="MP12" s="25">
+        <v>0</v>
+      </c>
+      <c r="MQ12" s="25">
+        <v>0</v>
+      </c>
+      <c r="MR12" s="25">
+        <v>0</v>
+      </c>
+      <c r="MS12" s="25">
+        <v>0</v>
+      </c>
+      <c r="MT12" s="25">
+        <v>0</v>
+      </c>
+      <c r="MU12" s="25">
+        <v>0</v>
+      </c>
+      <c r="MW12" s="28">
+        <v>16</v>
+      </c>
+      <c r="MX12" s="28">
+        <v>16</v>
+      </c>
+      <c r="NE12" s="25">
+        <v>0</v>
+      </c>
+      <c r="NF12" s="25">
+        <v>0</v>
+      </c>
+      <c r="NG12" s="25">
+        <v>0</v>
+      </c>
+      <c r="NH12" s="25">
+        <v>0</v>
+      </c>
+      <c r="NI12" s="25">
+        <v>0</v>
+      </c>
+      <c r="NJ12" s="25">
+        <v>0</v>
+      </c>
+      <c r="NK12" s="25">
+        <v>0</v>
+      </c>
+      <c r="NL12" s="25">
+        <v>0</v>
+      </c>
+      <c r="NM12" s="25">
+        <v>0</v>
+      </c>
+      <c r="NN12" s="25">
+        <v>0</v>
+      </c>
+      <c r="NO12" s="25">
+        <v>0</v>
+      </c>
+      <c r="NP12" s="25">
+        <v>0</v>
+      </c>
+      <c r="NQ12" s="25">
+        <v>0</v>
+      </c>
+      <c r="NR12" s="25">
+        <v>0</v>
+      </c>
+      <c r="NS12" s="25">
+        <v>0</v>
+      </c>
+      <c r="NT12" s="25">
+        <v>0</v>
+      </c>
+      <c r="NU12" s="25">
+        <v>0</v>
+      </c>
+      <c r="NV12" s="25">
+        <v>0</v>
+      </c>
+      <c r="NW12" s="25">
+        <v>0</v>
+      </c>
+      <c r="NX12" s="25">
+        <v>0</v>
+      </c>
+      <c r="NY12" s="25">
+        <v>0</v>
+      </c>
+      <c r="NZ12" s="25">
+        <v>0</v>
+      </c>
+      <c r="OA12" s="25">
+        <v>0</v>
+      </c>
+      <c r="OB12" s="25">
+        <v>0</v>
+      </c>
+      <c r="OC12" s="25">
+        <v>0</v>
+      </c>
+      <c r="OD12" s="25">
+        <v>0</v>
+      </c>
+      <c r="OY12" s="25">
+        <v>0</v>
+      </c>
+      <c r="OZ12" s="25">
+        <v>0</v>
+      </c>
+      <c r="PA12" s="25">
+        <v>0</v>
+      </c>
+      <c r="PB12" s="25">
+        <v>0</v>
+      </c>
+      <c r="PC12" s="25">
+        <v>0</v>
+      </c>
+      <c r="PD12" s="25">
+        <v>0</v>
+      </c>
+      <c r="PE12" s="25">
+        <v>0</v>
+      </c>
+      <c r="PF12" s="25">
+        <v>0</v>
+      </c>
+      <c r="PG12" s="25">
+        <v>0</v>
+      </c>
+      <c r="PH12" s="25">
+        <v>0</v>
+      </c>
+      <c r="PI12" s="25">
+        <v>0</v>
+      </c>
+      <c r="PJ12" s="25">
+        <v>0</v>
+      </c>
+      <c r="PK12" s="25">
+        <v>0</v>
+      </c>
+      <c r="PL12" s="25">
+        <v>0</v>
+      </c>
+      <c r="PM12" s="25">
+        <v>0</v>
+      </c>
+      <c r="PN12" s="25">
+        <v>0</v>
+      </c>
+      <c r="PO12" s="25">
+        <v>0</v>
+      </c>
+      <c r="PP12" s="25">
+        <v>0</v>
+      </c>
+      <c r="PQ12" s="25">
+        <v>0</v>
+      </c>
+      <c r="PR12" s="25">
+        <v>0</v>
+      </c>
+      <c r="PS12" s="25">
+        <v>0</v>
+      </c>
+      <c r="PT12" s="25">
+        <v>0</v>
+      </c>
+      <c r="PU12" s="25">
+        <v>0</v>
+      </c>
+      <c r="PV12" s="25">
+        <v>0</v>
+      </c>
+      <c r="PW12" s="25">
+        <v>0</v>
+      </c>
+      <c r="PX12" s="25">
+        <v>0</v>
+      </c>
+      <c r="PY12" s="25">
+        <v>0</v>
+      </c>
+      <c r="QC12" s="25">
+        <v>0</v>
+      </c>
+      <c r="QD12" s="25">
+        <v>0</v>
+      </c>
+      <c r="QE12" s="25">
+        <v>0</v>
+      </c>
+      <c r="QF12" s="25">
+        <v>0</v>
+      </c>
+      <c r="QG12" s="25">
+        <v>0</v>
+      </c>
+      <c r="QH12" s="25">
+        <v>0</v>
+      </c>
+      <c r="QI12" s="25">
+        <v>0</v>
+      </c>
+      <c r="QJ12" s="25">
+        <v>0</v>
+      </c>
+      <c r="QK12" s="25">
+        <v>0</v>
+      </c>
+      <c r="QL12" s="25">
+        <v>0</v>
+      </c>
+      <c r="QM12" s="25">
+        <v>0</v>
+      </c>
+      <c r="QN12" s="25">
+        <v>0</v>
+      </c>
+      <c r="QO12" s="25">
+        <v>0</v>
+      </c>
+      <c r="QP12" s="25">
+        <v>0</v>
+      </c>
+      <c r="QQ12" s="25">
+        <v>0</v>
+      </c>
+      <c r="QR12" s="25">
+        <v>0</v>
+      </c>
+      <c r="QS12" s="25">
+        <v>0</v>
+      </c>
+      <c r="QT12" s="25">
+        <v>0</v>
+      </c>
+      <c r="QU12" s="25">
+        <v>0</v>
+      </c>
+      <c r="QV12" s="25">
+        <v>0</v>
+      </c>
+      <c r="QW12" s="25">
+        <v>0</v>
+      </c>
+      <c r="QX12" s="25">
+        <v>0</v>
+      </c>
+      <c r="QY12" s="25">
+        <v>0</v>
+      </c>
+      <c r="QZ12" s="25">
+        <v>0</v>
+      </c>
+      <c r="RA12" s="25">
+        <v>0</v>
+      </c>
+      <c r="RB12" s="25">
+        <v>0</v>
+      </c>
+      <c r="RJ12" s="28">
+        <v>0</v>
+      </c>
+      <c r="RK12" s="28">
+        <v>0</v>
+      </c>
+      <c r="RY12" s="27"/>
+      <c r="RZ12" s="27"/>
     </row>
     <row r="13" spans="1:1082" s="8" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="62">
-        <v>0</v>
-      </c>
-      <c r="D13" s="62">
-        <v>0</v>
-      </c>
-      <c r="E13" s="62">
-        <v>0</v>
-      </c>
-      <c r="F13" s="62">
-        <v>0</v>
-      </c>
-      <c r="G13" s="62">
-        <v>0</v>
-      </c>
-      <c r="H13" s="62">
-        <v>0</v>
-      </c>
-      <c r="I13" s="62">
-        <v>0</v>
-      </c>
-      <c r="J13" s="62">
-        <v>0</v>
-      </c>
-      <c r="K13" s="62">
-        <v>0</v>
-      </c>
-      <c r="L13" s="62">
-        <v>0</v>
-      </c>
-      <c r="M13" s="62">
-        <v>0</v>
-      </c>
-      <c r="N13" s="62">
-        <v>0</v>
-      </c>
-      <c r="O13" s="62">
-        <v>0</v>
-      </c>
-      <c r="P13" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="62">
-        <v>0</v>
-      </c>
-      <c r="R13" s="62">
-        <v>0</v>
-      </c>
-      <c r="S13" s="62">
-        <v>0</v>
-      </c>
-      <c r="T13" s="62">
-        <v>0</v>
-      </c>
-      <c r="U13" s="62">
-        <v>0</v>
-      </c>
-      <c r="V13" s="62">
-        <v>0</v>
-      </c>
-      <c r="W13" s="62">
-        <v>0</v>
-      </c>
-      <c r="X13" s="62">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="62">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="62">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="62">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="62">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="62">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="62">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="62">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="62">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="62">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="62">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="62">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="62">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="62">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="62">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="62">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="62">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="62">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="62">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="62">
-        <v>0</v>
-      </c>
-      <c r="AU13" s="62">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="62">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="62">
-        <v>0</v>
-      </c>
-      <c r="AX13" s="62">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="62">
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="BA13" s="62">
-        <v>0</v>
-      </c>
-      <c r="BB13" s="62">
-        <v>0</v>
-      </c>
-      <c r="BC13" s="62">
-        <v>0</v>
-      </c>
-      <c r="BD13" s="62">
-        <v>0</v>
-      </c>
-      <c r="BE13" s="62">
-        <v>0</v>
-      </c>
-      <c r="BF13" s="62">
-        <v>0</v>
-      </c>
-      <c r="BG13" s="62">
-        <v>0</v>
-      </c>
-      <c r="BH13" s="62">
-        <v>0</v>
-      </c>
-      <c r="BI13" s="62">
-        <v>0</v>
-      </c>
-      <c r="BJ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="BK13" s="62">
-        <v>0</v>
-      </c>
-      <c r="BL13" s="62">
-        <v>0</v>
-      </c>
-      <c r="BM13" s="62">
-        <v>0</v>
-      </c>
-      <c r="BN13" s="62">
-        <v>0</v>
-      </c>
-      <c r="BO13" s="62">
-        <v>0</v>
-      </c>
-      <c r="BP13" s="62">
-        <v>0</v>
-      </c>
-      <c r="BQ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="BR13" s="62">
-        <v>0</v>
-      </c>
-      <c r="BS13" s="62">
-        <v>0</v>
-      </c>
-      <c r="BT13" s="62">
-        <v>0</v>
-      </c>
-      <c r="BU13" s="62">
-        <v>0</v>
-      </c>
-      <c r="BV13" s="62">
-        <v>0</v>
-      </c>
-      <c r="BW13" s="62">
-        <v>0</v>
-      </c>
-      <c r="BX13" s="62">
-        <v>0</v>
-      </c>
-      <c r="BY13" s="62">
-        <v>0</v>
-      </c>
-      <c r="BZ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="CA13" s="62">
-        <v>0</v>
-      </c>
-      <c r="CB13" s="62">
-        <v>0</v>
-      </c>
-      <c r="CC13" s="62">
-        <v>0</v>
-      </c>
-      <c r="CD13" s="62">
-        <v>0</v>
-      </c>
-      <c r="CE13" s="62">
-        <v>0</v>
-      </c>
-      <c r="CF13" s="62">
-        <v>0</v>
-      </c>
-      <c r="CG13" s="62">
-        <v>0</v>
-      </c>
-      <c r="CH13" s="62">
-        <v>0</v>
-      </c>
-      <c r="CI13" s="62">
-        <v>0</v>
-      </c>
-      <c r="CJ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="CK13" s="62">
-        <v>0</v>
-      </c>
-      <c r="CL13" s="62">
-        <v>0</v>
-      </c>
-      <c r="CM13" s="62">
-        <v>0</v>
-      </c>
-      <c r="CN13" s="62">
-        <v>0</v>
-      </c>
-      <c r="CO13" s="62">
-        <v>0</v>
-      </c>
-      <c r="CP13" s="62">
-        <v>0</v>
-      </c>
-      <c r="CQ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="CR13" s="62">
-        <v>0</v>
-      </c>
-      <c r="CS13" s="62">
-        <v>0</v>
-      </c>
-      <c r="CT13" s="62">
-        <v>0</v>
-      </c>
-      <c r="CU13" s="62">
-        <v>0</v>
-      </c>
-      <c r="CV13" s="62">
-        <v>0</v>
-      </c>
-      <c r="CW13" s="62">
-        <v>0</v>
-      </c>
-      <c r="CX13" s="62">
-        <v>0</v>
-      </c>
-      <c r="CY13" s="62">
-        <v>0</v>
-      </c>
-      <c r="CZ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="DA13" s="62">
-        <v>0</v>
-      </c>
-      <c r="DB13" s="62">
-        <v>0</v>
-      </c>
-      <c r="DC13" s="62">
-        <v>0</v>
-      </c>
-      <c r="DD13" s="62">
-        <v>0</v>
-      </c>
-      <c r="DE13" s="62">
-        <v>0</v>
-      </c>
-      <c r="DF13" s="62">
-        <v>0</v>
-      </c>
-      <c r="DG13" s="62">
-        <v>0</v>
-      </c>
-      <c r="DH13" s="62">
-        <v>0</v>
-      </c>
-      <c r="DI13" s="62">
-        <v>0</v>
-      </c>
-      <c r="DJ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="DK13" s="62">
-        <v>0</v>
-      </c>
-      <c r="DL13" s="62">
-        <v>0</v>
-      </c>
-      <c r="DM13" s="62">
-        <v>0</v>
-      </c>
-      <c r="DN13" s="62">
-        <v>0</v>
-      </c>
-      <c r="DO13" s="62">
-        <v>0</v>
-      </c>
-      <c r="DP13" s="62">
-        <v>0</v>
-      </c>
-      <c r="DQ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="DR13" s="62">
-        <v>0</v>
-      </c>
-      <c r="DS13" s="62">
-        <v>0</v>
-      </c>
-      <c r="DT13" s="62">
-        <v>0</v>
-      </c>
-      <c r="DU13" s="62">
-        <v>0</v>
-      </c>
-      <c r="DV13" s="62">
-        <v>0</v>
-      </c>
-      <c r="DW13" s="62">
-        <v>0</v>
-      </c>
-      <c r="DX13" s="62">
-        <v>0</v>
-      </c>
-      <c r="DY13" s="62">
-        <v>0</v>
-      </c>
-      <c r="DZ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="EA13" s="62">
-        <v>0</v>
-      </c>
-      <c r="EB13" s="62">
-        <v>0</v>
-      </c>
-      <c r="EC13" s="62">
-        <v>0</v>
-      </c>
-      <c r="ED13" s="62">
-        <v>0</v>
-      </c>
-      <c r="EE13" s="62">
-        <v>0</v>
-      </c>
-      <c r="EF13" s="62">
-        <v>0</v>
-      </c>
-      <c r="EG13" s="62">
-        <v>0</v>
-      </c>
-      <c r="EH13" s="62">
-        <v>0</v>
-      </c>
-      <c r="EI13" s="62">
-        <v>0</v>
-      </c>
-      <c r="EJ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="EK13" s="62">
-        <v>0</v>
-      </c>
-      <c r="EL13" s="62">
-        <v>0</v>
-      </c>
-      <c r="EM13" s="62">
-        <v>0</v>
-      </c>
-      <c r="EN13" s="62">
-        <v>0</v>
-      </c>
-      <c r="EO13" s="62">
-        <v>0</v>
-      </c>
-      <c r="EP13" s="62">
-        <v>0</v>
-      </c>
-      <c r="EQ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="ER13" s="62">
-        <v>0</v>
-      </c>
-      <c r="ES13" s="62">
-        <v>0</v>
-      </c>
-      <c r="ET13" s="62">
-        <v>0</v>
-      </c>
-      <c r="EU13" s="62">
-        <v>0</v>
-      </c>
-      <c r="EV13" s="62">
-        <v>0</v>
-      </c>
-      <c r="EW13" s="62">
-        <v>0</v>
-      </c>
-      <c r="EX13" s="62">
-        <v>0</v>
-      </c>
-      <c r="EY13" s="62">
-        <v>0</v>
-      </c>
-      <c r="EZ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="FA13" s="62">
-        <v>0</v>
-      </c>
-      <c r="FB13" s="62">
-        <v>0</v>
-      </c>
-      <c r="FC13" s="62">
-        <v>0</v>
-      </c>
-      <c r="FD13" s="62">
-        <v>0</v>
-      </c>
-      <c r="FE13" s="62">
-        <v>0</v>
-      </c>
-      <c r="FF13" s="62">
-        <v>0</v>
-      </c>
-      <c r="FG13" s="62">
-        <v>0</v>
-      </c>
-      <c r="FH13" s="62">
-        <v>0</v>
-      </c>
-      <c r="FI13" s="62">
-        <v>0</v>
-      </c>
-      <c r="FJ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="FK13" s="62">
-        <v>0</v>
-      </c>
-      <c r="FL13" s="62">
-        <v>0</v>
-      </c>
-      <c r="FM13" s="62">
-        <v>0</v>
-      </c>
-      <c r="FN13" s="62">
-        <v>0</v>
-      </c>
-      <c r="FO13" s="62">
-        <v>0</v>
-      </c>
-      <c r="FP13" s="62">
-        <v>0</v>
-      </c>
-      <c r="FQ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="FR13" s="62">
-        <v>0</v>
-      </c>
-      <c r="FS13" s="62">
-        <v>0</v>
-      </c>
-      <c r="FT13" s="62">
-        <v>0</v>
-      </c>
-      <c r="FU13" s="62">
-        <v>0</v>
-      </c>
-      <c r="FV13" s="62">
-        <v>0</v>
-      </c>
-      <c r="FW13" s="62">
-        <v>0</v>
-      </c>
-      <c r="FX13" s="62">
-        <v>0</v>
-      </c>
-      <c r="FY13" s="62">
-        <v>0</v>
-      </c>
-      <c r="FZ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="GA13" s="62">
-        <v>0</v>
-      </c>
-      <c r="GB13" s="62">
-        <v>0</v>
-      </c>
-      <c r="GC13" s="62">
-        <v>0</v>
-      </c>
-      <c r="GD13" s="62">
-        <v>0</v>
-      </c>
-      <c r="GE13" s="62">
-        <v>0</v>
-      </c>
-      <c r="GF13" s="62">
-        <v>0</v>
-      </c>
-      <c r="GG13" s="62">
-        <v>0</v>
-      </c>
-      <c r="GH13" s="62">
-        <v>0</v>
-      </c>
-      <c r="GI13" s="62">
-        <v>0</v>
-      </c>
-      <c r="GJ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="GK13" s="62">
-        <v>0</v>
-      </c>
-      <c r="GL13" s="62">
-        <v>0</v>
-      </c>
-      <c r="GM13" s="62">
-        <v>0</v>
-      </c>
-      <c r="GN13" s="62">
-        <v>0</v>
-      </c>
-      <c r="GO13" s="62">
-        <v>0</v>
-      </c>
-      <c r="GP13" s="62">
-        <v>0</v>
-      </c>
-      <c r="GQ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="GR13" s="62">
-        <v>0</v>
-      </c>
-      <c r="GS13" s="62">
-        <v>0</v>
-      </c>
-      <c r="GT13" s="62">
-        <v>0</v>
-      </c>
-      <c r="GU13" s="62">
-        <v>0</v>
-      </c>
-      <c r="GV13" s="62">
-        <v>0</v>
-      </c>
-      <c r="GW13" s="62">
-        <v>0</v>
-      </c>
-      <c r="GX13" s="62">
-        <v>0</v>
-      </c>
-      <c r="GY13" s="62">
-        <v>0</v>
-      </c>
-      <c r="GZ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="HA13" s="62">
-        <v>0</v>
-      </c>
-      <c r="HB13" s="62">
-        <v>0</v>
-      </c>
-      <c r="HC13" s="62">
-        <v>0</v>
-      </c>
-      <c r="HD13" s="62">
-        <v>0</v>
-      </c>
-      <c r="HE13" s="62">
-        <v>0</v>
-      </c>
-      <c r="HF13" s="62">
-        <v>0</v>
-      </c>
-      <c r="HG13" s="62">
-        <v>0</v>
-      </c>
-      <c r="HH13" s="62">
-        <v>0</v>
-      </c>
-      <c r="HI13" s="62">
-        <v>0</v>
-      </c>
-      <c r="HJ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="HK13" s="62">
-        <v>0</v>
-      </c>
-      <c r="HL13" s="62">
-        <v>0</v>
-      </c>
-      <c r="HM13" s="62">
-        <v>0</v>
-      </c>
-      <c r="HN13" s="62">
-        <v>0</v>
-      </c>
-      <c r="HO13" s="62">
-        <v>0</v>
-      </c>
-      <c r="HP13" s="62">
-        <v>0</v>
-      </c>
-      <c r="HQ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="HR13" s="62">
-        <v>0</v>
-      </c>
-      <c r="HS13" s="62">
-        <v>0</v>
-      </c>
-      <c r="HT13" s="62">
-        <v>0</v>
-      </c>
-      <c r="HU13" s="62">
-        <v>0</v>
-      </c>
-      <c r="HV13" s="62">
-        <v>0</v>
-      </c>
-      <c r="HW13" s="62">
-        <v>0</v>
-      </c>
-      <c r="HX13" s="62">
-        <v>0</v>
-      </c>
-      <c r="HY13" s="62">
-        <v>0</v>
-      </c>
-      <c r="HZ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="IA13" s="62">
-        <v>0</v>
-      </c>
-      <c r="IB13" s="62">
-        <v>0</v>
-      </c>
-      <c r="IC13" s="62">
-        <v>0</v>
-      </c>
-      <c r="ID13" s="62">
-        <v>0</v>
-      </c>
-      <c r="IE13" s="62">
-        <v>0</v>
-      </c>
-      <c r="IF13" s="62">
-        <v>0</v>
-      </c>
-      <c r="IG13" s="62">
-        <v>0</v>
-      </c>
-      <c r="IH13" s="62">
-        <v>0</v>
-      </c>
-      <c r="II13" s="62">
-        <v>0</v>
-      </c>
-      <c r="IJ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="IK13" s="62">
-        <v>0</v>
-      </c>
-      <c r="IL13" s="62">
-        <v>0</v>
-      </c>
-      <c r="IM13" s="62">
-        <v>0</v>
-      </c>
-      <c r="IN13" s="62">
-        <v>0</v>
-      </c>
-      <c r="IO13" s="62">
-        <v>0</v>
-      </c>
-      <c r="IP13" s="62">
-        <v>0</v>
-      </c>
-      <c r="IQ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="IR13" s="62">
-        <v>0</v>
-      </c>
-      <c r="IS13" s="62">
-        <v>0</v>
-      </c>
-      <c r="IT13" s="62">
-        <v>0</v>
-      </c>
-      <c r="IU13" s="62">
-        <v>0</v>
-      </c>
-      <c r="IV13" s="62">
-        <v>0</v>
-      </c>
-      <c r="IW13" s="62">
-        <v>0</v>
-      </c>
-      <c r="IX13" s="62">
-        <v>0</v>
-      </c>
-      <c r="IY13" s="62">
-        <v>0</v>
-      </c>
-      <c r="IZ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="JA13" s="62">
-        <v>0</v>
-      </c>
-      <c r="JB13" s="62">
-        <v>0</v>
-      </c>
-      <c r="JC13" s="62">
-        <v>0</v>
-      </c>
-      <c r="JD13" s="62">
-        <v>0</v>
-      </c>
-      <c r="JE13" s="62">
-        <v>0</v>
-      </c>
-      <c r="JF13" s="62">
-        <v>0</v>
-      </c>
-      <c r="JG13" s="62">
-        <v>0</v>
-      </c>
-      <c r="JH13" s="62">
-        <v>0</v>
-      </c>
-      <c r="JI13" s="62">
-        <v>0</v>
-      </c>
-      <c r="JJ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="JK13" s="62">
-        <v>0</v>
-      </c>
-      <c r="JL13" s="62">
-        <v>0</v>
-      </c>
-      <c r="JM13" s="62">
-        <v>0</v>
-      </c>
-      <c r="JN13" s="62">
-        <v>0</v>
-      </c>
-      <c r="JO13" s="62">
-        <v>0</v>
-      </c>
-      <c r="JP13" s="62">
-        <v>0</v>
-      </c>
-      <c r="JQ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="JR13" s="62">
-        <v>0</v>
-      </c>
-      <c r="JS13" s="62">
-        <v>0</v>
-      </c>
-      <c r="JT13" s="62">
-        <v>0</v>
-      </c>
-      <c r="JU13" s="62">
-        <v>0</v>
-      </c>
-      <c r="JV13" s="62">
-        <v>0</v>
-      </c>
-      <c r="JW13" s="62">
-        <v>0</v>
-      </c>
-      <c r="JX13" s="62">
-        <v>0</v>
-      </c>
-      <c r="JY13" s="62">
-        <v>0</v>
-      </c>
-      <c r="JZ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="KA13" s="62">
-        <v>0</v>
-      </c>
-      <c r="KB13" s="62">
-        <v>0</v>
-      </c>
-      <c r="KC13" s="62">
-        <v>0</v>
-      </c>
-      <c r="KD13" s="62">
-        <v>0</v>
-      </c>
-      <c r="KE13" s="62">
-        <v>0</v>
-      </c>
-      <c r="KF13" s="62">
-        <v>0</v>
-      </c>
-      <c r="KG13" s="62">
-        <v>0</v>
-      </c>
-      <c r="KH13" s="62">
-        <v>0</v>
-      </c>
-      <c r="KI13" s="62">
-        <v>0</v>
-      </c>
-      <c r="KJ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="KK13" s="62">
-        <v>0</v>
-      </c>
-      <c r="KL13" s="62">
-        <v>0</v>
-      </c>
-      <c r="KM13" s="62">
-        <v>0</v>
-      </c>
-      <c r="KN13" s="62">
-        <v>0</v>
-      </c>
-      <c r="KO13" s="62">
-        <v>0</v>
-      </c>
-      <c r="KP13" s="62">
-        <v>0</v>
-      </c>
-      <c r="KQ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="KR13" s="62">
-        <v>0</v>
-      </c>
-      <c r="KS13" s="62">
-        <v>0</v>
-      </c>
-      <c r="KT13" s="62">
-        <v>0</v>
-      </c>
-      <c r="KU13" s="62">
-        <v>0</v>
-      </c>
-      <c r="KV13" s="62">
-        <v>0</v>
-      </c>
-      <c r="KW13" s="62">
-        <v>0</v>
-      </c>
-      <c r="KX13" s="62">
-        <v>0</v>
-      </c>
-      <c r="KY13" s="62">
-        <v>0</v>
-      </c>
-      <c r="KZ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="LA13" s="62">
-        <v>0</v>
-      </c>
-      <c r="LB13" s="62">
-        <v>0</v>
-      </c>
-      <c r="LC13" s="62">
-        <v>0</v>
-      </c>
-      <c r="LD13" s="62">
-        <v>0</v>
-      </c>
-      <c r="LE13" s="62">
-        <v>0</v>
-      </c>
-      <c r="LF13" s="62">
-        <v>0</v>
-      </c>
-      <c r="LG13" s="62">
-        <v>0</v>
-      </c>
-      <c r="LH13" s="62">
-        <v>0</v>
-      </c>
-      <c r="LI13" s="62">
-        <v>0</v>
-      </c>
-      <c r="LJ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="LK13" s="62">
-        <v>0</v>
-      </c>
-      <c r="LL13" s="62">
-        <v>0</v>
-      </c>
-      <c r="LM13" s="62">
-        <v>0</v>
-      </c>
-      <c r="LN13" s="62">
-        <v>0</v>
-      </c>
-      <c r="LO13" s="62">
-        <v>0</v>
-      </c>
-      <c r="LP13" s="62">
-        <v>0</v>
-      </c>
-      <c r="LQ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="LR13" s="62">
-        <v>0</v>
-      </c>
-      <c r="LS13" s="62">
-        <v>0</v>
-      </c>
-      <c r="LT13" s="62">
-        <v>0</v>
-      </c>
-      <c r="LU13" s="62">
-        <v>0</v>
-      </c>
-      <c r="LV13" s="62">
-        <v>0</v>
-      </c>
-      <c r="LW13" s="62">
-        <v>0</v>
-      </c>
-      <c r="LX13" s="62">
-        <v>0</v>
-      </c>
-      <c r="LY13" s="62">
-        <v>0</v>
-      </c>
-      <c r="LZ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="MA13" s="62">
-        <v>0</v>
-      </c>
-      <c r="MB13" s="62">
-        <v>0</v>
-      </c>
-      <c r="MC13" s="62">
-        <v>0</v>
-      </c>
-      <c r="MD13" s="62">
-        <v>0</v>
-      </c>
-      <c r="ME13" s="62">
-        <v>0</v>
-      </c>
-      <c r="MF13" s="62">
-        <v>0</v>
-      </c>
-      <c r="MG13" s="62">
-        <v>0</v>
-      </c>
-      <c r="MH13" s="62">
-        <v>0</v>
-      </c>
-      <c r="MI13" s="62">
-        <v>0</v>
-      </c>
-      <c r="MJ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="MK13" s="62">
-        <v>0</v>
-      </c>
-      <c r="ML13" s="62">
-        <v>0</v>
-      </c>
-      <c r="MM13" s="62">
-        <v>0</v>
-      </c>
-      <c r="MN13" s="62">
-        <v>0</v>
-      </c>
-      <c r="MO13" s="62">
-        <v>0</v>
-      </c>
-      <c r="MP13" s="62">
-        <v>0</v>
-      </c>
-      <c r="MQ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="MR13" s="62">
-        <v>0</v>
-      </c>
-      <c r="MS13" s="62">
-        <v>0</v>
-      </c>
-      <c r="MT13" s="62">
-        <v>0</v>
-      </c>
-      <c r="MU13" s="62">
-        <v>0</v>
-      </c>
-      <c r="MV13" s="62">
-        <v>0</v>
-      </c>
-      <c r="MW13" s="62">
-        <v>0</v>
-      </c>
-      <c r="MX13" s="62">
-        <v>0</v>
-      </c>
-      <c r="MY13" s="62">
-        <v>0</v>
-      </c>
-      <c r="MZ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="NA13" s="62">
-        <v>0</v>
-      </c>
-      <c r="NB13" s="62">
-        <v>0</v>
-      </c>
-      <c r="NC13" s="62">
-        <v>0</v>
-      </c>
-      <c r="ND13" s="62">
-        <v>0</v>
-      </c>
-      <c r="NE13" s="62">
-        <v>0</v>
-      </c>
-      <c r="NF13" s="62">
-        <v>0</v>
-      </c>
-      <c r="NG13" s="62">
-        <v>0</v>
-      </c>
-      <c r="NH13" s="62">
-        <v>0</v>
-      </c>
-      <c r="NI13" s="62">
-        <v>0</v>
-      </c>
-      <c r="NJ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="NK13" s="62">
-        <v>0</v>
-      </c>
-      <c r="NL13" s="62">
-        <v>0</v>
-      </c>
-      <c r="NM13" s="62">
-        <v>0</v>
-      </c>
-      <c r="NN13" s="62">
-        <v>0</v>
-      </c>
-      <c r="NO13" s="62">
-        <v>0</v>
-      </c>
-      <c r="NP13" s="62">
-        <v>0</v>
-      </c>
-      <c r="NQ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="NR13" s="62">
-        <v>0</v>
-      </c>
-      <c r="NS13" s="62">
-        <v>0</v>
-      </c>
-      <c r="NT13" s="62">
-        <v>0</v>
-      </c>
-      <c r="NU13" s="62">
-        <v>0</v>
-      </c>
-      <c r="NV13" s="62">
-        <v>0</v>
-      </c>
-      <c r="NW13" s="62">
-        <v>0</v>
-      </c>
-      <c r="NX13" s="62">
-        <v>0</v>
-      </c>
-      <c r="NY13" s="62">
-        <v>0</v>
-      </c>
-      <c r="NZ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="OA13" s="62">
-        <v>0</v>
-      </c>
-      <c r="OB13" s="62">
-        <v>0</v>
-      </c>
-      <c r="OC13" s="62">
-        <v>0</v>
-      </c>
-      <c r="OD13" s="62">
-        <v>0</v>
-      </c>
-      <c r="OE13" s="62">
-        <v>0</v>
-      </c>
-      <c r="OF13" s="62">
-        <v>0</v>
-      </c>
-      <c r="OG13" s="62">
-        <v>0</v>
-      </c>
-      <c r="OH13" s="62">
-        <v>0</v>
-      </c>
-      <c r="OI13" s="62">
-        <v>0</v>
-      </c>
-      <c r="OJ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="OK13" s="62">
-        <v>0</v>
-      </c>
-      <c r="OL13" s="62">
-        <v>0</v>
-      </c>
-      <c r="OM13" s="62">
-        <v>0</v>
-      </c>
-      <c r="ON13" s="62">
-        <v>0</v>
-      </c>
-      <c r="OO13" s="62">
-        <v>0</v>
-      </c>
-      <c r="OP13" s="62">
-        <v>0</v>
-      </c>
-      <c r="OQ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="OR13" s="62">
-        <v>0</v>
-      </c>
-      <c r="OS13" s="62">
-        <v>0</v>
-      </c>
-      <c r="OT13" s="62">
-        <v>0</v>
-      </c>
-      <c r="OU13" s="62">
-        <v>0</v>
-      </c>
-      <c r="OV13" s="62">
-        <v>0</v>
-      </c>
-      <c r="OW13" s="62">
-        <v>0</v>
-      </c>
-      <c r="OX13" s="62">
-        <v>0</v>
-      </c>
-      <c r="OY13" s="62">
-        <v>0</v>
-      </c>
-      <c r="OZ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="PA13" s="62">
-        <v>0</v>
-      </c>
-      <c r="PB13" s="62">
-        <v>0</v>
-      </c>
-      <c r="PC13" s="62">
-        <v>0</v>
-      </c>
-      <c r="PD13" s="62">
-        <v>0</v>
-      </c>
-      <c r="PE13" s="62">
-        <v>0</v>
-      </c>
-      <c r="PF13" s="62">
-        <v>0</v>
-      </c>
-      <c r="PG13" s="62">
-        <v>0</v>
-      </c>
-      <c r="PH13" s="62">
-        <v>0</v>
-      </c>
-      <c r="PI13" s="62">
-        <v>0</v>
-      </c>
-      <c r="PJ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="PK13" s="62">
-        <v>0</v>
-      </c>
-      <c r="PL13" s="62">
-        <v>0</v>
-      </c>
-      <c r="PM13" s="62">
-        <v>0</v>
-      </c>
-      <c r="PN13" s="62">
-        <v>0</v>
-      </c>
-      <c r="PO13" s="62">
-        <v>0</v>
-      </c>
-      <c r="PP13" s="62">
-        <v>0</v>
-      </c>
-      <c r="PQ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="PR13" s="62">
-        <v>0</v>
-      </c>
-      <c r="PS13" s="62">
-        <v>0</v>
-      </c>
-      <c r="PT13" s="62">
-        <v>0</v>
-      </c>
-      <c r="PU13" s="62">
-        <v>0</v>
-      </c>
-      <c r="PV13" s="62">
-        <v>0</v>
-      </c>
-      <c r="PW13" s="62">
-        <v>0</v>
-      </c>
-      <c r="PX13" s="62">
-        <v>0</v>
-      </c>
-      <c r="PY13" s="62">
-        <v>0</v>
-      </c>
-      <c r="PZ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="QA13" s="62">
-        <v>0</v>
-      </c>
-      <c r="QB13" s="62">
-        <v>0</v>
-      </c>
-      <c r="QC13" s="62">
-        <v>0</v>
-      </c>
-      <c r="QD13" s="62">
-        <v>0</v>
-      </c>
-      <c r="QE13" s="62">
-        <v>0</v>
-      </c>
-      <c r="QF13" s="62">
-        <v>0</v>
-      </c>
-      <c r="QG13" s="62">
-        <v>0</v>
-      </c>
-      <c r="QH13" s="62">
-        <v>0</v>
-      </c>
-      <c r="QI13" s="62">
-        <v>0</v>
-      </c>
-      <c r="QJ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="QK13" s="62">
-        <v>0</v>
-      </c>
-      <c r="QL13" s="62">
-        <v>0</v>
-      </c>
-      <c r="QM13" s="62">
-        <v>0</v>
-      </c>
-      <c r="QN13" s="62">
-        <v>0</v>
-      </c>
-      <c r="QO13" s="62">
-        <v>0</v>
-      </c>
-      <c r="QP13" s="62">
-        <v>0</v>
-      </c>
-      <c r="QQ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="QR13" s="62">
-        <v>0</v>
-      </c>
-      <c r="QS13" s="62">
-        <v>0</v>
-      </c>
-      <c r="QT13" s="62">
-        <v>0</v>
-      </c>
-      <c r="QU13" s="62">
-        <v>0</v>
-      </c>
-      <c r="QV13" s="62">
-        <v>0</v>
-      </c>
-      <c r="QW13" s="62">
-        <v>0</v>
-      </c>
-      <c r="QX13" s="62">
-        <v>0</v>
-      </c>
-      <c r="QY13" s="62">
-        <v>0</v>
-      </c>
-      <c r="QZ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="RA13" s="62">
-        <v>0</v>
-      </c>
-      <c r="RB13" s="62">
-        <v>0</v>
-      </c>
-      <c r="RC13" s="62">
-        <v>0</v>
-      </c>
-      <c r="RD13" s="62">
-        <v>0</v>
-      </c>
-      <c r="RE13" s="62">
-        <v>0</v>
-      </c>
-      <c r="RF13" s="62">
-        <v>0</v>
-      </c>
-      <c r="RG13" s="62">
-        <v>0</v>
-      </c>
-      <c r="RH13" s="62">
-        <v>0</v>
-      </c>
-      <c r="RI13" s="62">
-        <v>0</v>
-      </c>
-      <c r="RJ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="RK13" s="62">
-        <v>0</v>
-      </c>
-      <c r="RL13" s="62">
-        <v>0</v>
-      </c>
-      <c r="RM13" s="62">
-        <v>0</v>
-      </c>
-      <c r="RN13" s="62">
-        <v>0</v>
-      </c>
-      <c r="RO13" s="62">
-        <v>0</v>
-      </c>
-      <c r="RP13" s="62">
-        <v>0</v>
-      </c>
-      <c r="RQ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="RR13" s="62">
-        <v>0</v>
-      </c>
-      <c r="RS13" s="62">
-        <v>0</v>
-      </c>
-      <c r="RT13" s="62">
-        <v>0</v>
-      </c>
-      <c r="RU13" s="62">
-        <v>0</v>
-      </c>
-      <c r="RV13" s="62">
-        <v>0</v>
-      </c>
-      <c r="RW13" s="62">
-        <v>0</v>
-      </c>
-      <c r="RX13" s="62">
-        <v>0</v>
-      </c>
-      <c r="RY13" s="62">
-        <v>0</v>
-      </c>
-      <c r="RZ13" s="62">
-        <v>0</v>
-      </c>
-      <c r="SA13" s="62">
-        <v>0</v>
-      </c>
-      <c r="SB13" s="62">
-        <v>0</v>
-      </c>
-      <c r="SC13" s="62">
-        <v>0</v>
-      </c>
-      <c r="SD13" s="62">
-        <v>0</v>
-      </c>
-      <c r="SE13" s="62">
-        <v>0</v>
-      </c>
-      <c r="SF13" s="62">
-        <v>0</v>
-      </c>
-      <c r="SG13" s="62">
-        <v>0</v>
-      </c>
-      <c r="SH13" s="62">
+      <c r="B13" s="55"/>
+      <c r="C13" s="24">
+        <v>0</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0</v>
+      </c>
+      <c r="E13" s="24">
+        <v>0</v>
+      </c>
+      <c r="F13" s="24">
+        <v>0</v>
+      </c>
+      <c r="G13" s="24">
+        <v>0</v>
+      </c>
+      <c r="H13" s="24">
+        <v>0</v>
+      </c>
+      <c r="I13" s="24">
+        <v>0</v>
+      </c>
+      <c r="J13" s="24">
+        <v>0</v>
+      </c>
+      <c r="K13" s="24">
+        <v>0</v>
+      </c>
+      <c r="L13" s="24">
+        <v>0</v>
+      </c>
+      <c r="M13" s="24">
+        <v>0</v>
+      </c>
+      <c r="N13" s="24">
+        <v>0</v>
+      </c>
+      <c r="O13" s="24">
+        <v>0</v>
+      </c>
+      <c r="P13" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="24">
+        <v>0</v>
+      </c>
+      <c r="R13" s="24">
+        <v>0</v>
+      </c>
+      <c r="S13" s="24">
+        <v>0</v>
+      </c>
+      <c r="T13" s="24">
+        <v>0</v>
+      </c>
+      <c r="U13" s="24">
+        <v>0</v>
+      </c>
+      <c r="V13" s="24">
+        <v>0</v>
+      </c>
+      <c r="W13" s="24">
+        <v>0</v>
+      </c>
+      <c r="X13" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="24">
+        <v>5</v>
+      </c>
+      <c r="AJ13" s="24">
+        <v>5</v>
+      </c>
+      <c r="AK13" s="24">
+        <v>5</v>
+      </c>
+      <c r="AL13" s="24">
+        <v>5</v>
+      </c>
+      <c r="AM13" s="24">
+        <v>5</v>
+      </c>
+      <c r="AN13" s="24">
+        <v>5</v>
+      </c>
+      <c r="AO13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="26"/>
+      <c r="BA13" s="26"/>
+      <c r="BB13" s="26"/>
+      <c r="BC13" s="24">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="24">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="24">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="24">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="24">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="24">
+        <v>0</v>
+      </c>
+      <c r="BI13" s="24">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="24">
+        <v>0</v>
+      </c>
+      <c r="BL13" s="24">
+        <v>0</v>
+      </c>
+      <c r="BM13" s="24">
+        <v>0</v>
+      </c>
+      <c r="BN13" s="24">
+        <v>0</v>
+      </c>
+      <c r="BO13" s="24">
+        <v>0</v>
+      </c>
+      <c r="BP13" s="24">
+        <v>0</v>
+      </c>
+      <c r="BQ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="BR13" s="24">
+        <v>0</v>
+      </c>
+      <c r="BS13" s="24">
+        <v>0</v>
+      </c>
+      <c r="BT13" s="24">
+        <v>0</v>
+      </c>
+      <c r="BU13" s="24">
+        <v>5</v>
+      </c>
+      <c r="BV13" s="24">
+        <v>5</v>
+      </c>
+      <c r="BW13" s="24">
+        <v>5</v>
+      </c>
+      <c r="BX13" s="24">
+        <v>5</v>
+      </c>
+      <c r="BY13" s="24">
+        <v>5</v>
+      </c>
+      <c r="BZ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="CA13" s="24">
+        <v>0</v>
+      </c>
+      <c r="CB13" s="24">
+        <v>0</v>
+      </c>
+      <c r="CC13" s="24">
+        <v>0</v>
+      </c>
+      <c r="CD13" s="24">
+        <v>5</v>
+      </c>
+      <c r="CE13" s="24">
+        <v>5</v>
+      </c>
+      <c r="CF13" s="24">
+        <v>5</v>
+      </c>
+      <c r="CG13" s="24">
+        <v>5</v>
+      </c>
+      <c r="CH13" s="24">
+        <v>5</v>
+      </c>
+      <c r="CI13" s="24">
+        <v>5</v>
+      </c>
+      <c r="CJ13" s="24">
+        <v>5</v>
+      </c>
+      <c r="CK13" s="24">
+        <v>5</v>
+      </c>
+      <c r="CL13" s="24">
+        <v>5</v>
+      </c>
+      <c r="CM13" s="24">
+        <v>5</v>
+      </c>
+      <c r="CN13" s="24">
+        <v>5</v>
+      </c>
+      <c r="CO13" s="24">
+        <v>5</v>
+      </c>
+      <c r="CP13" s="24">
+        <v>5</v>
+      </c>
+      <c r="CQ13" s="24">
+        <v>5</v>
+      </c>
+      <c r="CR13" s="24">
+        <v>5</v>
+      </c>
+      <c r="CS13" s="24">
+        <v>5</v>
+      </c>
+      <c r="CT13" s="24">
+        <v>5</v>
+      </c>
+      <c r="CU13" s="24">
+        <v>5</v>
+      </c>
+      <c r="CV13" s="24">
+        <v>5</v>
+      </c>
+      <c r="CW13" s="24">
+        <v>5</v>
+      </c>
+      <c r="CX13" s="24">
+        <v>5</v>
+      </c>
+      <c r="CY13" s="24">
+        <v>5</v>
+      </c>
+      <c r="CZ13" s="24">
+        <v>5</v>
+      </c>
+      <c r="DA13" s="24">
+        <v>5</v>
+      </c>
+      <c r="DB13" s="24">
+        <v>5</v>
+      </c>
+      <c r="DC13" s="24">
+        <v>5</v>
+      </c>
+      <c r="DD13" s="24">
+        <v>5</v>
+      </c>
+      <c r="DE13" s="24">
+        <v>5</v>
+      </c>
+      <c r="DF13" s="24">
+        <v>5</v>
+      </c>
+      <c r="DG13" s="24">
+        <v>5</v>
+      </c>
+      <c r="DH13" s="24">
+        <v>5</v>
+      </c>
+      <c r="DI13" s="24">
+        <v>5</v>
+      </c>
+      <c r="DJ13" s="24">
+        <v>5</v>
+      </c>
+      <c r="DK13" s="24">
+        <v>5</v>
+      </c>
+      <c r="DL13" s="24">
+        <v>5</v>
+      </c>
+      <c r="DM13" s="24">
+        <v>5</v>
+      </c>
+      <c r="DN13" s="24">
+        <v>5</v>
+      </c>
+      <c r="DO13" s="24">
+        <v>5</v>
+      </c>
+      <c r="DP13" s="24">
+        <v>5</v>
+      </c>
+      <c r="DQ13" s="24">
+        <v>5</v>
+      </c>
+      <c r="DR13" s="24">
+        <v>5</v>
+      </c>
+      <c r="DS13" s="24">
+        <v>5</v>
+      </c>
+      <c r="DT13" s="24">
+        <v>5</v>
+      </c>
+      <c r="DU13" s="24">
+        <v>5</v>
+      </c>
+      <c r="DV13" s="24">
+        <v>5</v>
+      </c>
+      <c r="DW13" s="24">
+        <v>5</v>
+      </c>
+      <c r="DX13" s="24">
+        <v>5</v>
+      </c>
+      <c r="DY13" s="24">
+        <v>5</v>
+      </c>
+      <c r="DZ13" s="24">
+        <v>5</v>
+      </c>
+      <c r="EA13" s="24">
+        <v>0</v>
+      </c>
+      <c r="EB13" s="24">
+        <v>0</v>
+      </c>
+      <c r="EC13" s="24">
+        <v>0</v>
+      </c>
+      <c r="ED13" s="24">
+        <v>0</v>
+      </c>
+      <c r="EE13" s="24">
+        <v>0</v>
+      </c>
+      <c r="EF13" s="24">
+        <v>0</v>
+      </c>
+      <c r="EG13" s="24">
+        <v>0</v>
+      </c>
+      <c r="EH13" s="24">
+        <v>0</v>
+      </c>
+      <c r="EI13" s="24">
+        <v>0</v>
+      </c>
+      <c r="EJ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="EK13" s="24">
+        <v>0</v>
+      </c>
+      <c r="EL13" s="24">
+        <v>0</v>
+      </c>
+      <c r="EM13" s="24">
+        <v>0</v>
+      </c>
+      <c r="EN13" s="24">
+        <v>0</v>
+      </c>
+      <c r="EO13" s="24">
+        <v>0</v>
+      </c>
+      <c r="EP13" s="24">
+        <v>0</v>
+      </c>
+      <c r="EQ13" s="26"/>
+      <c r="ER13" s="26"/>
+      <c r="ES13" s="26"/>
+      <c r="ET13" s="26"/>
+      <c r="EU13" s="24">
+        <v>0</v>
+      </c>
+      <c r="EV13" s="24">
+        <v>0</v>
+      </c>
+      <c r="EW13" s="24">
+        <v>0</v>
+      </c>
+      <c r="EX13" s="24">
+        <v>5</v>
+      </c>
+      <c r="EY13" s="24">
+        <v>5</v>
+      </c>
+      <c r="EZ13" s="24">
+        <v>5</v>
+      </c>
+      <c r="FA13" s="24">
+        <v>5</v>
+      </c>
+      <c r="FB13" s="24">
+        <v>5</v>
+      </c>
+      <c r="FC13" s="24">
+        <v>5</v>
+      </c>
+      <c r="FD13" s="24">
+        <v>5</v>
+      </c>
+      <c r="FE13" s="24">
+        <v>5</v>
+      </c>
+      <c r="FF13" s="24">
+        <v>5</v>
+      </c>
+      <c r="FG13" s="24">
+        <v>5</v>
+      </c>
+      <c r="FH13" s="24">
+        <v>5</v>
+      </c>
+      <c r="FI13" s="24">
+        <v>5</v>
+      </c>
+      <c r="FJ13" s="24">
+        <v>5</v>
+      </c>
+      <c r="FK13" s="24">
+        <v>0</v>
+      </c>
+      <c r="FL13" s="24">
+        <v>0</v>
+      </c>
+      <c r="FM13" s="24">
+        <v>0</v>
+      </c>
+      <c r="FN13" s="24">
+        <v>0</v>
+      </c>
+      <c r="FO13" s="24">
+        <v>0</v>
+      </c>
+      <c r="FP13" s="24">
+        <v>0</v>
+      </c>
+      <c r="FQ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="FR13" s="24">
+        <v>0</v>
+      </c>
+      <c r="FS13" s="24">
+        <v>0</v>
+      </c>
+      <c r="FT13" s="24">
+        <v>0</v>
+      </c>
+      <c r="FU13" s="24">
+        <v>0</v>
+      </c>
+      <c r="FV13" s="24">
+        <v>0</v>
+      </c>
+      <c r="FW13" s="24">
+        <v>0</v>
+      </c>
+      <c r="FX13" s="24">
+        <v>0</v>
+      </c>
+      <c r="FY13" s="24">
+        <v>0</v>
+      </c>
+      <c r="FZ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="GA13" s="24">
+        <v>0</v>
+      </c>
+      <c r="GB13" s="24">
+        <v>0</v>
+      </c>
+      <c r="GC13" s="24">
+        <v>5</v>
+      </c>
+      <c r="GD13" s="24">
+        <v>5</v>
+      </c>
+      <c r="GE13" s="24">
+        <v>5</v>
+      </c>
+      <c r="GF13" s="24">
+        <v>5</v>
+      </c>
+      <c r="GG13" s="24">
+        <v>5</v>
+      </c>
+      <c r="GH13" s="24">
+        <v>5</v>
+      </c>
+      <c r="GI13" s="26"/>
+      <c r="GJ13" s="26"/>
+      <c r="GK13" s="24">
+        <v>0</v>
+      </c>
+      <c r="GL13" s="24">
+        <v>0</v>
+      </c>
+      <c r="GM13" s="24">
+        <v>0</v>
+      </c>
+      <c r="GN13" s="24">
+        <v>0</v>
+      </c>
+      <c r="GO13" s="26"/>
+      <c r="GP13" s="26"/>
+      <c r="GQ13" s="26"/>
+      <c r="GR13" s="24">
+        <v>0</v>
+      </c>
+      <c r="GS13" s="24">
+        <v>0</v>
+      </c>
+      <c r="GT13" s="24">
+        <v>5</v>
+      </c>
+      <c r="GU13" s="24">
+        <v>5</v>
+      </c>
+      <c r="GV13" s="24">
+        <v>5</v>
+      </c>
+      <c r="GW13" s="24">
+        <v>5</v>
+      </c>
+      <c r="GX13" s="24">
+        <v>5</v>
+      </c>
+      <c r="GY13" s="24">
+        <v>5</v>
+      </c>
+      <c r="GZ13" s="24">
+        <v>5</v>
+      </c>
+      <c r="HA13" s="24">
+        <v>0</v>
+      </c>
+      <c r="HB13" s="24">
+        <v>0</v>
+      </c>
+      <c r="HC13" s="26"/>
+      <c r="HD13" s="26"/>
+      <c r="HE13" s="26"/>
+      <c r="HF13" s="26"/>
+      <c r="HG13" s="24">
+        <v>0</v>
+      </c>
+      <c r="HH13" s="24">
+        <v>0</v>
+      </c>
+      <c r="HI13" s="24">
+        <v>5</v>
+      </c>
+      <c r="HJ13" s="24">
+        <v>5</v>
+      </c>
+      <c r="HK13" s="24">
+        <v>5</v>
+      </c>
+      <c r="HL13" s="24">
+        <v>5</v>
+      </c>
+      <c r="HM13" s="24">
+        <v>5</v>
+      </c>
+      <c r="HN13" s="24">
+        <v>5</v>
+      </c>
+      <c r="HO13" s="24">
+        <v>5</v>
+      </c>
+      <c r="HP13" s="24">
+        <v>5</v>
+      </c>
+      <c r="HQ13" s="24">
+        <v>5</v>
+      </c>
+      <c r="HR13" s="24">
+        <v>5</v>
+      </c>
+      <c r="HS13" s="24">
+        <v>5</v>
+      </c>
+      <c r="HT13" s="24">
+        <v>5</v>
+      </c>
+      <c r="HU13" s="24">
+        <v>0</v>
+      </c>
+      <c r="HV13" s="24">
+        <v>0</v>
+      </c>
+      <c r="HW13" s="24">
+        <v>0</v>
+      </c>
+      <c r="HX13" s="24">
+        <v>0</v>
+      </c>
+      <c r="HY13" s="24">
+        <v>0</v>
+      </c>
+      <c r="HZ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="IA13" s="24">
+        <v>0</v>
+      </c>
+      <c r="IB13" s="24">
+        <v>0</v>
+      </c>
+      <c r="IC13" s="24">
+        <v>0</v>
+      </c>
+      <c r="ID13" s="24">
+        <v>0</v>
+      </c>
+      <c r="IE13" s="24">
+        <v>0</v>
+      </c>
+      <c r="IF13" s="24">
+        <v>0</v>
+      </c>
+      <c r="IG13" s="24">
+        <v>0</v>
+      </c>
+      <c r="IH13" s="24">
+        <v>0</v>
+      </c>
+      <c r="II13" s="24">
+        <v>5</v>
+      </c>
+      <c r="IJ13" s="24">
+        <v>5</v>
+      </c>
+      <c r="IK13" s="24">
+        <v>5</v>
+      </c>
+      <c r="IL13" s="24">
+        <v>0</v>
+      </c>
+      <c r="IM13" s="24">
+        <v>0</v>
+      </c>
+      <c r="IN13" s="24">
+        <v>5</v>
+      </c>
+      <c r="IO13" s="24">
+        <v>5</v>
+      </c>
+      <c r="IP13" s="24">
+        <v>5</v>
+      </c>
+      <c r="IQ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="IR13" s="24">
+        <v>0</v>
+      </c>
+      <c r="IS13" s="24">
+        <v>0</v>
+      </c>
+      <c r="IT13" s="24">
+        <v>0</v>
+      </c>
+      <c r="IU13" s="24">
+        <v>0</v>
+      </c>
+      <c r="IV13" s="24">
+        <v>0</v>
+      </c>
+      <c r="IW13" s="24">
+        <v>0</v>
+      </c>
+      <c r="IX13" s="24">
+        <v>0</v>
+      </c>
+      <c r="IY13" s="24">
+        <v>0</v>
+      </c>
+      <c r="IZ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="JA13" s="24">
+        <v>0</v>
+      </c>
+      <c r="JB13" s="24">
+        <v>0</v>
+      </c>
+      <c r="JC13" s="24">
+        <v>0</v>
+      </c>
+      <c r="JD13" s="24">
+        <v>0</v>
+      </c>
+      <c r="JE13" s="24">
+        <v>0</v>
+      </c>
+      <c r="JF13" s="24">
+        <v>0</v>
+      </c>
+      <c r="JG13" s="24">
+        <v>0</v>
+      </c>
+      <c r="JH13" s="24">
+        <v>0</v>
+      </c>
+      <c r="JI13" s="24">
+        <v>0</v>
+      </c>
+      <c r="JJ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="JK13" s="24">
+        <v>0</v>
+      </c>
+      <c r="JL13" s="24">
+        <v>0</v>
+      </c>
+      <c r="JM13" s="24">
+        <v>0</v>
+      </c>
+      <c r="JN13" s="24">
+        <v>0</v>
+      </c>
+      <c r="JO13" s="24">
+        <v>0</v>
+      </c>
+      <c r="JP13" s="24">
+        <v>0</v>
+      </c>
+      <c r="JQ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="JR13" s="24">
+        <v>0</v>
+      </c>
+      <c r="JS13" s="24">
+        <v>0</v>
+      </c>
+      <c r="JT13" s="24">
+        <v>0</v>
+      </c>
+      <c r="JU13" s="24">
+        <v>0</v>
+      </c>
+      <c r="JV13" s="24">
+        <v>0</v>
+      </c>
+      <c r="JW13" s="24">
+        <v>0</v>
+      </c>
+      <c r="JX13" s="24">
+        <v>0</v>
+      </c>
+      <c r="JY13" s="24">
+        <v>0</v>
+      </c>
+      <c r="JZ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="KA13" s="24">
+        <v>0</v>
+      </c>
+      <c r="KB13" s="24">
+        <v>0</v>
+      </c>
+      <c r="KC13" s="24">
+        <v>0</v>
+      </c>
+      <c r="KD13" s="24">
+        <v>0</v>
+      </c>
+      <c r="KE13" s="24">
+        <v>0</v>
+      </c>
+      <c r="KF13" s="24">
+        <v>0</v>
+      </c>
+      <c r="KG13" s="24">
+        <v>0</v>
+      </c>
+      <c r="KH13" s="24">
+        <v>0</v>
+      </c>
+      <c r="KI13" s="24">
+        <v>0</v>
+      </c>
+      <c r="KJ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="KK13" s="24">
+        <v>0</v>
+      </c>
+      <c r="KL13" s="24">
+        <v>0</v>
+      </c>
+      <c r="KM13" s="24">
+        <v>0</v>
+      </c>
+      <c r="KN13" s="24">
+        <v>0</v>
+      </c>
+      <c r="KO13" s="24">
+        <v>0</v>
+      </c>
+      <c r="KP13" s="24">
+        <v>0</v>
+      </c>
+      <c r="KQ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="KR13" s="24">
+        <v>0</v>
+      </c>
+      <c r="KS13" s="24">
+        <v>0</v>
+      </c>
+      <c r="KT13" s="24">
+        <v>0</v>
+      </c>
+      <c r="KU13" s="24">
+        <v>0</v>
+      </c>
+      <c r="KV13" s="24">
+        <v>0</v>
+      </c>
+      <c r="KW13" s="24">
+        <v>0</v>
+      </c>
+      <c r="KX13" s="24">
+        <v>0</v>
+      </c>
+      <c r="KY13" s="24">
+        <v>0</v>
+      </c>
+      <c r="KZ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="LA13" s="24">
+        <v>0</v>
+      </c>
+      <c r="LB13" s="24">
+        <v>0</v>
+      </c>
+      <c r="LC13" s="24">
+        <v>0</v>
+      </c>
+      <c r="LD13" s="24">
+        <v>0</v>
+      </c>
+      <c r="LE13" s="24">
+        <v>0</v>
+      </c>
+      <c r="LF13" s="24">
+        <v>0</v>
+      </c>
+      <c r="LG13" s="24">
+        <v>0</v>
+      </c>
+      <c r="LH13" s="24">
+        <v>0</v>
+      </c>
+      <c r="LI13" s="24">
+        <v>0</v>
+      </c>
+      <c r="LJ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="LK13" s="24">
+        <v>0</v>
+      </c>
+      <c r="LL13" s="24">
+        <v>0</v>
+      </c>
+      <c r="LM13" s="24">
+        <v>0</v>
+      </c>
+      <c r="LN13" s="24">
+        <v>0</v>
+      </c>
+      <c r="LO13" s="24">
+        <v>0</v>
+      </c>
+      <c r="LP13" s="24">
+        <v>0</v>
+      </c>
+      <c r="LQ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="LR13" s="24">
+        <v>0</v>
+      </c>
+      <c r="LS13" s="24">
+        <v>0</v>
+      </c>
+      <c r="LT13" s="24">
+        <v>0</v>
+      </c>
+      <c r="LU13" s="24">
+        <v>0</v>
+      </c>
+      <c r="LV13" s="24">
+        <v>0</v>
+      </c>
+      <c r="LW13" s="24">
+        <v>0</v>
+      </c>
+      <c r="LX13" s="24">
+        <v>0</v>
+      </c>
+      <c r="LY13" s="24">
+        <v>0</v>
+      </c>
+      <c r="LZ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="MA13" s="24">
+        <v>0</v>
+      </c>
+      <c r="MB13" s="24">
+        <v>0</v>
+      </c>
+      <c r="MC13" s="24">
+        <v>0</v>
+      </c>
+      <c r="MD13" s="24">
+        <v>0</v>
+      </c>
+      <c r="ME13" s="26"/>
+      <c r="MF13" s="26"/>
+      <c r="MG13" s="26"/>
+      <c r="MH13" s="26"/>
+      <c r="MI13" s="24">
+        <v>0</v>
+      </c>
+      <c r="MJ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="MK13" s="24">
+        <v>0</v>
+      </c>
+      <c r="ML13" s="24">
+        <v>0</v>
+      </c>
+      <c r="MM13" s="24">
+        <v>0</v>
+      </c>
+      <c r="MN13" s="24">
+        <v>0</v>
+      </c>
+      <c r="MO13" s="24">
+        <v>0</v>
+      </c>
+      <c r="MP13" s="24">
+        <v>0</v>
+      </c>
+      <c r="MQ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="MR13" s="24">
+        <v>0</v>
+      </c>
+      <c r="MS13" s="24">
+        <v>0</v>
+      </c>
+      <c r="MT13" s="24">
+        <v>0</v>
+      </c>
+      <c r="MU13" s="24">
+        <v>0</v>
+      </c>
+      <c r="MV13" s="24">
+        <v>0</v>
+      </c>
+      <c r="MW13" s="24">
+        <v>0</v>
+      </c>
+      <c r="MX13" s="24">
+        <v>0</v>
+      </c>
+      <c r="MY13" s="24">
+        <v>0</v>
+      </c>
+      <c r="MZ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="NA13" s="24">
+        <v>0</v>
+      </c>
+      <c r="NB13" s="24">
+        <v>0</v>
+      </c>
+      <c r="NC13" s="24">
+        <v>0</v>
+      </c>
+      <c r="ND13" s="24">
+        <v>0</v>
+      </c>
+      <c r="NE13" s="24">
+        <v>0</v>
+      </c>
+      <c r="NF13" s="24">
+        <v>0</v>
+      </c>
+      <c r="NG13" s="24">
+        <v>0</v>
+      </c>
+      <c r="NH13" s="24">
+        <v>0</v>
+      </c>
+      <c r="NI13" s="24">
+        <v>0</v>
+      </c>
+      <c r="NJ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="NK13" s="24">
+        <v>0</v>
+      </c>
+      <c r="NL13" s="24">
+        <v>0</v>
+      </c>
+      <c r="NM13" s="24">
+        <v>0</v>
+      </c>
+      <c r="NN13" s="24">
+        <v>0</v>
+      </c>
+      <c r="NO13" s="24">
+        <v>0</v>
+      </c>
+      <c r="NP13" s="24">
+        <v>0</v>
+      </c>
+      <c r="NQ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="NR13" s="24">
+        <v>0</v>
+      </c>
+      <c r="NS13" s="24">
+        <v>0</v>
+      </c>
+      <c r="NT13" s="24">
+        <v>0</v>
+      </c>
+      <c r="NU13" s="24">
+        <v>0</v>
+      </c>
+      <c r="NV13" s="24">
+        <v>0</v>
+      </c>
+      <c r="NW13" s="24">
+        <v>0</v>
+      </c>
+      <c r="NX13" s="24">
+        <v>0</v>
+      </c>
+      <c r="NY13" s="24">
+        <v>0</v>
+      </c>
+      <c r="NZ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="OA13" s="24">
+        <v>0</v>
+      </c>
+      <c r="OB13" s="24">
+        <v>0</v>
+      </c>
+      <c r="OC13" s="24">
+        <v>0</v>
+      </c>
+      <c r="OD13" s="24">
+        <v>0</v>
+      </c>
+      <c r="OE13" s="24">
+        <v>0</v>
+      </c>
+      <c r="OF13" s="24">
+        <v>0</v>
+      </c>
+      <c r="OG13" s="24">
+        <v>0</v>
+      </c>
+      <c r="OH13" s="24">
+        <v>0</v>
+      </c>
+      <c r="OI13" s="24">
+        <v>0</v>
+      </c>
+      <c r="OJ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="OK13" s="24">
+        <v>0</v>
+      </c>
+      <c r="OL13" s="24">
+        <v>0</v>
+      </c>
+      <c r="OM13" s="24">
+        <v>0</v>
+      </c>
+      <c r="ON13" s="24">
+        <v>0</v>
+      </c>
+      <c r="OO13" s="24">
+        <v>0</v>
+      </c>
+      <c r="OP13" s="24">
+        <v>0</v>
+      </c>
+      <c r="OQ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="OR13" s="24">
+        <v>0</v>
+      </c>
+      <c r="OS13" s="24">
+        <v>0</v>
+      </c>
+      <c r="OT13" s="24">
+        <v>0</v>
+      </c>
+      <c r="OU13" s="24">
+        <v>0</v>
+      </c>
+      <c r="OV13" s="24">
+        <v>0</v>
+      </c>
+      <c r="OW13" s="24">
+        <v>0</v>
+      </c>
+      <c r="OX13" s="24">
+        <v>0</v>
+      </c>
+      <c r="OY13" s="24">
+        <v>0</v>
+      </c>
+      <c r="OZ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="PA13" s="24">
+        <v>0</v>
+      </c>
+      <c r="PB13" s="24">
+        <v>0</v>
+      </c>
+      <c r="PC13" s="24">
+        <v>0</v>
+      </c>
+      <c r="PD13" s="24">
+        <v>0</v>
+      </c>
+      <c r="PE13" s="24">
+        <v>0</v>
+      </c>
+      <c r="PF13" s="24">
+        <v>0</v>
+      </c>
+      <c r="PG13" s="24">
+        <v>0</v>
+      </c>
+      <c r="PH13" s="24">
+        <v>0</v>
+      </c>
+      <c r="PI13" s="24">
+        <v>0</v>
+      </c>
+      <c r="PJ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="PK13" s="24">
+        <v>0</v>
+      </c>
+      <c r="PL13" s="24">
+        <v>0</v>
+      </c>
+      <c r="PM13" s="24">
+        <v>0</v>
+      </c>
+      <c r="PN13" s="24">
+        <v>0</v>
+      </c>
+      <c r="PO13" s="24">
+        <v>0</v>
+      </c>
+      <c r="PP13" s="24">
+        <v>0</v>
+      </c>
+      <c r="PQ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="PR13" s="24">
+        <v>0</v>
+      </c>
+      <c r="PS13" s="24">
+        <v>0</v>
+      </c>
+      <c r="PT13" s="24">
+        <v>0</v>
+      </c>
+      <c r="PU13" s="24">
+        <v>0</v>
+      </c>
+      <c r="PV13" s="24">
+        <v>0</v>
+      </c>
+      <c r="PW13" s="24">
+        <v>0</v>
+      </c>
+      <c r="PX13" s="24">
+        <v>0</v>
+      </c>
+      <c r="PY13" s="24">
+        <v>0</v>
+      </c>
+      <c r="PZ13" s="26"/>
+      <c r="QA13" s="26"/>
+      <c r="QB13" s="26"/>
+      <c r="QC13" s="24">
+        <v>0</v>
+      </c>
+      <c r="QD13" s="24">
+        <v>0</v>
+      </c>
+      <c r="QE13" s="24">
+        <v>0</v>
+      </c>
+      <c r="QF13" s="24">
+        <v>0</v>
+      </c>
+      <c r="QG13" s="24">
+        <v>0</v>
+      </c>
+      <c r="QH13" s="24">
+        <v>0</v>
+      </c>
+      <c r="QI13" s="24">
+        <v>0</v>
+      </c>
+      <c r="QJ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="QK13" s="24">
+        <v>0</v>
+      </c>
+      <c r="QL13" s="24">
+        <v>0</v>
+      </c>
+      <c r="QM13" s="24">
+        <v>0</v>
+      </c>
+      <c r="QN13" s="24">
+        <v>0</v>
+      </c>
+      <c r="QO13" s="24">
+        <v>0</v>
+      </c>
+      <c r="QP13" s="24">
+        <v>0</v>
+      </c>
+      <c r="QQ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="QR13" s="24">
+        <v>0</v>
+      </c>
+      <c r="QS13" s="24">
+        <v>0</v>
+      </c>
+      <c r="QT13" s="24">
+        <v>0</v>
+      </c>
+      <c r="QU13" s="24">
+        <v>0</v>
+      </c>
+      <c r="QV13" s="24">
+        <v>0</v>
+      </c>
+      <c r="QW13" s="24">
+        <v>0</v>
+      </c>
+      <c r="QX13" s="24">
+        <v>0</v>
+      </c>
+      <c r="QY13" s="24">
+        <v>0</v>
+      </c>
+      <c r="QZ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="RA13" s="24">
+        <v>0</v>
+      </c>
+      <c r="RB13" s="24">
+        <v>0</v>
+      </c>
+      <c r="RC13" s="24">
+        <v>0</v>
+      </c>
+      <c r="RD13" s="24">
+        <v>0</v>
+      </c>
+      <c r="RE13" s="24">
+        <v>0</v>
+      </c>
+      <c r="RF13" s="24">
+        <v>0</v>
+      </c>
+      <c r="RG13" s="24">
+        <v>0</v>
+      </c>
+      <c r="RH13" s="24">
+        <v>0</v>
+      </c>
+      <c r="RI13" s="24">
+        <v>0</v>
+      </c>
+      <c r="RJ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="RK13" s="24">
+        <v>0</v>
+      </c>
+      <c r="RL13" s="24">
+        <v>0</v>
+      </c>
+      <c r="RM13" s="24">
+        <v>0</v>
+      </c>
+      <c r="RN13" s="24">
+        <v>0</v>
+      </c>
+      <c r="RO13" s="24">
+        <v>0</v>
+      </c>
+      <c r="RP13" s="24">
+        <v>0</v>
+      </c>
+      <c r="RQ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="RR13" s="24">
+        <v>0</v>
+      </c>
+      <c r="RS13" s="24">
+        <v>0</v>
+      </c>
+      <c r="RT13" s="24">
+        <v>0</v>
+      </c>
+      <c r="RU13" s="24">
+        <v>0</v>
+      </c>
+      <c r="RV13" s="24">
+        <v>0</v>
+      </c>
+      <c r="RW13" s="24">
+        <v>0</v>
+      </c>
+      <c r="RX13" s="24">
+        <v>0</v>
+      </c>
+      <c r="RY13" s="24">
+        <v>0</v>
+      </c>
+      <c r="RZ13" s="24">
+        <v>0</v>
+      </c>
+      <c r="SA13" s="24">
+        <v>0</v>
+      </c>
+      <c r="SB13" s="24">
+        <v>0</v>
+      </c>
+      <c r="SC13" s="24">
+        <v>0</v>
+      </c>
+      <c r="SD13" s="24">
+        <v>0</v>
+      </c>
+      <c r="SE13" s="24">
+        <v>0</v>
+      </c>
+      <c r="SF13" s="24">
+        <v>0</v>
+      </c>
+      <c r="SG13" s="24">
+        <v>0</v>
+      </c>
+      <c r="SH13" s="24">
         <v>0</v>
       </c>
     </row>
@@ -7593,1088 +9087,1136 @@
       <c r="B15" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="28"/>
-      <c r="AG15" s="28"/>
-      <c r="AH15" s="28"/>
-      <c r="AI15" s="28"/>
-      <c r="AJ15" s="28"/>
-      <c r="AK15" s="28"/>
-      <c r="AL15" s="28"/>
-      <c r="AM15" s="28"/>
-      <c r="AN15" s="28"/>
-      <c r="AO15" s="28"/>
-      <c r="AP15" s="29"/>
-      <c r="AQ15" s="27"/>
-      <c r="AR15" s="28"/>
-      <c r="AS15" s="28"/>
-      <c r="AT15" s="28"/>
-      <c r="AU15" s="28"/>
-      <c r="AV15" s="28"/>
-      <c r="AW15" s="28"/>
-      <c r="AX15" s="28"/>
-      <c r="AY15" s="28"/>
-      <c r="AZ15" s="28"/>
-      <c r="BA15" s="28"/>
-      <c r="BB15" s="28"/>
-      <c r="BC15" s="28"/>
-      <c r="BD15" s="28"/>
-      <c r="BE15" s="28"/>
-      <c r="BF15" s="28"/>
-      <c r="BG15" s="28"/>
-      <c r="BH15" s="28"/>
-      <c r="BI15" s="28"/>
-      <c r="BJ15" s="29"/>
-      <c r="BK15" s="27"/>
-      <c r="BL15" s="28"/>
-      <c r="BM15" s="28"/>
-      <c r="BN15" s="28"/>
-      <c r="BO15" s="28"/>
-      <c r="BP15" s="28"/>
-      <c r="BQ15" s="28"/>
-      <c r="BR15" s="28"/>
-      <c r="BS15" s="28"/>
-      <c r="BT15" s="28"/>
-      <c r="BU15" s="28"/>
-      <c r="BV15" s="28"/>
-      <c r="BW15" s="28"/>
-      <c r="BX15" s="28"/>
-      <c r="BY15" s="28"/>
-      <c r="BZ15" s="28"/>
-      <c r="CA15" s="28"/>
-      <c r="CB15" s="28"/>
-      <c r="CC15" s="28"/>
-      <c r="CD15" s="29"/>
-      <c r="CE15" s="27"/>
-      <c r="CF15" s="28"/>
-      <c r="CG15" s="28"/>
-      <c r="CH15" s="28"/>
-      <c r="CI15" s="28"/>
-      <c r="CJ15" s="28"/>
-      <c r="CK15" s="28"/>
-      <c r="CL15" s="28"/>
-      <c r="CM15" s="28"/>
-      <c r="CN15" s="28"/>
-      <c r="CO15" s="28"/>
-      <c r="CP15" s="28"/>
-      <c r="CQ15" s="28"/>
-      <c r="CR15" s="28"/>
-      <c r="CS15" s="28"/>
-      <c r="CT15" s="28"/>
-      <c r="CU15" s="28"/>
-      <c r="CV15" s="28"/>
-      <c r="CW15" s="28"/>
-      <c r="CX15" s="29"/>
-      <c r="CY15" s="27"/>
-      <c r="CZ15" s="28"/>
-      <c r="DA15" s="28"/>
-      <c r="DB15" s="28"/>
-      <c r="DC15" s="28"/>
-      <c r="DD15" s="28"/>
-      <c r="DE15" s="28"/>
-      <c r="DF15" s="28"/>
-      <c r="DG15" s="28"/>
-      <c r="DH15" s="28"/>
-      <c r="DI15" s="28"/>
-      <c r="DJ15" s="28"/>
-      <c r="DK15" s="28"/>
-      <c r="DL15" s="28"/>
-      <c r="DM15" s="28"/>
-      <c r="DN15" s="28"/>
-      <c r="DO15" s="28"/>
-      <c r="DP15" s="28"/>
-      <c r="DQ15" s="28"/>
-      <c r="DR15" s="29"/>
-      <c r="DS15" s="27"/>
-      <c r="DT15" s="28"/>
-      <c r="DU15" s="28"/>
-      <c r="DV15" s="28"/>
-      <c r="DW15" s="28"/>
-      <c r="DX15" s="28"/>
-      <c r="DY15" s="28"/>
-      <c r="DZ15" s="28"/>
-      <c r="EA15" s="28"/>
-      <c r="EB15" s="28"/>
-      <c r="EC15" s="28"/>
-      <c r="ED15" s="28"/>
-      <c r="EE15" s="28"/>
-      <c r="EF15" s="28"/>
-      <c r="EG15" s="28"/>
-      <c r="EH15" s="28"/>
-      <c r="EI15" s="28"/>
-      <c r="EJ15" s="28"/>
-      <c r="EK15" s="28"/>
-      <c r="EL15" s="29"/>
-      <c r="EM15" s="27"/>
-      <c r="EN15" s="28"/>
-      <c r="EO15" s="28"/>
-      <c r="EP15" s="28"/>
-      <c r="EQ15" s="28"/>
-      <c r="ER15" s="28"/>
-      <c r="ES15" s="28"/>
-      <c r="ET15" s="28"/>
-      <c r="EU15" s="28"/>
-      <c r="EV15" s="28"/>
-      <c r="EW15" s="28"/>
-      <c r="EX15" s="28"/>
-      <c r="EY15" s="28"/>
-      <c r="EZ15" s="28"/>
-      <c r="FA15" s="28"/>
-      <c r="FB15" s="28"/>
-      <c r="FC15" s="28"/>
-      <c r="FD15" s="28"/>
-      <c r="FE15" s="28"/>
-      <c r="FF15" s="29"/>
-      <c r="FG15" s="27"/>
-      <c r="FH15" s="28"/>
-      <c r="FI15" s="28"/>
-      <c r="FJ15" s="28"/>
-      <c r="FK15" s="28"/>
-      <c r="FL15" s="28"/>
-      <c r="FM15" s="28"/>
-      <c r="FN15" s="28"/>
-      <c r="FO15" s="28"/>
-      <c r="FP15" s="28"/>
-      <c r="FQ15" s="28"/>
-      <c r="FR15" s="28"/>
-      <c r="FS15" s="28"/>
-      <c r="FT15" s="28"/>
-      <c r="FU15" s="28"/>
-      <c r="FV15" s="28"/>
-      <c r="FW15" s="28"/>
-      <c r="FX15" s="28"/>
-      <c r="FY15" s="28"/>
-      <c r="FZ15" s="29"/>
-      <c r="GA15" s="27"/>
-      <c r="GB15" s="28"/>
-      <c r="GC15" s="28"/>
-      <c r="GD15" s="28"/>
-      <c r="GE15" s="28"/>
-      <c r="GF15" s="28"/>
-      <c r="GG15" s="28"/>
-      <c r="GH15" s="28"/>
-      <c r="GI15" s="28"/>
-      <c r="GJ15" s="28"/>
-      <c r="GK15" s="28"/>
-      <c r="GL15" s="28"/>
-      <c r="GM15" s="28"/>
-      <c r="GN15" s="28"/>
-      <c r="GO15" s="28"/>
-      <c r="GP15" s="28"/>
-      <c r="GQ15" s="28"/>
-      <c r="GR15" s="28"/>
-      <c r="GS15" s="28"/>
-      <c r="GT15" s="29"/>
-      <c r="GU15" s="27"/>
-      <c r="GV15" s="28"/>
-      <c r="GW15" s="28"/>
-      <c r="GX15" s="28"/>
-      <c r="GY15" s="28"/>
-      <c r="GZ15" s="28"/>
-      <c r="HA15" s="28"/>
-      <c r="HB15" s="28"/>
-      <c r="HC15" s="28"/>
-      <c r="HD15" s="28"/>
-      <c r="HE15" s="28"/>
-      <c r="HF15" s="28"/>
-      <c r="HG15" s="28"/>
-      <c r="HH15" s="28"/>
-      <c r="HI15" s="28"/>
-      <c r="HJ15" s="28"/>
-      <c r="HK15" s="28"/>
-      <c r="HL15" s="28"/>
-      <c r="HM15" s="28"/>
-      <c r="HN15" s="29"/>
-      <c r="HO15" s="27"/>
-      <c r="HP15" s="28"/>
-      <c r="HQ15" s="28"/>
-      <c r="HR15" s="28"/>
-      <c r="HS15" s="28"/>
-      <c r="HT15" s="28"/>
-      <c r="HU15" s="28"/>
-      <c r="HV15" s="28"/>
-      <c r="HW15" s="28"/>
-      <c r="HX15" s="28"/>
-      <c r="HY15" s="28"/>
-      <c r="HZ15" s="28"/>
-      <c r="IA15" s="28"/>
-      <c r="IB15" s="28"/>
-      <c r="IC15" s="28"/>
-      <c r="ID15" s="28"/>
-      <c r="IE15" s="28"/>
-      <c r="IF15" s="28"/>
-      <c r="IG15" s="28"/>
-      <c r="IH15" s="29"/>
-      <c r="II15" s="27"/>
-      <c r="IJ15" s="28"/>
-      <c r="IK15" s="28"/>
-      <c r="IL15" s="28"/>
-      <c r="IM15" s="28"/>
-      <c r="IN15" s="28"/>
-      <c r="IO15" s="28"/>
-      <c r="IP15" s="28"/>
-      <c r="IQ15" s="28"/>
-      <c r="IR15" s="28"/>
-      <c r="IS15" s="28"/>
-      <c r="IT15" s="28"/>
-      <c r="IU15" s="28"/>
-      <c r="IV15" s="28"/>
-      <c r="IW15" s="28"/>
-      <c r="IX15" s="28"/>
-      <c r="IY15" s="28"/>
-      <c r="IZ15" s="28"/>
-      <c r="JA15" s="28"/>
-      <c r="JB15" s="29"/>
-      <c r="JC15" s="27"/>
-      <c r="JD15" s="28"/>
-      <c r="JE15" s="28"/>
-      <c r="JF15" s="28"/>
-      <c r="JG15" s="28"/>
-      <c r="JH15" s="28"/>
-      <c r="JI15" s="28"/>
-      <c r="JJ15" s="28"/>
-      <c r="JK15" s="28"/>
-      <c r="JL15" s="28"/>
-      <c r="JM15" s="28"/>
-      <c r="JN15" s="28"/>
-      <c r="JO15" s="28"/>
-      <c r="JP15" s="28"/>
-      <c r="JQ15" s="28"/>
-      <c r="JR15" s="28"/>
-      <c r="JS15" s="28"/>
-      <c r="JT15" s="28"/>
-      <c r="JU15" s="28"/>
-      <c r="JV15" s="29"/>
-      <c r="JW15" s="27"/>
-      <c r="JX15" s="28"/>
-      <c r="JY15" s="28"/>
-      <c r="JZ15" s="28"/>
-      <c r="KA15" s="28"/>
-      <c r="KB15" s="28"/>
-      <c r="KC15" s="28"/>
-      <c r="KD15" s="28"/>
-      <c r="KE15" s="28"/>
-      <c r="KF15" s="28"/>
-      <c r="KG15" s="28"/>
-      <c r="KH15" s="28"/>
-      <c r="KI15" s="28"/>
-      <c r="KJ15" s="28"/>
-      <c r="KK15" s="28"/>
-      <c r="KL15" s="28"/>
-      <c r="KM15" s="28"/>
-      <c r="KN15" s="28"/>
-      <c r="KO15" s="28"/>
-      <c r="KP15" s="29"/>
-      <c r="KQ15" s="27"/>
-      <c r="KR15" s="28"/>
-      <c r="KS15" s="28"/>
-      <c r="KT15" s="28"/>
-      <c r="KU15" s="28"/>
-      <c r="KV15" s="28"/>
-      <c r="KW15" s="28"/>
-      <c r="KX15" s="28"/>
-      <c r="KY15" s="28"/>
-      <c r="KZ15" s="28"/>
-      <c r="LA15" s="28"/>
-      <c r="LB15" s="28"/>
-      <c r="LC15" s="28"/>
-      <c r="LD15" s="28"/>
-      <c r="LE15" s="28"/>
-      <c r="LF15" s="28"/>
-      <c r="LG15" s="28"/>
-      <c r="LH15" s="28"/>
-      <c r="LI15" s="28"/>
-      <c r="LJ15" s="29"/>
-      <c r="LK15" s="27"/>
-      <c r="LL15" s="28"/>
-      <c r="LM15" s="28"/>
-      <c r="LN15" s="28"/>
-      <c r="LO15" s="28"/>
-      <c r="LP15" s="28"/>
-      <c r="LQ15" s="28"/>
-      <c r="LR15" s="28"/>
-      <c r="LS15" s="28"/>
-      <c r="LT15" s="28"/>
-      <c r="LU15" s="28"/>
-      <c r="LV15" s="28"/>
-      <c r="LW15" s="28"/>
-      <c r="LX15" s="28"/>
-      <c r="LY15" s="28"/>
-      <c r="LZ15" s="28"/>
-      <c r="MA15" s="28"/>
-      <c r="MB15" s="28"/>
-      <c r="MC15" s="28"/>
-      <c r="MD15" s="29"/>
-      <c r="ME15" s="27"/>
-      <c r="MF15" s="28"/>
-      <c r="MG15" s="28"/>
-      <c r="MH15" s="28"/>
-      <c r="MI15" s="28"/>
-      <c r="MJ15" s="28"/>
-      <c r="MK15" s="28"/>
-      <c r="ML15" s="28"/>
-      <c r="MM15" s="28"/>
-      <c r="MN15" s="28"/>
-      <c r="MO15" s="28"/>
-      <c r="MP15" s="28"/>
-      <c r="MQ15" s="28"/>
-      <c r="MR15" s="28"/>
-      <c r="MS15" s="28"/>
-      <c r="MT15" s="28"/>
-      <c r="MU15" s="28"/>
-      <c r="MV15" s="28"/>
-      <c r="MW15" s="28"/>
-      <c r="MX15" s="29"/>
-      <c r="MY15" s="27"/>
-      <c r="MZ15" s="28"/>
-      <c r="NA15" s="28"/>
-      <c r="NB15" s="28"/>
-      <c r="NC15" s="28"/>
-      <c r="ND15" s="28"/>
-      <c r="NE15" s="28"/>
-      <c r="NF15" s="28"/>
-      <c r="NG15" s="28"/>
-      <c r="NH15" s="28"/>
-      <c r="NI15" s="28"/>
-      <c r="NJ15" s="28"/>
-      <c r="NK15" s="28"/>
-      <c r="NL15" s="28"/>
-      <c r="NM15" s="28"/>
-      <c r="NN15" s="28"/>
-      <c r="NO15" s="28"/>
-      <c r="NP15" s="28"/>
-      <c r="NQ15" s="28"/>
-      <c r="NR15" s="29"/>
-      <c r="NS15" s="27"/>
-      <c r="NT15" s="28"/>
-      <c r="NU15" s="28"/>
-      <c r="NV15" s="28"/>
-      <c r="NW15" s="28"/>
-      <c r="NX15" s="28"/>
-      <c r="NY15" s="28"/>
-      <c r="NZ15" s="28"/>
-      <c r="OA15" s="28"/>
-      <c r="OB15" s="28"/>
-      <c r="OC15" s="28"/>
-      <c r="OD15" s="28"/>
-      <c r="OE15" s="28"/>
-      <c r="OF15" s="28"/>
-      <c r="OG15" s="28"/>
-      <c r="OH15" s="28"/>
-      <c r="OI15" s="28"/>
-      <c r="OJ15" s="28"/>
-      <c r="OK15" s="28"/>
-      <c r="OL15" s="29"/>
-      <c r="OM15" s="27"/>
-      <c r="ON15" s="28"/>
-      <c r="OO15" s="28"/>
-      <c r="OP15" s="28"/>
-      <c r="OQ15" s="28"/>
-      <c r="OR15" s="28"/>
-      <c r="OS15" s="28"/>
-      <c r="OT15" s="28"/>
-      <c r="OU15" s="28"/>
-      <c r="OV15" s="28"/>
-      <c r="OW15" s="28"/>
-      <c r="OX15" s="28"/>
-      <c r="OY15" s="28"/>
-      <c r="OZ15" s="28"/>
-      <c r="PA15" s="28"/>
-      <c r="PB15" s="28"/>
-      <c r="PC15" s="28"/>
-      <c r="PD15" s="28"/>
-      <c r="PE15" s="28"/>
-      <c r="PF15" s="29"/>
-      <c r="PG15" s="27"/>
-      <c r="PH15" s="28"/>
-      <c r="PI15" s="28"/>
-      <c r="PJ15" s="28"/>
-      <c r="PK15" s="28"/>
-      <c r="PL15" s="28"/>
-      <c r="PM15" s="28"/>
-      <c r="PN15" s="28"/>
-      <c r="PO15" s="28"/>
-      <c r="PP15" s="28"/>
-      <c r="PQ15" s="28"/>
-      <c r="PR15" s="28"/>
-      <c r="PS15" s="28"/>
-      <c r="PT15" s="28"/>
-      <c r="PU15" s="28"/>
-      <c r="PV15" s="28"/>
-      <c r="PW15" s="28"/>
-      <c r="PX15" s="28"/>
-      <c r="PY15" s="28"/>
-      <c r="PZ15" s="29"/>
-      <c r="QA15" s="27"/>
-      <c r="QB15" s="28"/>
-      <c r="QC15" s="28"/>
-      <c r="QD15" s="28"/>
-      <c r="QE15" s="28"/>
-      <c r="QF15" s="28"/>
-      <c r="QG15" s="28"/>
-      <c r="QH15" s="28"/>
-      <c r="QI15" s="28"/>
-      <c r="QJ15" s="28"/>
-      <c r="QK15" s="28"/>
-      <c r="QL15" s="28"/>
-      <c r="QM15" s="28"/>
-      <c r="QN15" s="28"/>
-      <c r="QO15" s="28"/>
-      <c r="QP15" s="28"/>
-      <c r="QQ15" s="28"/>
-      <c r="QR15" s="28"/>
-      <c r="QS15" s="28"/>
-      <c r="QT15" s="29"/>
-      <c r="QU15" s="27"/>
-      <c r="QV15" s="28"/>
-      <c r="QW15" s="28"/>
-      <c r="QX15" s="28"/>
-      <c r="QY15" s="28"/>
-      <c r="QZ15" s="28"/>
-      <c r="RA15" s="28"/>
-      <c r="RB15" s="28"/>
-      <c r="RC15" s="28"/>
-      <c r="RD15" s="28"/>
-      <c r="RE15" s="28"/>
-      <c r="RF15" s="28"/>
-      <c r="RG15" s="28"/>
-      <c r="RH15" s="28"/>
-      <c r="RI15" s="28"/>
-      <c r="RJ15" s="28"/>
-      <c r="RK15" s="28"/>
-      <c r="RL15" s="28"/>
-      <c r="RM15" s="28"/>
-      <c r="RN15" s="29"/>
-      <c r="RO15" s="27"/>
-      <c r="RP15" s="28"/>
-      <c r="RQ15" s="28"/>
-      <c r="RR15" s="28"/>
-      <c r="RS15" s="28"/>
-      <c r="RT15" s="28"/>
-      <c r="RU15" s="28"/>
-      <c r="RV15" s="28"/>
-      <c r="RW15" s="28"/>
-      <c r="RX15" s="28"/>
-      <c r="RY15" s="28"/>
-      <c r="RZ15" s="28"/>
-      <c r="SA15" s="28"/>
-      <c r="SB15" s="28"/>
-      <c r="SC15" s="28"/>
-      <c r="SD15" s="28"/>
-      <c r="SE15" s="28"/>
-      <c r="SF15" s="28"/>
-      <c r="SG15" s="28"/>
-      <c r="SH15" s="29"/>
-      <c r="SI15" s="27"/>
-      <c r="SJ15" s="28"/>
-      <c r="SK15" s="28"/>
-      <c r="SL15" s="28"/>
-      <c r="SM15" s="28"/>
-      <c r="SN15" s="28"/>
-      <c r="SO15" s="28"/>
-      <c r="SP15" s="28"/>
-      <c r="SQ15" s="28"/>
-      <c r="SR15" s="28"/>
-      <c r="SS15" s="28"/>
-      <c r="ST15" s="28"/>
-      <c r="SU15" s="28"/>
-      <c r="SV15" s="28"/>
-      <c r="SW15" s="28"/>
-      <c r="SX15" s="28"/>
-      <c r="SY15" s="28"/>
-      <c r="SZ15" s="28"/>
-      <c r="TA15" s="28"/>
-      <c r="TB15" s="29"/>
-      <c r="TC15" s="27"/>
-      <c r="TD15" s="28"/>
-      <c r="TE15" s="28"/>
-      <c r="TF15" s="28"/>
-      <c r="TG15" s="28"/>
-      <c r="TH15" s="28"/>
-      <c r="TI15" s="28"/>
-      <c r="TJ15" s="28"/>
-      <c r="TK15" s="28"/>
-      <c r="TL15" s="28"/>
-      <c r="TM15" s="28"/>
-      <c r="TN15" s="28"/>
-      <c r="TO15" s="28"/>
-      <c r="TP15" s="28"/>
-      <c r="TQ15" s="28"/>
-      <c r="TR15" s="28"/>
-      <c r="TS15" s="28"/>
-      <c r="TT15" s="28"/>
-      <c r="TU15" s="28"/>
-      <c r="TV15" s="29"/>
-      <c r="TW15" s="27"/>
-      <c r="TX15" s="28"/>
-      <c r="TY15" s="28"/>
-      <c r="TZ15" s="28"/>
-      <c r="UA15" s="28"/>
-      <c r="UB15" s="28"/>
-      <c r="UC15" s="28"/>
-      <c r="UD15" s="28"/>
-      <c r="UE15" s="28"/>
-      <c r="UF15" s="28"/>
-      <c r="UG15" s="28"/>
-      <c r="UH15" s="28"/>
-      <c r="UI15" s="28"/>
-      <c r="UJ15" s="28"/>
-      <c r="UK15" s="28"/>
-      <c r="UL15" s="28"/>
-      <c r="UM15" s="28"/>
-      <c r="UN15" s="28"/>
-      <c r="UO15" s="28"/>
-      <c r="UP15" s="29"/>
-      <c r="UQ15" s="27"/>
-      <c r="UR15" s="28"/>
-      <c r="US15" s="28"/>
-      <c r="UT15" s="28"/>
-      <c r="UU15" s="28"/>
-      <c r="UV15" s="28"/>
-      <c r="UW15" s="28"/>
-      <c r="UX15" s="28"/>
-      <c r="UY15" s="28"/>
-      <c r="UZ15" s="28"/>
-      <c r="VA15" s="28"/>
-      <c r="VB15" s="28"/>
-      <c r="VC15" s="28"/>
-      <c r="VD15" s="28"/>
-      <c r="VE15" s="28"/>
-      <c r="VF15" s="28"/>
-      <c r="VG15" s="28"/>
-      <c r="VH15" s="28"/>
-      <c r="VI15" s="28"/>
-      <c r="VJ15" s="29"/>
-      <c r="VK15" s="27"/>
-      <c r="VL15" s="28"/>
-      <c r="VM15" s="28"/>
-      <c r="VN15" s="28"/>
-      <c r="VO15" s="28"/>
-      <c r="VP15" s="28"/>
-      <c r="VQ15" s="28"/>
-      <c r="VR15" s="28"/>
-      <c r="VS15" s="28"/>
-      <c r="VT15" s="28"/>
-      <c r="VU15" s="28"/>
-      <c r="VV15" s="28"/>
-      <c r="VW15" s="28"/>
-      <c r="VX15" s="28"/>
-      <c r="VY15" s="28"/>
-      <c r="VZ15" s="28"/>
-      <c r="WA15" s="28"/>
-      <c r="WB15" s="28"/>
-      <c r="WC15" s="28"/>
-      <c r="WD15" s="29"/>
-      <c r="WE15" s="27"/>
-      <c r="WF15" s="28"/>
-      <c r="WG15" s="28"/>
-      <c r="WH15" s="28"/>
-      <c r="WI15" s="28"/>
-      <c r="WJ15" s="28"/>
-      <c r="WK15" s="28"/>
-      <c r="WL15" s="28"/>
-      <c r="WM15" s="28"/>
-      <c r="WN15" s="28"/>
-      <c r="WO15" s="28"/>
-      <c r="WP15" s="28"/>
-      <c r="WQ15" s="28"/>
-      <c r="WR15" s="28"/>
-      <c r="WS15" s="28"/>
-      <c r="WT15" s="28"/>
-      <c r="WU15" s="28"/>
-      <c r="WV15" s="28"/>
-      <c r="WW15" s="28"/>
-      <c r="WX15" s="29"/>
-      <c r="WY15" s="27"/>
-      <c r="WZ15" s="28"/>
-      <c r="XA15" s="28"/>
-      <c r="XB15" s="28"/>
-      <c r="XC15" s="28"/>
-      <c r="XD15" s="28"/>
-      <c r="XE15" s="28"/>
-      <c r="XF15" s="28"/>
-      <c r="XG15" s="28"/>
-      <c r="XH15" s="28"/>
-      <c r="XI15" s="28"/>
-      <c r="XJ15" s="28"/>
-      <c r="XK15" s="28"/>
-      <c r="XL15" s="28"/>
-      <c r="XM15" s="28"/>
-      <c r="XN15" s="28"/>
-      <c r="XO15" s="28"/>
-      <c r="XP15" s="28"/>
-      <c r="XQ15" s="28"/>
-      <c r="XR15" s="29"/>
-      <c r="XS15" s="27"/>
-      <c r="XT15" s="28"/>
-      <c r="XU15" s="28"/>
-      <c r="XV15" s="28"/>
-      <c r="XW15" s="28"/>
-      <c r="XX15" s="28"/>
-      <c r="XY15" s="28"/>
-      <c r="XZ15" s="28"/>
-      <c r="YA15" s="28"/>
-      <c r="YB15" s="28"/>
-      <c r="YC15" s="28"/>
-      <c r="YD15" s="28"/>
-      <c r="YE15" s="28"/>
-      <c r="YF15" s="28"/>
-      <c r="YG15" s="28"/>
-      <c r="YH15" s="28"/>
-      <c r="YI15" s="28"/>
-      <c r="YJ15" s="28"/>
-      <c r="YK15" s="28"/>
-      <c r="YL15" s="29"/>
-      <c r="YM15" s="27"/>
-      <c r="YN15" s="28"/>
-      <c r="YO15" s="28"/>
-      <c r="YP15" s="28"/>
-      <c r="YQ15" s="28"/>
-      <c r="YR15" s="28"/>
-      <c r="YS15" s="28"/>
-      <c r="YT15" s="28"/>
-      <c r="YU15" s="28"/>
-      <c r="YV15" s="28"/>
-      <c r="YW15" s="28"/>
-      <c r="YX15" s="28"/>
-      <c r="YY15" s="28"/>
-      <c r="YZ15" s="28"/>
-      <c r="ZA15" s="28"/>
-      <c r="ZB15" s="28"/>
-      <c r="ZC15" s="28"/>
-      <c r="ZD15" s="28"/>
-      <c r="ZE15" s="28"/>
-      <c r="ZF15" s="29"/>
-      <c r="ZG15" s="27"/>
-      <c r="ZH15" s="28"/>
-      <c r="ZI15" s="28"/>
-      <c r="ZJ15" s="28"/>
-      <c r="ZK15" s="28"/>
-      <c r="ZL15" s="28"/>
-      <c r="ZM15" s="28"/>
-      <c r="ZN15" s="28"/>
-      <c r="ZO15" s="28"/>
-      <c r="ZP15" s="28"/>
-      <c r="ZQ15" s="28"/>
-      <c r="ZR15" s="28"/>
-      <c r="ZS15" s="28"/>
-      <c r="ZT15" s="28"/>
-      <c r="ZU15" s="28"/>
-      <c r="ZV15" s="28"/>
-      <c r="ZW15" s="28"/>
-      <c r="ZX15" s="28"/>
-      <c r="ZY15" s="28"/>
-      <c r="ZZ15" s="29"/>
-      <c r="AAA15" s="27"/>
-      <c r="AAB15" s="28"/>
-      <c r="AAC15" s="28"/>
-      <c r="AAD15" s="28"/>
-      <c r="AAE15" s="28"/>
-      <c r="AAF15" s="28"/>
-      <c r="AAG15" s="28"/>
-      <c r="AAH15" s="28"/>
-      <c r="AAI15" s="28"/>
-      <c r="AAJ15" s="28"/>
-      <c r="AAK15" s="28"/>
-      <c r="AAL15" s="28"/>
-      <c r="AAM15" s="28"/>
-      <c r="AAN15" s="28"/>
-      <c r="AAO15" s="28"/>
-      <c r="AAP15" s="28"/>
-      <c r="AAQ15" s="28"/>
-      <c r="AAR15" s="28"/>
-      <c r="AAS15" s="28"/>
-      <c r="AAT15" s="29"/>
-      <c r="AAU15" s="27"/>
-      <c r="AAV15" s="28"/>
-      <c r="AAW15" s="28"/>
-      <c r="AAX15" s="28"/>
-      <c r="AAY15" s="28"/>
-      <c r="AAZ15" s="28"/>
-      <c r="ABA15" s="28"/>
-      <c r="ABB15" s="28"/>
-      <c r="ABC15" s="28"/>
-      <c r="ABD15" s="28"/>
-      <c r="ABE15" s="28"/>
-      <c r="ABF15" s="28"/>
-      <c r="ABG15" s="28"/>
-      <c r="ABH15" s="28"/>
-      <c r="ABI15" s="28"/>
-      <c r="ABJ15" s="28"/>
-      <c r="ABK15" s="28"/>
-      <c r="ABL15" s="28"/>
-      <c r="ABM15" s="28"/>
-      <c r="ABN15" s="29"/>
-      <c r="ABO15" s="27"/>
-      <c r="ABP15" s="28"/>
-      <c r="ABQ15" s="28"/>
-      <c r="ABR15" s="28"/>
-      <c r="ABS15" s="28"/>
-      <c r="ABT15" s="28"/>
-      <c r="ABU15" s="28"/>
-      <c r="ABV15" s="28"/>
-      <c r="ABW15" s="28"/>
-      <c r="ABX15" s="28"/>
-      <c r="ABY15" s="28"/>
-      <c r="ABZ15" s="28"/>
-      <c r="ACA15" s="28"/>
-      <c r="ACB15" s="28"/>
-      <c r="ACC15" s="28"/>
-      <c r="ACD15" s="28"/>
-      <c r="ACE15" s="28"/>
-      <c r="ACF15" s="28"/>
-      <c r="ACG15" s="28"/>
-      <c r="ACH15" s="29"/>
-      <c r="ACI15" s="27"/>
-      <c r="ACJ15" s="28"/>
-      <c r="ACK15" s="28"/>
-      <c r="ACL15" s="28"/>
-      <c r="ACM15" s="28"/>
-      <c r="ACN15" s="28"/>
-      <c r="ACO15" s="28"/>
-      <c r="ACP15" s="28"/>
-      <c r="ACQ15" s="28"/>
-      <c r="ACR15" s="28"/>
-      <c r="ACS15" s="28"/>
-      <c r="ACT15" s="28"/>
-      <c r="ACU15" s="28"/>
-      <c r="ACV15" s="28"/>
-      <c r="ACW15" s="28"/>
-      <c r="ACX15" s="28"/>
-      <c r="ACY15" s="28"/>
-      <c r="ACZ15" s="28"/>
-      <c r="ADA15" s="28"/>
-      <c r="ADB15" s="29"/>
-      <c r="ADC15" s="27"/>
-      <c r="ADD15" s="28"/>
-      <c r="ADE15" s="28"/>
-      <c r="ADF15" s="28"/>
-      <c r="ADG15" s="28"/>
-      <c r="ADH15" s="28"/>
-      <c r="ADI15" s="28"/>
-      <c r="ADJ15" s="28"/>
-      <c r="ADK15" s="28"/>
-      <c r="ADL15" s="28"/>
-      <c r="ADM15" s="28"/>
-      <c r="ADN15" s="28"/>
-      <c r="ADO15" s="28"/>
-      <c r="ADP15" s="28"/>
-      <c r="ADQ15" s="28"/>
-      <c r="ADR15" s="28"/>
-      <c r="ADS15" s="28"/>
-      <c r="ADT15" s="28"/>
-      <c r="ADU15" s="28"/>
-      <c r="ADV15" s="29"/>
-      <c r="ADW15" s="27"/>
-      <c r="ADX15" s="28"/>
-      <c r="ADY15" s="28"/>
-      <c r="ADZ15" s="28"/>
-      <c r="AEA15" s="28"/>
-      <c r="AEB15" s="28"/>
-      <c r="AEC15" s="28"/>
-      <c r="AED15" s="28"/>
-      <c r="AEE15" s="28"/>
-      <c r="AEF15" s="28"/>
-      <c r="AEG15" s="28"/>
-      <c r="AEH15" s="28"/>
-      <c r="AEI15" s="28"/>
-      <c r="AEJ15" s="28"/>
-      <c r="AEK15" s="28"/>
-      <c r="AEL15" s="28"/>
-      <c r="AEM15" s="28"/>
-      <c r="AEN15" s="28"/>
-      <c r="AEO15" s="28"/>
-      <c r="AEP15" s="29"/>
-      <c r="AEQ15" s="27"/>
-      <c r="AER15" s="28"/>
-      <c r="AES15" s="28"/>
-      <c r="AET15" s="28"/>
-      <c r="AEU15" s="28"/>
-      <c r="AEV15" s="28"/>
-      <c r="AEW15" s="28"/>
-      <c r="AEX15" s="28"/>
-      <c r="AEY15" s="28"/>
-      <c r="AEZ15" s="28"/>
-      <c r="AFA15" s="28"/>
-      <c r="AFB15" s="28"/>
-      <c r="AFC15" s="28"/>
-      <c r="AFD15" s="28"/>
-      <c r="AFE15" s="28"/>
-      <c r="AFF15" s="28"/>
-      <c r="AFG15" s="28"/>
-      <c r="AFH15" s="28"/>
-      <c r="AFI15" s="28"/>
-      <c r="AFJ15" s="29"/>
-      <c r="AFK15" s="27"/>
-      <c r="AFL15" s="28"/>
-      <c r="AFM15" s="28"/>
-      <c r="AFN15" s="28"/>
-      <c r="AFO15" s="28"/>
-      <c r="AFP15" s="28"/>
-      <c r="AFQ15" s="28"/>
-      <c r="AFR15" s="28"/>
-      <c r="AFS15" s="28"/>
-      <c r="AFT15" s="28"/>
-      <c r="AFU15" s="28"/>
-      <c r="AFV15" s="28"/>
-      <c r="AFW15" s="28"/>
-      <c r="AFX15" s="28"/>
-      <c r="AFY15" s="28"/>
-      <c r="AFZ15" s="28"/>
-      <c r="AGA15" s="28"/>
-      <c r="AGB15" s="28"/>
-      <c r="AGC15" s="28"/>
-      <c r="AGD15" s="29"/>
-      <c r="AGE15" s="27"/>
-      <c r="AGF15" s="28"/>
-      <c r="AGG15" s="28"/>
-      <c r="AGH15" s="28"/>
-      <c r="AGI15" s="28"/>
-      <c r="AGJ15" s="28"/>
-      <c r="AGK15" s="28"/>
-      <c r="AGL15" s="28"/>
-      <c r="AGM15" s="28"/>
-      <c r="AGN15" s="28"/>
-      <c r="AGO15" s="28"/>
-      <c r="AGP15" s="28"/>
-      <c r="AGQ15" s="28"/>
-      <c r="AGR15" s="28"/>
-      <c r="AGS15" s="28"/>
-      <c r="AGT15" s="28"/>
-      <c r="AGU15" s="28"/>
-      <c r="AGV15" s="28"/>
-      <c r="AGW15" s="28"/>
-      <c r="AGX15" s="29"/>
-      <c r="AGY15" s="27"/>
-      <c r="AGZ15" s="28"/>
-      <c r="AHA15" s="28"/>
-      <c r="AHB15" s="28"/>
-      <c r="AHC15" s="28"/>
-      <c r="AHD15" s="28"/>
-      <c r="AHE15" s="28"/>
-      <c r="AHF15" s="28"/>
-      <c r="AHG15" s="28"/>
-      <c r="AHH15" s="28"/>
-      <c r="AHI15" s="28"/>
-      <c r="AHJ15" s="28"/>
-      <c r="AHK15" s="28"/>
-      <c r="AHL15" s="28"/>
-      <c r="AHM15" s="28"/>
-      <c r="AHN15" s="28"/>
-      <c r="AHO15" s="28"/>
-      <c r="AHP15" s="28"/>
-      <c r="AHQ15" s="28"/>
-      <c r="AHR15" s="29"/>
-      <c r="AHS15" s="27"/>
-      <c r="AHT15" s="28"/>
-      <c r="AHU15" s="28"/>
-      <c r="AHV15" s="28"/>
-      <c r="AHW15" s="28"/>
-      <c r="AHX15" s="28"/>
-      <c r="AHY15" s="28"/>
-      <c r="AHZ15" s="28"/>
-      <c r="AIA15" s="28"/>
-      <c r="AIB15" s="28"/>
-      <c r="AIC15" s="28"/>
-      <c r="AID15" s="28"/>
-      <c r="AIE15" s="28"/>
-      <c r="AIF15" s="28"/>
-      <c r="AIG15" s="28"/>
-      <c r="AIH15" s="28"/>
-      <c r="AII15" s="28"/>
-      <c r="AIJ15" s="28"/>
-      <c r="AIK15" s="28"/>
-      <c r="AIL15" s="29"/>
-      <c r="AIM15" s="27"/>
-      <c r="AIN15" s="28"/>
-      <c r="AIO15" s="28"/>
-      <c r="AIP15" s="28"/>
-      <c r="AIQ15" s="28"/>
-      <c r="AIR15" s="28"/>
-      <c r="AIS15" s="28"/>
-      <c r="AIT15" s="28"/>
-      <c r="AIU15" s="28"/>
-      <c r="AIV15" s="28"/>
-      <c r="AIW15" s="28"/>
-      <c r="AIX15" s="28"/>
-      <c r="AIY15" s="28"/>
-      <c r="AIZ15" s="28"/>
-      <c r="AJA15" s="28"/>
-      <c r="AJB15" s="28"/>
-      <c r="AJC15" s="28"/>
-      <c r="AJD15" s="28"/>
-      <c r="AJE15" s="28"/>
-      <c r="AJF15" s="29"/>
-      <c r="AJG15" s="27"/>
-      <c r="AJH15" s="28"/>
-      <c r="AJI15" s="28"/>
-      <c r="AJJ15" s="28"/>
-      <c r="AJK15" s="28"/>
-      <c r="AJL15" s="28"/>
-      <c r="AJM15" s="28"/>
-      <c r="AJN15" s="28"/>
-      <c r="AJO15" s="28"/>
-      <c r="AJP15" s="28"/>
-      <c r="AJQ15" s="28"/>
-      <c r="AJR15" s="28"/>
-      <c r="AJS15" s="28"/>
-      <c r="AJT15" s="28"/>
-      <c r="AJU15" s="28"/>
-      <c r="AJV15" s="28"/>
-      <c r="AJW15" s="28"/>
-      <c r="AJX15" s="28"/>
-      <c r="AJY15" s="28"/>
-      <c r="AJZ15" s="29"/>
-      <c r="AKA15" s="27"/>
-      <c r="AKB15" s="28"/>
-      <c r="AKC15" s="28"/>
-      <c r="AKD15" s="28"/>
-      <c r="AKE15" s="28"/>
-      <c r="AKF15" s="28"/>
-      <c r="AKG15" s="28"/>
-      <c r="AKH15" s="28"/>
-      <c r="AKI15" s="28"/>
-      <c r="AKJ15" s="28"/>
-      <c r="AKK15" s="28"/>
-      <c r="AKL15" s="28"/>
-      <c r="AKM15" s="28"/>
-      <c r="AKN15" s="28"/>
-      <c r="AKO15" s="28"/>
-      <c r="AKP15" s="28"/>
-      <c r="AKQ15" s="28"/>
-      <c r="AKR15" s="28"/>
-      <c r="AKS15" s="28"/>
-      <c r="AKT15" s="29"/>
-      <c r="AKU15" s="27"/>
-      <c r="AKV15" s="28"/>
-      <c r="AKW15" s="28"/>
-      <c r="AKX15" s="28"/>
-      <c r="AKY15" s="28"/>
-      <c r="AKZ15" s="28"/>
-      <c r="ALA15" s="28"/>
-      <c r="ALB15" s="28"/>
-      <c r="ALC15" s="28"/>
-      <c r="ALD15" s="28"/>
-      <c r="ALE15" s="28"/>
-      <c r="ALF15" s="28"/>
-      <c r="ALG15" s="28"/>
-      <c r="ALH15" s="28"/>
-      <c r="ALI15" s="28"/>
-      <c r="ALJ15" s="28"/>
-      <c r="ALK15" s="28"/>
-      <c r="ALL15" s="28"/>
-      <c r="ALM15" s="28"/>
-      <c r="ALN15" s="29"/>
-      <c r="ALO15" s="27"/>
-      <c r="ALP15" s="28"/>
-      <c r="ALQ15" s="28"/>
-      <c r="ALR15" s="28"/>
-      <c r="ALS15" s="28"/>
-      <c r="ALT15" s="28"/>
-      <c r="ALU15" s="28"/>
-      <c r="ALV15" s="28"/>
-      <c r="ALW15" s="28"/>
-      <c r="ALX15" s="28"/>
-      <c r="ALY15" s="28"/>
-      <c r="ALZ15" s="28"/>
-      <c r="AMA15" s="28"/>
-      <c r="AMB15" s="28"/>
-      <c r="AMC15" s="28"/>
-      <c r="AMD15" s="28"/>
-      <c r="AME15" s="28"/>
-      <c r="AMF15" s="28"/>
-      <c r="AMG15" s="28"/>
-      <c r="AMH15" s="29"/>
-      <c r="AMI15" s="27"/>
-      <c r="AMJ15" s="28"/>
-      <c r="AMK15" s="28"/>
-      <c r="AML15" s="28"/>
-      <c r="AMM15" s="28"/>
-      <c r="AMN15" s="28"/>
-      <c r="AMO15" s="28"/>
-      <c r="AMP15" s="28"/>
-      <c r="AMQ15" s="28"/>
-      <c r="AMR15" s="28"/>
-      <c r="AMS15" s="28"/>
-      <c r="AMT15" s="28"/>
-      <c r="AMU15" s="28"/>
-      <c r="AMV15" s="28"/>
-      <c r="AMW15" s="28"/>
-      <c r="AMX15" s="28"/>
-      <c r="AMY15" s="28"/>
-      <c r="AMZ15" s="28"/>
-      <c r="ANA15" s="28"/>
-      <c r="ANB15" s="29"/>
-      <c r="ANC15" s="27"/>
-      <c r="AND15" s="28"/>
-      <c r="ANE15" s="28"/>
-      <c r="ANF15" s="28"/>
-      <c r="ANG15" s="28"/>
-      <c r="ANH15" s="28"/>
-      <c r="ANI15" s="28"/>
-      <c r="ANJ15" s="28"/>
-      <c r="ANK15" s="28"/>
-      <c r="ANL15" s="28"/>
-      <c r="ANM15" s="28"/>
-      <c r="ANN15" s="28"/>
-      <c r="ANO15" s="28"/>
-      <c r="ANP15" s="28"/>
-      <c r="ANQ15" s="28"/>
-      <c r="ANR15" s="28"/>
-      <c r="ANS15" s="28"/>
-      <c r="ANT15" s="28"/>
-      <c r="ANU15" s="28"/>
-      <c r="ANV15" s="29"/>
-      <c r="ANW15" s="27"/>
-      <c r="ANX15" s="28"/>
-      <c r="ANY15" s="28"/>
-      <c r="ANZ15" s="28"/>
-      <c r="AOA15" s="28"/>
-      <c r="AOB15" s="28"/>
-      <c r="AOC15" s="28"/>
-      <c r="AOD15" s="28"/>
-      <c r="AOE15" s="28"/>
-      <c r="AOF15" s="28"/>
-      <c r="AOG15" s="28"/>
-      <c r="AOH15" s="28"/>
-      <c r="AOI15" s="28"/>
-      <c r="AOJ15" s="28"/>
-      <c r="AOK15" s="28"/>
-      <c r="AOL15" s="28"/>
-      <c r="AOM15" s="28"/>
-      <c r="AON15" s="28"/>
-      <c r="AOO15" s="28"/>
-      <c r="AOP15" s="29"/>
+      <c r="C15" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="33"/>
+      <c r="AE15" s="33"/>
+      <c r="AF15" s="33"/>
+      <c r="AG15" s="33"/>
+      <c r="AH15" s="33"/>
+      <c r="AI15" s="33"/>
+      <c r="AJ15" s="33"/>
+      <c r="AK15" s="33"/>
+      <c r="AL15" s="33"/>
+      <c r="AM15" s="33"/>
+      <c r="AN15" s="33"/>
+      <c r="AO15" s="33"/>
+      <c r="AP15" s="34"/>
+      <c r="AQ15" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR15" s="33"/>
+      <c r="AS15" s="33"/>
+      <c r="AT15" s="33"/>
+      <c r="AU15" s="33"/>
+      <c r="AV15" s="33"/>
+      <c r="AW15" s="33"/>
+      <c r="AX15" s="33"/>
+      <c r="AY15" s="33"/>
+      <c r="AZ15" s="33"/>
+      <c r="BA15" s="33"/>
+      <c r="BB15" s="33"/>
+      <c r="BC15" s="33"/>
+      <c r="BD15" s="33"/>
+      <c r="BE15" s="33"/>
+      <c r="BF15" s="33"/>
+      <c r="BG15" s="33"/>
+      <c r="BH15" s="33"/>
+      <c r="BI15" s="33"/>
+      <c r="BJ15" s="34"/>
+      <c r="BK15" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="BL15" s="33"/>
+      <c r="BM15" s="33"/>
+      <c r="BN15" s="33"/>
+      <c r="BO15" s="33"/>
+      <c r="BP15" s="33"/>
+      <c r="BQ15" s="33"/>
+      <c r="BR15" s="33"/>
+      <c r="BS15" s="33"/>
+      <c r="BT15" s="33"/>
+      <c r="BU15" s="33"/>
+      <c r="BV15" s="33"/>
+      <c r="BW15" s="33"/>
+      <c r="BX15" s="33"/>
+      <c r="BY15" s="33"/>
+      <c r="BZ15" s="33"/>
+      <c r="CA15" s="33"/>
+      <c r="CB15" s="33"/>
+      <c r="CC15" s="33"/>
+      <c r="CD15" s="34"/>
+      <c r="CE15" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="CF15" s="33"/>
+      <c r="CG15" s="33"/>
+      <c r="CH15" s="33"/>
+      <c r="CI15" s="33"/>
+      <c r="CJ15" s="33"/>
+      <c r="CK15" s="33"/>
+      <c r="CL15" s="33"/>
+      <c r="CM15" s="33"/>
+      <c r="CN15" s="33"/>
+      <c r="CO15" s="33"/>
+      <c r="CP15" s="33"/>
+      <c r="CQ15" s="33"/>
+      <c r="CR15" s="33"/>
+      <c r="CS15" s="33"/>
+      <c r="CT15" s="33"/>
+      <c r="CU15" s="33"/>
+      <c r="CV15" s="33"/>
+      <c r="CW15" s="33"/>
+      <c r="CX15" s="34"/>
+      <c r="CY15" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="CZ15" s="33"/>
+      <c r="DA15" s="33"/>
+      <c r="DB15" s="33"/>
+      <c r="DC15" s="33"/>
+      <c r="DD15" s="33"/>
+      <c r="DE15" s="33"/>
+      <c r="DF15" s="33"/>
+      <c r="DG15" s="33"/>
+      <c r="DH15" s="33"/>
+      <c r="DI15" s="33"/>
+      <c r="DJ15" s="33"/>
+      <c r="DK15" s="33"/>
+      <c r="DL15" s="33"/>
+      <c r="DM15" s="33"/>
+      <c r="DN15" s="33"/>
+      <c r="DO15" s="33"/>
+      <c r="DP15" s="33"/>
+      <c r="DQ15" s="33"/>
+      <c r="DR15" s="34"/>
+      <c r="DS15" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="DT15" s="33"/>
+      <c r="DU15" s="33"/>
+      <c r="DV15" s="33"/>
+      <c r="DW15" s="33"/>
+      <c r="DX15" s="33"/>
+      <c r="DY15" s="33"/>
+      <c r="DZ15" s="33"/>
+      <c r="EA15" s="33"/>
+      <c r="EB15" s="33"/>
+      <c r="EC15" s="33"/>
+      <c r="ED15" s="33"/>
+      <c r="EE15" s="33"/>
+      <c r="EF15" s="33"/>
+      <c r="EG15" s="33"/>
+      <c r="EH15" s="33"/>
+      <c r="EI15" s="33"/>
+      <c r="EJ15" s="33"/>
+      <c r="EK15" s="33"/>
+      <c r="EL15" s="34"/>
+      <c r="EM15" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="EN15" s="33"/>
+      <c r="EO15" s="33"/>
+      <c r="EP15" s="33"/>
+      <c r="EQ15" s="33"/>
+      <c r="ER15" s="33"/>
+      <c r="ES15" s="33"/>
+      <c r="ET15" s="33"/>
+      <c r="EU15" s="33"/>
+      <c r="EV15" s="33"/>
+      <c r="EW15" s="33"/>
+      <c r="EX15" s="33"/>
+      <c r="EY15" s="33"/>
+      <c r="EZ15" s="33"/>
+      <c r="FA15" s="33"/>
+      <c r="FB15" s="33"/>
+      <c r="FC15" s="33"/>
+      <c r="FD15" s="33"/>
+      <c r="FE15" s="33"/>
+      <c r="FF15" s="34"/>
+      <c r="FG15" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="FH15" s="33"/>
+      <c r="FI15" s="33"/>
+      <c r="FJ15" s="33"/>
+      <c r="FK15" s="33"/>
+      <c r="FL15" s="33"/>
+      <c r="FM15" s="33"/>
+      <c r="FN15" s="33"/>
+      <c r="FO15" s="33"/>
+      <c r="FP15" s="33"/>
+      <c r="FQ15" s="33"/>
+      <c r="FR15" s="33"/>
+      <c r="FS15" s="33"/>
+      <c r="FT15" s="33"/>
+      <c r="FU15" s="33"/>
+      <c r="FV15" s="33"/>
+      <c r="FW15" s="33"/>
+      <c r="FX15" s="33"/>
+      <c r="FY15" s="33"/>
+      <c r="FZ15" s="34"/>
+      <c r="GA15" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="GB15" s="33"/>
+      <c r="GC15" s="33"/>
+      <c r="GD15" s="33"/>
+      <c r="GE15" s="33"/>
+      <c r="GF15" s="33"/>
+      <c r="GG15" s="33"/>
+      <c r="GH15" s="33"/>
+      <c r="GI15" s="33"/>
+      <c r="GJ15" s="33"/>
+      <c r="GK15" s="33"/>
+      <c r="GL15" s="33"/>
+      <c r="GM15" s="33"/>
+      <c r="GN15" s="33"/>
+      <c r="GO15" s="33"/>
+      <c r="GP15" s="33"/>
+      <c r="GQ15" s="33"/>
+      <c r="GR15" s="33"/>
+      <c r="GS15" s="33"/>
+      <c r="GT15" s="34"/>
+      <c r="GU15" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="GV15" s="33"/>
+      <c r="GW15" s="33"/>
+      <c r="GX15" s="33"/>
+      <c r="GY15" s="33"/>
+      <c r="GZ15" s="33"/>
+      <c r="HA15" s="33"/>
+      <c r="HB15" s="33"/>
+      <c r="HC15" s="33"/>
+      <c r="HD15" s="33"/>
+      <c r="HE15" s="33"/>
+      <c r="HF15" s="33"/>
+      <c r="HG15" s="33"/>
+      <c r="HH15" s="33"/>
+      <c r="HI15" s="33"/>
+      <c r="HJ15" s="33"/>
+      <c r="HK15" s="33"/>
+      <c r="HL15" s="33"/>
+      <c r="HM15" s="33"/>
+      <c r="HN15" s="34"/>
+      <c r="HO15" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="HP15" s="33"/>
+      <c r="HQ15" s="33"/>
+      <c r="HR15" s="33"/>
+      <c r="HS15" s="33"/>
+      <c r="HT15" s="33"/>
+      <c r="HU15" s="33"/>
+      <c r="HV15" s="33"/>
+      <c r="HW15" s="33"/>
+      <c r="HX15" s="33"/>
+      <c r="HY15" s="33"/>
+      <c r="HZ15" s="33"/>
+      <c r="IA15" s="33"/>
+      <c r="IB15" s="33"/>
+      <c r="IC15" s="33"/>
+      <c r="ID15" s="33"/>
+      <c r="IE15" s="33"/>
+      <c r="IF15" s="33"/>
+      <c r="IG15" s="33"/>
+      <c r="IH15" s="34"/>
+      <c r="II15" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="IJ15" s="33"/>
+      <c r="IK15" s="33"/>
+      <c r="IL15" s="33"/>
+      <c r="IM15" s="33"/>
+      <c r="IN15" s="33"/>
+      <c r="IO15" s="33"/>
+      <c r="IP15" s="33"/>
+      <c r="IQ15" s="33"/>
+      <c r="IR15" s="33"/>
+      <c r="IS15" s="33"/>
+      <c r="IT15" s="33"/>
+      <c r="IU15" s="33"/>
+      <c r="IV15" s="33"/>
+      <c r="IW15" s="33"/>
+      <c r="IX15" s="33"/>
+      <c r="IY15" s="33"/>
+      <c r="IZ15" s="33"/>
+      <c r="JA15" s="33"/>
+      <c r="JB15" s="34"/>
+      <c r="JC15" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="JD15" s="33"/>
+      <c r="JE15" s="33"/>
+      <c r="JF15" s="33"/>
+      <c r="JG15" s="33"/>
+      <c r="JH15" s="33"/>
+      <c r="JI15" s="33"/>
+      <c r="JJ15" s="33"/>
+      <c r="JK15" s="33"/>
+      <c r="JL15" s="33"/>
+      <c r="JM15" s="33"/>
+      <c r="JN15" s="33"/>
+      <c r="JO15" s="33"/>
+      <c r="JP15" s="33"/>
+      <c r="JQ15" s="33"/>
+      <c r="JR15" s="33"/>
+      <c r="JS15" s="33"/>
+      <c r="JT15" s="33"/>
+      <c r="JU15" s="33"/>
+      <c r="JV15" s="34"/>
+      <c r="JW15" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="JX15" s="33"/>
+      <c r="JY15" s="33"/>
+      <c r="JZ15" s="33"/>
+      <c r="KA15" s="33"/>
+      <c r="KB15" s="33"/>
+      <c r="KC15" s="33"/>
+      <c r="KD15" s="33"/>
+      <c r="KE15" s="33"/>
+      <c r="KF15" s="33"/>
+      <c r="KG15" s="33"/>
+      <c r="KH15" s="33"/>
+      <c r="KI15" s="33"/>
+      <c r="KJ15" s="33"/>
+      <c r="KK15" s="33"/>
+      <c r="KL15" s="33"/>
+      <c r="KM15" s="33"/>
+      <c r="KN15" s="33"/>
+      <c r="KO15" s="33"/>
+      <c r="KP15" s="34"/>
+      <c r="KQ15" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="KR15" s="33"/>
+      <c r="KS15" s="33"/>
+      <c r="KT15" s="33"/>
+      <c r="KU15" s="33"/>
+      <c r="KV15" s="33"/>
+      <c r="KW15" s="33"/>
+      <c r="KX15" s="33"/>
+      <c r="KY15" s="33"/>
+      <c r="KZ15" s="33"/>
+      <c r="LA15" s="33"/>
+      <c r="LB15" s="33"/>
+      <c r="LC15" s="33"/>
+      <c r="LD15" s="33"/>
+      <c r="LE15" s="33"/>
+      <c r="LF15" s="33"/>
+      <c r="LG15" s="33"/>
+      <c r="LH15" s="33"/>
+      <c r="LI15" s="33"/>
+      <c r="LJ15" s="34"/>
+      <c r="LK15" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="LL15" s="33"/>
+      <c r="LM15" s="33"/>
+      <c r="LN15" s="33"/>
+      <c r="LO15" s="33"/>
+      <c r="LP15" s="33"/>
+      <c r="LQ15" s="33"/>
+      <c r="LR15" s="33"/>
+      <c r="LS15" s="33"/>
+      <c r="LT15" s="33"/>
+      <c r="LU15" s="33"/>
+      <c r="LV15" s="33"/>
+      <c r="LW15" s="33"/>
+      <c r="LX15" s="33"/>
+      <c r="LY15" s="33"/>
+      <c r="LZ15" s="33"/>
+      <c r="MA15" s="33"/>
+      <c r="MB15" s="33"/>
+      <c r="MC15" s="33"/>
+      <c r="MD15" s="34"/>
+      <c r="ME15" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="MF15" s="33"/>
+      <c r="MG15" s="33"/>
+      <c r="MH15" s="33"/>
+      <c r="MI15" s="33"/>
+      <c r="MJ15" s="33"/>
+      <c r="MK15" s="33"/>
+      <c r="ML15" s="33"/>
+      <c r="MM15" s="33"/>
+      <c r="MN15" s="33"/>
+      <c r="MO15" s="33"/>
+      <c r="MP15" s="33"/>
+      <c r="MQ15" s="33"/>
+      <c r="MR15" s="33"/>
+      <c r="MS15" s="33"/>
+      <c r="MT15" s="33"/>
+      <c r="MU15" s="33"/>
+      <c r="MV15" s="33"/>
+      <c r="MW15" s="33"/>
+      <c r="MX15" s="34"/>
+      <c r="MY15" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="MZ15" s="33"/>
+      <c r="NA15" s="33"/>
+      <c r="NB15" s="33"/>
+      <c r="NC15" s="33"/>
+      <c r="ND15" s="33"/>
+      <c r="NE15" s="33"/>
+      <c r="NF15" s="33"/>
+      <c r="NG15" s="33"/>
+      <c r="NH15" s="33"/>
+      <c r="NI15" s="33"/>
+      <c r="NJ15" s="33"/>
+      <c r="NK15" s="33"/>
+      <c r="NL15" s="33"/>
+      <c r="NM15" s="33"/>
+      <c r="NN15" s="33"/>
+      <c r="NO15" s="33"/>
+      <c r="NP15" s="33"/>
+      <c r="NQ15" s="33"/>
+      <c r="NR15" s="34"/>
+      <c r="NS15" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="NT15" s="33"/>
+      <c r="NU15" s="33"/>
+      <c r="NV15" s="33"/>
+      <c r="NW15" s="33"/>
+      <c r="NX15" s="33"/>
+      <c r="NY15" s="33"/>
+      <c r="NZ15" s="33"/>
+      <c r="OA15" s="33"/>
+      <c r="OB15" s="33"/>
+      <c r="OC15" s="33"/>
+      <c r="OD15" s="33"/>
+      <c r="OE15" s="33"/>
+      <c r="OF15" s="33"/>
+      <c r="OG15" s="33"/>
+      <c r="OH15" s="33"/>
+      <c r="OI15" s="33"/>
+      <c r="OJ15" s="33"/>
+      <c r="OK15" s="33"/>
+      <c r="OL15" s="34"/>
+      <c r="OM15" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="ON15" s="33"/>
+      <c r="OO15" s="33"/>
+      <c r="OP15" s="33"/>
+      <c r="OQ15" s="33"/>
+      <c r="OR15" s="33"/>
+      <c r="OS15" s="33"/>
+      <c r="OT15" s="33"/>
+      <c r="OU15" s="33"/>
+      <c r="OV15" s="33"/>
+      <c r="OW15" s="33"/>
+      <c r="OX15" s="33"/>
+      <c r="OY15" s="33"/>
+      <c r="OZ15" s="33"/>
+      <c r="PA15" s="33"/>
+      <c r="PB15" s="33"/>
+      <c r="PC15" s="33"/>
+      <c r="PD15" s="33"/>
+      <c r="PE15" s="33"/>
+      <c r="PF15" s="34"/>
+      <c r="PG15" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="PH15" s="33"/>
+      <c r="PI15" s="33"/>
+      <c r="PJ15" s="33"/>
+      <c r="PK15" s="33"/>
+      <c r="PL15" s="33"/>
+      <c r="PM15" s="33"/>
+      <c r="PN15" s="33"/>
+      <c r="PO15" s="33"/>
+      <c r="PP15" s="33"/>
+      <c r="PQ15" s="33"/>
+      <c r="PR15" s="33"/>
+      <c r="PS15" s="33"/>
+      <c r="PT15" s="33"/>
+      <c r="PU15" s="33"/>
+      <c r="PV15" s="33"/>
+      <c r="PW15" s="33"/>
+      <c r="PX15" s="33"/>
+      <c r="PY15" s="33"/>
+      <c r="PZ15" s="34"/>
+      <c r="QA15" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="QB15" s="33"/>
+      <c r="QC15" s="33"/>
+      <c r="QD15" s="33"/>
+      <c r="QE15" s="33"/>
+      <c r="QF15" s="33"/>
+      <c r="QG15" s="33"/>
+      <c r="QH15" s="33"/>
+      <c r="QI15" s="33"/>
+      <c r="QJ15" s="33"/>
+      <c r="QK15" s="33"/>
+      <c r="QL15" s="33"/>
+      <c r="QM15" s="33"/>
+      <c r="QN15" s="33"/>
+      <c r="QO15" s="33"/>
+      <c r="QP15" s="33"/>
+      <c r="QQ15" s="33"/>
+      <c r="QR15" s="33"/>
+      <c r="QS15" s="33"/>
+      <c r="QT15" s="34"/>
+      <c r="QU15" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="QV15" s="33"/>
+      <c r="QW15" s="33"/>
+      <c r="QX15" s="33"/>
+      <c r="QY15" s="33"/>
+      <c r="QZ15" s="33"/>
+      <c r="RA15" s="33"/>
+      <c r="RB15" s="33"/>
+      <c r="RC15" s="33"/>
+      <c r="RD15" s="33"/>
+      <c r="RE15" s="33"/>
+      <c r="RF15" s="33"/>
+      <c r="RG15" s="33"/>
+      <c r="RH15" s="33"/>
+      <c r="RI15" s="33"/>
+      <c r="RJ15" s="33"/>
+      <c r="RK15" s="33"/>
+      <c r="RL15" s="33"/>
+      <c r="RM15" s="33"/>
+      <c r="RN15" s="34"/>
+      <c r="RO15" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="RP15" s="33"/>
+      <c r="RQ15" s="33"/>
+      <c r="RR15" s="33"/>
+      <c r="RS15" s="33"/>
+      <c r="RT15" s="33"/>
+      <c r="RU15" s="33"/>
+      <c r="RV15" s="33"/>
+      <c r="RW15" s="33"/>
+      <c r="RX15" s="33"/>
+      <c r="RY15" s="33"/>
+      <c r="RZ15" s="33"/>
+      <c r="SA15" s="33"/>
+      <c r="SB15" s="33"/>
+      <c r="SC15" s="33"/>
+      <c r="SD15" s="33"/>
+      <c r="SE15" s="33"/>
+      <c r="SF15" s="33"/>
+      <c r="SG15" s="33"/>
+      <c r="SH15" s="34"/>
+      <c r="SI15" s="32"/>
+      <c r="SJ15" s="33"/>
+      <c r="SK15" s="33"/>
+      <c r="SL15" s="33"/>
+      <c r="SM15" s="33"/>
+      <c r="SN15" s="33"/>
+      <c r="SO15" s="33"/>
+      <c r="SP15" s="33"/>
+      <c r="SQ15" s="33"/>
+      <c r="SR15" s="33"/>
+      <c r="SS15" s="33"/>
+      <c r="ST15" s="33"/>
+      <c r="SU15" s="33"/>
+      <c r="SV15" s="33"/>
+      <c r="SW15" s="33"/>
+      <c r="SX15" s="33"/>
+      <c r="SY15" s="33"/>
+      <c r="SZ15" s="33"/>
+      <c r="TA15" s="33"/>
+      <c r="TB15" s="34"/>
+      <c r="TC15" s="32"/>
+      <c r="TD15" s="33"/>
+      <c r="TE15" s="33"/>
+      <c r="TF15" s="33"/>
+      <c r="TG15" s="33"/>
+      <c r="TH15" s="33"/>
+      <c r="TI15" s="33"/>
+      <c r="TJ15" s="33"/>
+      <c r="TK15" s="33"/>
+      <c r="TL15" s="33"/>
+      <c r="TM15" s="33"/>
+      <c r="TN15" s="33"/>
+      <c r="TO15" s="33"/>
+      <c r="TP15" s="33"/>
+      <c r="TQ15" s="33"/>
+      <c r="TR15" s="33"/>
+      <c r="TS15" s="33"/>
+      <c r="TT15" s="33"/>
+      <c r="TU15" s="33"/>
+      <c r="TV15" s="34"/>
+      <c r="TW15" s="32"/>
+      <c r="TX15" s="33"/>
+      <c r="TY15" s="33"/>
+      <c r="TZ15" s="33"/>
+      <c r="UA15" s="33"/>
+      <c r="UB15" s="33"/>
+      <c r="UC15" s="33"/>
+      <c r="UD15" s="33"/>
+      <c r="UE15" s="33"/>
+      <c r="UF15" s="33"/>
+      <c r="UG15" s="33"/>
+      <c r="UH15" s="33"/>
+      <c r="UI15" s="33"/>
+      <c r="UJ15" s="33"/>
+      <c r="UK15" s="33"/>
+      <c r="UL15" s="33"/>
+      <c r="UM15" s="33"/>
+      <c r="UN15" s="33"/>
+      <c r="UO15" s="33"/>
+      <c r="UP15" s="34"/>
+      <c r="UQ15" s="32"/>
+      <c r="UR15" s="33"/>
+      <c r="US15" s="33"/>
+      <c r="UT15" s="33"/>
+      <c r="UU15" s="33"/>
+      <c r="UV15" s="33"/>
+      <c r="UW15" s="33"/>
+      <c r="UX15" s="33"/>
+      <c r="UY15" s="33"/>
+      <c r="UZ15" s="33"/>
+      <c r="VA15" s="33"/>
+      <c r="VB15" s="33"/>
+      <c r="VC15" s="33"/>
+      <c r="VD15" s="33"/>
+      <c r="VE15" s="33"/>
+      <c r="VF15" s="33"/>
+      <c r="VG15" s="33"/>
+      <c r="VH15" s="33"/>
+      <c r="VI15" s="33"/>
+      <c r="VJ15" s="34"/>
+      <c r="VK15" s="32"/>
+      <c r="VL15" s="33"/>
+      <c r="VM15" s="33"/>
+      <c r="VN15" s="33"/>
+      <c r="VO15" s="33"/>
+      <c r="VP15" s="33"/>
+      <c r="VQ15" s="33"/>
+      <c r="VR15" s="33"/>
+      <c r="VS15" s="33"/>
+      <c r="VT15" s="33"/>
+      <c r="VU15" s="33"/>
+      <c r="VV15" s="33"/>
+      <c r="VW15" s="33"/>
+      <c r="VX15" s="33"/>
+      <c r="VY15" s="33"/>
+      <c r="VZ15" s="33"/>
+      <c r="WA15" s="33"/>
+      <c r="WB15" s="33"/>
+      <c r="WC15" s="33"/>
+      <c r="WD15" s="34"/>
+      <c r="WE15" s="32"/>
+      <c r="WF15" s="33"/>
+      <c r="WG15" s="33"/>
+      <c r="WH15" s="33"/>
+      <c r="WI15" s="33"/>
+      <c r="WJ15" s="33"/>
+      <c r="WK15" s="33"/>
+      <c r="WL15" s="33"/>
+      <c r="WM15" s="33"/>
+      <c r="WN15" s="33"/>
+      <c r="WO15" s="33"/>
+      <c r="WP15" s="33"/>
+      <c r="WQ15" s="33"/>
+      <c r="WR15" s="33"/>
+      <c r="WS15" s="33"/>
+      <c r="WT15" s="33"/>
+      <c r="WU15" s="33"/>
+      <c r="WV15" s="33"/>
+      <c r="WW15" s="33"/>
+      <c r="WX15" s="34"/>
+      <c r="WY15" s="32"/>
+      <c r="WZ15" s="33"/>
+      <c r="XA15" s="33"/>
+      <c r="XB15" s="33"/>
+      <c r="XC15" s="33"/>
+      <c r="XD15" s="33"/>
+      <c r="XE15" s="33"/>
+      <c r="XF15" s="33"/>
+      <c r="XG15" s="33"/>
+      <c r="XH15" s="33"/>
+      <c r="XI15" s="33"/>
+      <c r="XJ15" s="33"/>
+      <c r="XK15" s="33"/>
+      <c r="XL15" s="33"/>
+      <c r="XM15" s="33"/>
+      <c r="XN15" s="33"/>
+      <c r="XO15" s="33"/>
+      <c r="XP15" s="33"/>
+      <c r="XQ15" s="33"/>
+      <c r="XR15" s="34"/>
+      <c r="XS15" s="32"/>
+      <c r="XT15" s="33"/>
+      <c r="XU15" s="33"/>
+      <c r="XV15" s="33"/>
+      <c r="XW15" s="33"/>
+      <c r="XX15" s="33"/>
+      <c r="XY15" s="33"/>
+      <c r="XZ15" s="33"/>
+      <c r="YA15" s="33"/>
+      <c r="YB15" s="33"/>
+      <c r="YC15" s="33"/>
+      <c r="YD15" s="33"/>
+      <c r="YE15" s="33"/>
+      <c r="YF15" s="33"/>
+      <c r="YG15" s="33"/>
+      <c r="YH15" s="33"/>
+      <c r="YI15" s="33"/>
+      <c r="YJ15" s="33"/>
+      <c r="YK15" s="33"/>
+      <c r="YL15" s="34"/>
+      <c r="YM15" s="32"/>
+      <c r="YN15" s="33"/>
+      <c r="YO15" s="33"/>
+      <c r="YP15" s="33"/>
+      <c r="YQ15" s="33"/>
+      <c r="YR15" s="33"/>
+      <c r="YS15" s="33"/>
+      <c r="YT15" s="33"/>
+      <c r="YU15" s="33"/>
+      <c r="YV15" s="33"/>
+      <c r="YW15" s="33"/>
+      <c r="YX15" s="33"/>
+      <c r="YY15" s="33"/>
+      <c r="YZ15" s="33"/>
+      <c r="ZA15" s="33"/>
+      <c r="ZB15" s="33"/>
+      <c r="ZC15" s="33"/>
+      <c r="ZD15" s="33"/>
+      <c r="ZE15" s="33"/>
+      <c r="ZF15" s="34"/>
+      <c r="ZG15" s="32"/>
+      <c r="ZH15" s="33"/>
+      <c r="ZI15" s="33"/>
+      <c r="ZJ15" s="33"/>
+      <c r="ZK15" s="33"/>
+      <c r="ZL15" s="33"/>
+      <c r="ZM15" s="33"/>
+      <c r="ZN15" s="33"/>
+      <c r="ZO15" s="33"/>
+      <c r="ZP15" s="33"/>
+      <c r="ZQ15" s="33"/>
+      <c r="ZR15" s="33"/>
+      <c r="ZS15" s="33"/>
+      <c r="ZT15" s="33"/>
+      <c r="ZU15" s="33"/>
+      <c r="ZV15" s="33"/>
+      <c r="ZW15" s="33"/>
+      <c r="ZX15" s="33"/>
+      <c r="ZY15" s="33"/>
+      <c r="ZZ15" s="34"/>
+      <c r="AAA15" s="32"/>
+      <c r="AAB15" s="33"/>
+      <c r="AAC15" s="33"/>
+      <c r="AAD15" s="33"/>
+      <c r="AAE15" s="33"/>
+      <c r="AAF15" s="33"/>
+      <c r="AAG15" s="33"/>
+      <c r="AAH15" s="33"/>
+      <c r="AAI15" s="33"/>
+      <c r="AAJ15" s="33"/>
+      <c r="AAK15" s="33"/>
+      <c r="AAL15" s="33"/>
+      <c r="AAM15" s="33"/>
+      <c r="AAN15" s="33"/>
+      <c r="AAO15" s="33"/>
+      <c r="AAP15" s="33"/>
+      <c r="AAQ15" s="33"/>
+      <c r="AAR15" s="33"/>
+      <c r="AAS15" s="33"/>
+      <c r="AAT15" s="34"/>
+      <c r="AAU15" s="32"/>
+      <c r="AAV15" s="33"/>
+      <c r="AAW15" s="33"/>
+      <c r="AAX15" s="33"/>
+      <c r="AAY15" s="33"/>
+      <c r="AAZ15" s="33"/>
+      <c r="ABA15" s="33"/>
+      <c r="ABB15" s="33"/>
+      <c r="ABC15" s="33"/>
+      <c r="ABD15" s="33"/>
+      <c r="ABE15" s="33"/>
+      <c r="ABF15" s="33"/>
+      <c r="ABG15" s="33"/>
+      <c r="ABH15" s="33"/>
+      <c r="ABI15" s="33"/>
+      <c r="ABJ15" s="33"/>
+      <c r="ABK15" s="33"/>
+      <c r="ABL15" s="33"/>
+      <c r="ABM15" s="33"/>
+      <c r="ABN15" s="34"/>
+      <c r="ABO15" s="32"/>
+      <c r="ABP15" s="33"/>
+      <c r="ABQ15" s="33"/>
+      <c r="ABR15" s="33"/>
+      <c r="ABS15" s="33"/>
+      <c r="ABT15" s="33"/>
+      <c r="ABU15" s="33"/>
+      <c r="ABV15" s="33"/>
+      <c r="ABW15" s="33"/>
+      <c r="ABX15" s="33"/>
+      <c r="ABY15" s="33"/>
+      <c r="ABZ15" s="33"/>
+      <c r="ACA15" s="33"/>
+      <c r="ACB15" s="33"/>
+      <c r="ACC15" s="33"/>
+      <c r="ACD15" s="33"/>
+      <c r="ACE15" s="33"/>
+      <c r="ACF15" s="33"/>
+      <c r="ACG15" s="33"/>
+      <c r="ACH15" s="34"/>
+      <c r="ACI15" s="32"/>
+      <c r="ACJ15" s="33"/>
+      <c r="ACK15" s="33"/>
+      <c r="ACL15" s="33"/>
+      <c r="ACM15" s="33"/>
+      <c r="ACN15" s="33"/>
+      <c r="ACO15" s="33"/>
+      <c r="ACP15" s="33"/>
+      <c r="ACQ15" s="33"/>
+      <c r="ACR15" s="33"/>
+      <c r="ACS15" s="33"/>
+      <c r="ACT15" s="33"/>
+      <c r="ACU15" s="33"/>
+      <c r="ACV15" s="33"/>
+      <c r="ACW15" s="33"/>
+      <c r="ACX15" s="33"/>
+      <c r="ACY15" s="33"/>
+      <c r="ACZ15" s="33"/>
+      <c r="ADA15" s="33"/>
+      <c r="ADB15" s="34"/>
+      <c r="ADC15" s="32"/>
+      <c r="ADD15" s="33"/>
+      <c r="ADE15" s="33"/>
+      <c r="ADF15" s="33"/>
+      <c r="ADG15" s="33"/>
+      <c r="ADH15" s="33"/>
+      <c r="ADI15" s="33"/>
+      <c r="ADJ15" s="33"/>
+      <c r="ADK15" s="33"/>
+      <c r="ADL15" s="33"/>
+      <c r="ADM15" s="33"/>
+      <c r="ADN15" s="33"/>
+      <c r="ADO15" s="33"/>
+      <c r="ADP15" s="33"/>
+      <c r="ADQ15" s="33"/>
+      <c r="ADR15" s="33"/>
+      <c r="ADS15" s="33"/>
+      <c r="ADT15" s="33"/>
+      <c r="ADU15" s="33"/>
+      <c r="ADV15" s="34"/>
+      <c r="ADW15" s="32"/>
+      <c r="ADX15" s="33"/>
+      <c r="ADY15" s="33"/>
+      <c r="ADZ15" s="33"/>
+      <c r="AEA15" s="33"/>
+      <c r="AEB15" s="33"/>
+      <c r="AEC15" s="33"/>
+      <c r="AED15" s="33"/>
+      <c r="AEE15" s="33"/>
+      <c r="AEF15" s="33"/>
+      <c r="AEG15" s="33"/>
+      <c r="AEH15" s="33"/>
+      <c r="AEI15" s="33"/>
+      <c r="AEJ15" s="33"/>
+      <c r="AEK15" s="33"/>
+      <c r="AEL15" s="33"/>
+      <c r="AEM15" s="33"/>
+      <c r="AEN15" s="33"/>
+      <c r="AEO15" s="33"/>
+      <c r="AEP15" s="34"/>
+      <c r="AEQ15" s="32"/>
+      <c r="AER15" s="33"/>
+      <c r="AES15" s="33"/>
+      <c r="AET15" s="33"/>
+      <c r="AEU15" s="33"/>
+      <c r="AEV15" s="33"/>
+      <c r="AEW15" s="33"/>
+      <c r="AEX15" s="33"/>
+      <c r="AEY15" s="33"/>
+      <c r="AEZ15" s="33"/>
+      <c r="AFA15" s="33"/>
+      <c r="AFB15" s="33"/>
+      <c r="AFC15" s="33"/>
+      <c r="AFD15" s="33"/>
+      <c r="AFE15" s="33"/>
+      <c r="AFF15" s="33"/>
+      <c r="AFG15" s="33"/>
+      <c r="AFH15" s="33"/>
+      <c r="AFI15" s="33"/>
+      <c r="AFJ15" s="34"/>
+      <c r="AFK15" s="32"/>
+      <c r="AFL15" s="33"/>
+      <c r="AFM15" s="33"/>
+      <c r="AFN15" s="33"/>
+      <c r="AFO15" s="33"/>
+      <c r="AFP15" s="33"/>
+      <c r="AFQ15" s="33"/>
+      <c r="AFR15" s="33"/>
+      <c r="AFS15" s="33"/>
+      <c r="AFT15" s="33"/>
+      <c r="AFU15" s="33"/>
+      <c r="AFV15" s="33"/>
+      <c r="AFW15" s="33"/>
+      <c r="AFX15" s="33"/>
+      <c r="AFY15" s="33"/>
+      <c r="AFZ15" s="33"/>
+      <c r="AGA15" s="33"/>
+      <c r="AGB15" s="33"/>
+      <c r="AGC15" s="33"/>
+      <c r="AGD15" s="34"/>
+      <c r="AGE15" s="32"/>
+      <c r="AGF15" s="33"/>
+      <c r="AGG15" s="33"/>
+      <c r="AGH15" s="33"/>
+      <c r="AGI15" s="33"/>
+      <c r="AGJ15" s="33"/>
+      <c r="AGK15" s="33"/>
+      <c r="AGL15" s="33"/>
+      <c r="AGM15" s="33"/>
+      <c r="AGN15" s="33"/>
+      <c r="AGO15" s="33"/>
+      <c r="AGP15" s="33"/>
+      <c r="AGQ15" s="33"/>
+      <c r="AGR15" s="33"/>
+      <c r="AGS15" s="33"/>
+      <c r="AGT15" s="33"/>
+      <c r="AGU15" s="33"/>
+      <c r="AGV15" s="33"/>
+      <c r="AGW15" s="33"/>
+      <c r="AGX15" s="34"/>
+      <c r="AGY15" s="32"/>
+      <c r="AGZ15" s="33"/>
+      <c r="AHA15" s="33"/>
+      <c r="AHB15" s="33"/>
+      <c r="AHC15" s="33"/>
+      <c r="AHD15" s="33"/>
+      <c r="AHE15" s="33"/>
+      <c r="AHF15" s="33"/>
+      <c r="AHG15" s="33"/>
+      <c r="AHH15" s="33"/>
+      <c r="AHI15" s="33"/>
+      <c r="AHJ15" s="33"/>
+      <c r="AHK15" s="33"/>
+      <c r="AHL15" s="33"/>
+      <c r="AHM15" s="33"/>
+      <c r="AHN15" s="33"/>
+      <c r="AHO15" s="33"/>
+      <c r="AHP15" s="33"/>
+      <c r="AHQ15" s="33"/>
+      <c r="AHR15" s="34"/>
+      <c r="AHS15" s="32"/>
+      <c r="AHT15" s="33"/>
+      <c r="AHU15" s="33"/>
+      <c r="AHV15" s="33"/>
+      <c r="AHW15" s="33"/>
+      <c r="AHX15" s="33"/>
+      <c r="AHY15" s="33"/>
+      <c r="AHZ15" s="33"/>
+      <c r="AIA15" s="33"/>
+      <c r="AIB15" s="33"/>
+      <c r="AIC15" s="33"/>
+      <c r="AID15" s="33"/>
+      <c r="AIE15" s="33"/>
+      <c r="AIF15" s="33"/>
+      <c r="AIG15" s="33"/>
+      <c r="AIH15" s="33"/>
+      <c r="AII15" s="33"/>
+      <c r="AIJ15" s="33"/>
+      <c r="AIK15" s="33"/>
+      <c r="AIL15" s="34"/>
+      <c r="AIM15" s="32"/>
+      <c r="AIN15" s="33"/>
+      <c r="AIO15" s="33"/>
+      <c r="AIP15" s="33"/>
+      <c r="AIQ15" s="33"/>
+      <c r="AIR15" s="33"/>
+      <c r="AIS15" s="33"/>
+      <c r="AIT15" s="33"/>
+      <c r="AIU15" s="33"/>
+      <c r="AIV15" s="33"/>
+      <c r="AIW15" s="33"/>
+      <c r="AIX15" s="33"/>
+      <c r="AIY15" s="33"/>
+      <c r="AIZ15" s="33"/>
+      <c r="AJA15" s="33"/>
+      <c r="AJB15" s="33"/>
+      <c r="AJC15" s="33"/>
+      <c r="AJD15" s="33"/>
+      <c r="AJE15" s="33"/>
+      <c r="AJF15" s="34"/>
+      <c r="AJG15" s="32"/>
+      <c r="AJH15" s="33"/>
+      <c r="AJI15" s="33"/>
+      <c r="AJJ15" s="33"/>
+      <c r="AJK15" s="33"/>
+      <c r="AJL15" s="33"/>
+      <c r="AJM15" s="33"/>
+      <c r="AJN15" s="33"/>
+      <c r="AJO15" s="33"/>
+      <c r="AJP15" s="33"/>
+      <c r="AJQ15" s="33"/>
+      <c r="AJR15" s="33"/>
+      <c r="AJS15" s="33"/>
+      <c r="AJT15" s="33"/>
+      <c r="AJU15" s="33"/>
+      <c r="AJV15" s="33"/>
+      <c r="AJW15" s="33"/>
+      <c r="AJX15" s="33"/>
+      <c r="AJY15" s="33"/>
+      <c r="AJZ15" s="34"/>
+      <c r="AKA15" s="32"/>
+      <c r="AKB15" s="33"/>
+      <c r="AKC15" s="33"/>
+      <c r="AKD15" s="33"/>
+      <c r="AKE15" s="33"/>
+      <c r="AKF15" s="33"/>
+      <c r="AKG15" s="33"/>
+      <c r="AKH15" s="33"/>
+      <c r="AKI15" s="33"/>
+      <c r="AKJ15" s="33"/>
+      <c r="AKK15" s="33"/>
+      <c r="AKL15" s="33"/>
+      <c r="AKM15" s="33"/>
+      <c r="AKN15" s="33"/>
+      <c r="AKO15" s="33"/>
+      <c r="AKP15" s="33"/>
+      <c r="AKQ15" s="33"/>
+      <c r="AKR15" s="33"/>
+      <c r="AKS15" s="33"/>
+      <c r="AKT15" s="34"/>
+      <c r="AKU15" s="32"/>
+      <c r="AKV15" s="33"/>
+      <c r="AKW15" s="33"/>
+      <c r="AKX15" s="33"/>
+      <c r="AKY15" s="33"/>
+      <c r="AKZ15" s="33"/>
+      <c r="ALA15" s="33"/>
+      <c r="ALB15" s="33"/>
+      <c r="ALC15" s="33"/>
+      <c r="ALD15" s="33"/>
+      <c r="ALE15" s="33"/>
+      <c r="ALF15" s="33"/>
+      <c r="ALG15" s="33"/>
+      <c r="ALH15" s="33"/>
+      <c r="ALI15" s="33"/>
+      <c r="ALJ15" s="33"/>
+      <c r="ALK15" s="33"/>
+      <c r="ALL15" s="33"/>
+      <c r="ALM15" s="33"/>
+      <c r="ALN15" s="34"/>
+      <c r="ALO15" s="32"/>
+      <c r="ALP15" s="33"/>
+      <c r="ALQ15" s="33"/>
+      <c r="ALR15" s="33"/>
+      <c r="ALS15" s="33"/>
+      <c r="ALT15" s="33"/>
+      <c r="ALU15" s="33"/>
+      <c r="ALV15" s="33"/>
+      <c r="ALW15" s="33"/>
+      <c r="ALX15" s="33"/>
+      <c r="ALY15" s="33"/>
+      <c r="ALZ15" s="33"/>
+      <c r="AMA15" s="33"/>
+      <c r="AMB15" s="33"/>
+      <c r="AMC15" s="33"/>
+      <c r="AMD15" s="33"/>
+      <c r="AME15" s="33"/>
+      <c r="AMF15" s="33"/>
+      <c r="AMG15" s="33"/>
+      <c r="AMH15" s="34"/>
+      <c r="AMI15" s="32"/>
+      <c r="AMJ15" s="33"/>
+      <c r="AMK15" s="33"/>
+      <c r="AML15" s="33"/>
+      <c r="AMM15" s="33"/>
+      <c r="AMN15" s="33"/>
+      <c r="AMO15" s="33"/>
+      <c r="AMP15" s="33"/>
+      <c r="AMQ15" s="33"/>
+      <c r="AMR15" s="33"/>
+      <c r="AMS15" s="33"/>
+      <c r="AMT15" s="33"/>
+      <c r="AMU15" s="33"/>
+      <c r="AMV15" s="33"/>
+      <c r="AMW15" s="33"/>
+      <c r="AMX15" s="33"/>
+      <c r="AMY15" s="33"/>
+      <c r="AMZ15" s="33"/>
+      <c r="ANA15" s="33"/>
+      <c r="ANB15" s="34"/>
+      <c r="ANC15" s="32"/>
+      <c r="AND15" s="33"/>
+      <c r="ANE15" s="33"/>
+      <c r="ANF15" s="33"/>
+      <c r="ANG15" s="33"/>
+      <c r="ANH15" s="33"/>
+      <c r="ANI15" s="33"/>
+      <c r="ANJ15" s="33"/>
+      <c r="ANK15" s="33"/>
+      <c r="ANL15" s="33"/>
+      <c r="ANM15" s="33"/>
+      <c r="ANN15" s="33"/>
+      <c r="ANO15" s="33"/>
+      <c r="ANP15" s="33"/>
+      <c r="ANQ15" s="33"/>
+      <c r="ANR15" s="33"/>
+      <c r="ANS15" s="33"/>
+      <c r="ANT15" s="33"/>
+      <c r="ANU15" s="33"/>
+      <c r="ANV15" s="34"/>
+      <c r="ANW15" s="32"/>
+      <c r="ANX15" s="33"/>
+      <c r="ANY15" s="33"/>
+      <c r="ANZ15" s="33"/>
+      <c r="AOA15" s="33"/>
+      <c r="AOB15" s="33"/>
+      <c r="AOC15" s="33"/>
+      <c r="AOD15" s="33"/>
+      <c r="AOE15" s="33"/>
+      <c r="AOF15" s="33"/>
+      <c r="AOG15" s="33"/>
+      <c r="AOH15" s="33"/>
+      <c r="AOI15" s="33"/>
+      <c r="AOJ15" s="33"/>
+      <c r="AOK15" s="33"/>
+      <c r="AOL15" s="33"/>
+      <c r="AOM15" s="33"/>
+      <c r="AON15" s="33"/>
+      <c r="AOO15" s="33"/>
+      <c r="AOP15" s="34"/>
     </row>
     <row r="16" spans="1:1082" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
@@ -9760,39 +11302,39 @@
       <c r="AOP16" s="7"/>
     </row>
     <row r="17" spans="2:155" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="52"/>
+      <c r="Q17" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="42"/>
-      <c r="Q17" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="53"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="58"/>
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
-      <c r="Z17" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA17" s="60"/>
-      <c r="AB17" s="60"/>
-      <c r="AC17" s="60"/>
-      <c r="AD17" s="60"/>
-      <c r="AE17" s="60"/>
-      <c r="AF17" s="61"/>
+      <c r="Z17" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="65"/>
+      <c r="AC17" s="65"/>
+      <c r="AD17" s="65"/>
+      <c r="AE17" s="65"/>
+      <c r="AF17" s="66"/>
       <c r="AQ17" s="6"/>
       <c r="AR17" s="6"/>
       <c r="AS17" s="6"/>
@@ -9911,42 +11453,42 @@
       <c r="D18" s="19">
         <v>0</v>
       </c>
-      <c r="E18" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="34"/>
+      <c r="E18" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="39"/>
       <c r="Q18" s="4">
         <v>0</v>
       </c>
-      <c r="R18" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="55"/>
+      <c r="R18" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="60"/>
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
       <c r="Z18" s="4">
         <v>0</v>
       </c>
-      <c r="AA18" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB18" s="54"/>
-      <c r="AC18" s="54"/>
-      <c r="AD18" s="54"/>
-      <c r="AE18" s="54"/>
-      <c r="AF18" s="55"/>
+      <c r="AA18" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="59"/>
+      <c r="AE18" s="59"/>
+      <c r="AF18" s="60"/>
       <c r="AQ18" s="6"/>
       <c r="AR18" s="6"/>
       <c r="AS18" s="6"/>
@@ -10065,42 +11607,42 @@
       <c r="D19" s="18">
         <v>0</v>
       </c>
-      <c r="E19" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="26"/>
+      <c r="E19" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="31"/>
       <c r="Q19" s="2">
         <v>1</v>
       </c>
-      <c r="R19" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="47"/>
+      <c r="R19" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="44"/>
       <c r="X19" s="11"/>
       <c r="Y19" s="11"/>
       <c r="Z19" s="2">
         <v>1</v>
       </c>
-      <c r="AA19" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB19" s="46"/>
-      <c r="AC19" s="46"/>
-      <c r="AD19" s="46"/>
-      <c r="AE19" s="46"/>
-      <c r="AF19" s="47"/>
+      <c r="AA19" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB19" s="43"/>
+      <c r="AC19" s="43"/>
+      <c r="AD19" s="43"/>
+      <c r="AE19" s="43"/>
+      <c r="AF19" s="44"/>
       <c r="AQ19" s="6"/>
       <c r="AR19" s="6"/>
       <c r="AS19" s="6"/>
@@ -10204,42 +11746,42 @@
     </row>
     <row r="20" spans="2:155" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D20" s="13"/>
-      <c r="E20" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="45"/>
+      <c r="E20" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="42"/>
       <c r="Q20" s="2">
         <v>2</v>
       </c>
-      <c r="R20" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="47"/>
+      <c r="R20" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="44"/>
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
       <c r="Z20" s="4">
         <v>2</v>
       </c>
-      <c r="AA20" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB20" s="46"/>
-      <c r="AC20" s="46"/>
-      <c r="AD20" s="46"/>
-      <c r="AE20" s="46"/>
-      <c r="AF20" s="47"/>
+      <c r="AA20" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB20" s="43"/>
+      <c r="AC20" s="43"/>
+      <c r="AD20" s="43"/>
+      <c r="AE20" s="43"/>
+      <c r="AF20" s="44"/>
       <c r="AQ20" s="6"/>
       <c r="AR20" s="6"/>
       <c r="AS20" s="6"/>
@@ -10345,42 +11887,42 @@
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
+      <c r="E21" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
       <c r="N21" s="14"/>
       <c r="Q21" s="2">
         <v>3</v>
       </c>
-      <c r="R21" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="47"/>
+      <c r="R21" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="44"/>
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
       <c r="Z21" s="2">
         <v>3</v>
       </c>
-      <c r="AA21" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB21" s="46"/>
-      <c r="AC21" s="46"/>
-      <c r="AD21" s="46"/>
-      <c r="AE21" s="46"/>
-      <c r="AF21" s="47"/>
+      <c r="AA21" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB21" s="43"/>
+      <c r="AC21" s="43"/>
+      <c r="AD21" s="43"/>
+      <c r="AE21" s="43"/>
+      <c r="AF21" s="44"/>
       <c r="AQ21" s="6"/>
       <c r="AR21" s="6"/>
       <c r="AS21" s="6"/>
@@ -10486,40 +12028,40 @@
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
       <c r="N22" s="15"/>
       <c r="Q22" s="2">
         <v>4</v>
       </c>
-      <c r="R22" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="47"/>
+      <c r="R22" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="44"/>
       <c r="X22" s="11"/>
       <c r="Y22" s="11"/>
       <c r="Z22" s="4">
         <v>4</v>
       </c>
-      <c r="AA22" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB22" s="46"/>
-      <c r="AC22" s="46"/>
-      <c r="AD22" s="46"/>
-      <c r="AE22" s="46"/>
-      <c r="AF22" s="47"/>
+      <c r="AA22" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB22" s="43"/>
+      <c r="AC22" s="43"/>
+      <c r="AD22" s="43"/>
+      <c r="AE22" s="43"/>
+      <c r="AF22" s="44"/>
       <c r="AQ22" s="6"/>
       <c r="AR22" s="6"/>
       <c r="AS22" s="6"/>
@@ -10638,27 +12180,27 @@
       <c r="Q23" s="2">
         <v>5</v>
       </c>
-      <c r="R23" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="47"/>
+      <c r="R23" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="44"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
       <c r="Z23" s="12">
         <v>5</v>
       </c>
-      <c r="AA23" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB23" s="57"/>
-      <c r="AC23" s="57"/>
-      <c r="AD23" s="57"/>
-      <c r="AE23" s="57"/>
-      <c r="AF23" s="58"/>
+      <c r="AA23" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB23" s="62"/>
+      <c r="AC23" s="62"/>
+      <c r="AD23" s="62"/>
+      <c r="AE23" s="62"/>
+      <c r="AF23" s="63"/>
       <c r="AQ23" s="6"/>
       <c r="AR23" s="6"/>
       <c r="AS23" s="6"/>
@@ -10777,14 +12319,14 @@
       <c r="Q24" s="2">
         <v>6</v>
       </c>
-      <c r="R24" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="46"/>
-      <c r="W24" s="47"/>
+      <c r="R24" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="44"/>
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
       <c r="Z24" s="11"/>
@@ -10906,14 +12448,14 @@
       <c r="Q25" s="2">
         <v>7</v>
       </c>
-      <c r="R25" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="47"/>
+      <c r="R25" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="44"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
       <c r="Z25" s="11"/>
@@ -11035,14 +12577,14 @@
       <c r="Q26" s="2">
         <v>8</v>
       </c>
-      <c r="R26" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="47"/>
+      <c r="R26" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="44"/>
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>
       <c r="Z26" s="11"/>
@@ -11164,14 +12706,14 @@
       <c r="Q27" s="2">
         <v>9</v>
       </c>
-      <c r="R27" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="S27" s="46"/>
-      <c r="T27" s="46"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="46"/>
-      <c r="W27" s="47"/>
+      <c r="R27" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="44"/>
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
       <c r="Z27" s="11"/>
@@ -11280,14 +12822,14 @@
       <c r="Q28" s="2">
         <v>10</v>
       </c>
-      <c r="R28" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="46"/>
-      <c r="W28" s="47"/>
+      <c r="R28" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="44"/>
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
       <c r="Z28" s="11"/>
@@ -11396,14 +12938,14 @@
       <c r="Q29" s="2">
         <v>11</v>
       </c>
-      <c r="R29" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="S29" s="46"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="47"/>
+      <c r="R29" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="44"/>
       <c r="X29" s="11"/>
       <c r="Y29" s="11"/>
       <c r="Z29" s="11"/>
@@ -11512,14 +13054,14 @@
       <c r="Q30" s="2">
         <v>12</v>
       </c>
-      <c r="R30" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="S30" s="46"/>
-      <c r="T30" s="46"/>
-      <c r="U30" s="46"/>
-      <c r="V30" s="46"/>
-      <c r="W30" s="47"/>
+      <c r="R30" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="44"/>
       <c r="X30" s="11"/>
       <c r="Y30" s="11"/>
       <c r="Z30" s="11"/>
@@ -11628,14 +13170,14 @@
       <c r="Q31" s="2">
         <v>13</v>
       </c>
-      <c r="R31" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="S31" s="46"/>
-      <c r="T31" s="46"/>
-      <c r="U31" s="46"/>
-      <c r="V31" s="46"/>
-      <c r="W31" s="47"/>
+      <c r="R31" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="44"/>
       <c r="X31" s="11"/>
       <c r="Y31" s="11"/>
       <c r="Z31" s="11"/>
@@ -11744,14 +13286,14 @@
       <c r="Q32" s="2">
         <v>14</v>
       </c>
-      <c r="R32" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="S32" s="46"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="46"/>
-      <c r="W32" s="47"/>
+      <c r="R32" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="44"/>
       <c r="AQ32" s="6"/>
       <c r="AR32" s="6"/>
       <c r="AS32" s="6"/>
@@ -11857,14 +13399,14 @@
       <c r="Q33" s="2">
         <v>15</v>
       </c>
-      <c r="R33" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="46"/>
-      <c r="W33" s="47"/>
+      <c r="R33" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="44"/>
       <c r="AQ33" s="6"/>
       <c r="AR33" s="6"/>
       <c r="AS33" s="6"/>
@@ -11970,14 +13512,14 @@
       <c r="Q34" s="12">
         <v>16</v>
       </c>
-      <c r="R34" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="S34" s="57"/>
-      <c r="T34" s="57"/>
-      <c r="U34" s="57"/>
-      <c r="V34" s="57"/>
-      <c r="W34" s="58"/>
+      <c r="R34" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="S34" s="62"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="62"/>
+      <c r="W34" s="63"/>
       <c r="AQ34" s="6"/>
       <c r="AR34" s="6"/>
       <c r="AS34" s="6"/>
@@ -32396,12 +33938,12 @@
       <c r="EL233" s="6"/>
     </row>
     <row r="1048576" spans="18:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R1048576" s="56"/>
-      <c r="S1048576" s="56"/>
-      <c r="T1048576" s="56"/>
-      <c r="U1048576" s="56"/>
-      <c r="V1048576" s="56"/>
-      <c r="W1048576" s="56"/>
+      <c r="R1048576" s="61"/>
+      <c r="S1048576" s="61"/>
+      <c r="T1048576" s="61"/>
+      <c r="U1048576" s="61"/>
+      <c r="V1048576" s="61"/>
+      <c r="W1048576" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="88">

--- a/外部データ/ステージデザイン/ステージデザイン_waterside.xlsx
+++ b/外部データ/ステージデザイン/ステージデザイン_waterside.xlsx
@@ -1077,13 +1077,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1095,35 +1116,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1149,46 +1158,37 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1494,8 +1494,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AOP1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="PH6" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="RY18" sqref="RY18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1506,31 +1509,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1082" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="47" t="s">
+      <c r="C1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="49"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="52"/>
     </row>
     <row r="2" spans="1:1082" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="45" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="16"/>
@@ -1695,7 +1698,7 @@
     </row>
     <row r="4" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
-      <c r="B4" s="54"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="16"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1864,7 +1867,7 @@
     </row>
     <row r="5" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
-      <c r="B5" s="54"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="16"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -2039,7 +2042,7 @@
     </row>
     <row r="6" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
-      <c r="B6" s="54"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="16"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -2298,7 +2301,7 @@
     </row>
     <row r="7" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
-      <c r="B7" s="54"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="16"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -2483,7 +2486,7 @@
     </row>
     <row r="8" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
-      <c r="B8" s="54"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="16"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="9" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
-      <c r="B9" s="54"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="16"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -2975,7 +2978,7 @@
     </row>
     <row r="10" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
-      <c r="B10" s="54"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="16"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -3356,7 +3359,7 @@
     </row>
     <row r="11" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
-      <c r="B11" s="54"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="16"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -3840,7 +3843,7 @@
     </row>
     <row r="12" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
-      <c r="B12" s="54"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="16"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -4621,7 +4624,7 @@
     </row>
     <row r="13" spans="1:1082" s="8" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="55"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="24">
         <v>0</v>
       </c>
@@ -9087,1136 +9090,1136 @@
       <c r="B15" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="33" t="s">
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="33"/>
-      <c r="AD15" s="33"/>
-      <c r="AE15" s="33"/>
-      <c r="AF15" s="33"/>
-      <c r="AG15" s="33"/>
-      <c r="AH15" s="33"/>
-      <c r="AI15" s="33"/>
-      <c r="AJ15" s="33"/>
-      <c r="AK15" s="33"/>
-      <c r="AL15" s="33"/>
-      <c r="AM15" s="33"/>
-      <c r="AN15" s="33"/>
-      <c r="AO15" s="33"/>
-      <c r="AP15" s="34"/>
-      <c r="AQ15" s="33" t="s">
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="40"/>
+      <c r="AG15" s="40"/>
+      <c r="AH15" s="40"/>
+      <c r="AI15" s="40"/>
+      <c r="AJ15" s="40"/>
+      <c r="AK15" s="40"/>
+      <c r="AL15" s="40"/>
+      <c r="AM15" s="40"/>
+      <c r="AN15" s="40"/>
+      <c r="AO15" s="40"/>
+      <c r="AP15" s="41"/>
+      <c r="AQ15" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="AR15" s="33"/>
-      <c r="AS15" s="33"/>
-      <c r="AT15" s="33"/>
-      <c r="AU15" s="33"/>
-      <c r="AV15" s="33"/>
-      <c r="AW15" s="33"/>
-      <c r="AX15" s="33"/>
-      <c r="AY15" s="33"/>
-      <c r="AZ15" s="33"/>
-      <c r="BA15" s="33"/>
-      <c r="BB15" s="33"/>
-      <c r="BC15" s="33"/>
-      <c r="BD15" s="33"/>
-      <c r="BE15" s="33"/>
-      <c r="BF15" s="33"/>
-      <c r="BG15" s="33"/>
-      <c r="BH15" s="33"/>
-      <c r="BI15" s="33"/>
-      <c r="BJ15" s="34"/>
-      <c r="BK15" s="33" t="s">
+      <c r="AR15" s="40"/>
+      <c r="AS15" s="40"/>
+      <c r="AT15" s="40"/>
+      <c r="AU15" s="40"/>
+      <c r="AV15" s="40"/>
+      <c r="AW15" s="40"/>
+      <c r="AX15" s="40"/>
+      <c r="AY15" s="40"/>
+      <c r="AZ15" s="40"/>
+      <c r="BA15" s="40"/>
+      <c r="BB15" s="40"/>
+      <c r="BC15" s="40"/>
+      <c r="BD15" s="40"/>
+      <c r="BE15" s="40"/>
+      <c r="BF15" s="40"/>
+      <c r="BG15" s="40"/>
+      <c r="BH15" s="40"/>
+      <c r="BI15" s="40"/>
+      <c r="BJ15" s="41"/>
+      <c r="BK15" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="BL15" s="33"/>
-      <c r="BM15" s="33"/>
-      <c r="BN15" s="33"/>
-      <c r="BO15" s="33"/>
-      <c r="BP15" s="33"/>
-      <c r="BQ15" s="33"/>
-      <c r="BR15" s="33"/>
-      <c r="BS15" s="33"/>
-      <c r="BT15" s="33"/>
-      <c r="BU15" s="33"/>
-      <c r="BV15" s="33"/>
-      <c r="BW15" s="33"/>
-      <c r="BX15" s="33"/>
-      <c r="BY15" s="33"/>
-      <c r="BZ15" s="33"/>
-      <c r="CA15" s="33"/>
-      <c r="CB15" s="33"/>
-      <c r="CC15" s="33"/>
-      <c r="CD15" s="34"/>
-      <c r="CE15" s="33" t="s">
+      <c r="BL15" s="40"/>
+      <c r="BM15" s="40"/>
+      <c r="BN15" s="40"/>
+      <c r="BO15" s="40"/>
+      <c r="BP15" s="40"/>
+      <c r="BQ15" s="40"/>
+      <c r="BR15" s="40"/>
+      <c r="BS15" s="40"/>
+      <c r="BT15" s="40"/>
+      <c r="BU15" s="40"/>
+      <c r="BV15" s="40"/>
+      <c r="BW15" s="40"/>
+      <c r="BX15" s="40"/>
+      <c r="BY15" s="40"/>
+      <c r="BZ15" s="40"/>
+      <c r="CA15" s="40"/>
+      <c r="CB15" s="40"/>
+      <c r="CC15" s="40"/>
+      <c r="CD15" s="41"/>
+      <c r="CE15" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="CF15" s="33"/>
-      <c r="CG15" s="33"/>
-      <c r="CH15" s="33"/>
-      <c r="CI15" s="33"/>
-      <c r="CJ15" s="33"/>
-      <c r="CK15" s="33"/>
-      <c r="CL15" s="33"/>
-      <c r="CM15" s="33"/>
-      <c r="CN15" s="33"/>
-      <c r="CO15" s="33"/>
-      <c r="CP15" s="33"/>
-      <c r="CQ15" s="33"/>
-      <c r="CR15" s="33"/>
-      <c r="CS15" s="33"/>
-      <c r="CT15" s="33"/>
-      <c r="CU15" s="33"/>
-      <c r="CV15" s="33"/>
-      <c r="CW15" s="33"/>
-      <c r="CX15" s="34"/>
-      <c r="CY15" s="33" t="s">
+      <c r="CF15" s="40"/>
+      <c r="CG15" s="40"/>
+      <c r="CH15" s="40"/>
+      <c r="CI15" s="40"/>
+      <c r="CJ15" s="40"/>
+      <c r="CK15" s="40"/>
+      <c r="CL15" s="40"/>
+      <c r="CM15" s="40"/>
+      <c r="CN15" s="40"/>
+      <c r="CO15" s="40"/>
+      <c r="CP15" s="40"/>
+      <c r="CQ15" s="40"/>
+      <c r="CR15" s="40"/>
+      <c r="CS15" s="40"/>
+      <c r="CT15" s="40"/>
+      <c r="CU15" s="40"/>
+      <c r="CV15" s="40"/>
+      <c r="CW15" s="40"/>
+      <c r="CX15" s="41"/>
+      <c r="CY15" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="CZ15" s="33"/>
-      <c r="DA15" s="33"/>
-      <c r="DB15" s="33"/>
-      <c r="DC15" s="33"/>
-      <c r="DD15" s="33"/>
-      <c r="DE15" s="33"/>
-      <c r="DF15" s="33"/>
-      <c r="DG15" s="33"/>
-      <c r="DH15" s="33"/>
-      <c r="DI15" s="33"/>
-      <c r="DJ15" s="33"/>
-      <c r="DK15" s="33"/>
-      <c r="DL15" s="33"/>
-      <c r="DM15" s="33"/>
-      <c r="DN15" s="33"/>
-      <c r="DO15" s="33"/>
-      <c r="DP15" s="33"/>
-      <c r="DQ15" s="33"/>
-      <c r="DR15" s="34"/>
-      <c r="DS15" s="33" t="s">
+      <c r="CZ15" s="40"/>
+      <c r="DA15" s="40"/>
+      <c r="DB15" s="40"/>
+      <c r="DC15" s="40"/>
+      <c r="DD15" s="40"/>
+      <c r="DE15" s="40"/>
+      <c r="DF15" s="40"/>
+      <c r="DG15" s="40"/>
+      <c r="DH15" s="40"/>
+      <c r="DI15" s="40"/>
+      <c r="DJ15" s="40"/>
+      <c r="DK15" s="40"/>
+      <c r="DL15" s="40"/>
+      <c r="DM15" s="40"/>
+      <c r="DN15" s="40"/>
+      <c r="DO15" s="40"/>
+      <c r="DP15" s="40"/>
+      <c r="DQ15" s="40"/>
+      <c r="DR15" s="41"/>
+      <c r="DS15" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="DT15" s="33"/>
-      <c r="DU15" s="33"/>
-      <c r="DV15" s="33"/>
-      <c r="DW15" s="33"/>
-      <c r="DX15" s="33"/>
-      <c r="DY15" s="33"/>
-      <c r="DZ15" s="33"/>
-      <c r="EA15" s="33"/>
-      <c r="EB15" s="33"/>
-      <c r="EC15" s="33"/>
-      <c r="ED15" s="33"/>
-      <c r="EE15" s="33"/>
-      <c r="EF15" s="33"/>
-      <c r="EG15" s="33"/>
-      <c r="EH15" s="33"/>
-      <c r="EI15" s="33"/>
-      <c r="EJ15" s="33"/>
-      <c r="EK15" s="33"/>
-      <c r="EL15" s="34"/>
-      <c r="EM15" s="33" t="s">
+      <c r="DT15" s="40"/>
+      <c r="DU15" s="40"/>
+      <c r="DV15" s="40"/>
+      <c r="DW15" s="40"/>
+      <c r="DX15" s="40"/>
+      <c r="DY15" s="40"/>
+      <c r="DZ15" s="40"/>
+      <c r="EA15" s="40"/>
+      <c r="EB15" s="40"/>
+      <c r="EC15" s="40"/>
+      <c r="ED15" s="40"/>
+      <c r="EE15" s="40"/>
+      <c r="EF15" s="40"/>
+      <c r="EG15" s="40"/>
+      <c r="EH15" s="40"/>
+      <c r="EI15" s="40"/>
+      <c r="EJ15" s="40"/>
+      <c r="EK15" s="40"/>
+      <c r="EL15" s="41"/>
+      <c r="EM15" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="EN15" s="33"/>
-      <c r="EO15" s="33"/>
-      <c r="EP15" s="33"/>
-      <c r="EQ15" s="33"/>
-      <c r="ER15" s="33"/>
-      <c r="ES15" s="33"/>
-      <c r="ET15" s="33"/>
-      <c r="EU15" s="33"/>
-      <c r="EV15" s="33"/>
-      <c r="EW15" s="33"/>
-      <c r="EX15" s="33"/>
-      <c r="EY15" s="33"/>
-      <c r="EZ15" s="33"/>
-      <c r="FA15" s="33"/>
-      <c r="FB15" s="33"/>
-      <c r="FC15" s="33"/>
-      <c r="FD15" s="33"/>
-      <c r="FE15" s="33"/>
-      <c r="FF15" s="34"/>
-      <c r="FG15" s="33" t="s">
+      <c r="EN15" s="40"/>
+      <c r="EO15" s="40"/>
+      <c r="EP15" s="40"/>
+      <c r="EQ15" s="40"/>
+      <c r="ER15" s="40"/>
+      <c r="ES15" s="40"/>
+      <c r="ET15" s="40"/>
+      <c r="EU15" s="40"/>
+      <c r="EV15" s="40"/>
+      <c r="EW15" s="40"/>
+      <c r="EX15" s="40"/>
+      <c r="EY15" s="40"/>
+      <c r="EZ15" s="40"/>
+      <c r="FA15" s="40"/>
+      <c r="FB15" s="40"/>
+      <c r="FC15" s="40"/>
+      <c r="FD15" s="40"/>
+      <c r="FE15" s="40"/>
+      <c r="FF15" s="41"/>
+      <c r="FG15" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="FH15" s="33"/>
-      <c r="FI15" s="33"/>
-      <c r="FJ15" s="33"/>
-      <c r="FK15" s="33"/>
-      <c r="FL15" s="33"/>
-      <c r="FM15" s="33"/>
-      <c r="FN15" s="33"/>
-      <c r="FO15" s="33"/>
-      <c r="FP15" s="33"/>
-      <c r="FQ15" s="33"/>
-      <c r="FR15" s="33"/>
-      <c r="FS15" s="33"/>
-      <c r="FT15" s="33"/>
-      <c r="FU15" s="33"/>
-      <c r="FV15" s="33"/>
-      <c r="FW15" s="33"/>
-      <c r="FX15" s="33"/>
-      <c r="FY15" s="33"/>
-      <c r="FZ15" s="34"/>
-      <c r="GA15" s="33" t="s">
+      <c r="FH15" s="40"/>
+      <c r="FI15" s="40"/>
+      <c r="FJ15" s="40"/>
+      <c r="FK15" s="40"/>
+      <c r="FL15" s="40"/>
+      <c r="FM15" s="40"/>
+      <c r="FN15" s="40"/>
+      <c r="FO15" s="40"/>
+      <c r="FP15" s="40"/>
+      <c r="FQ15" s="40"/>
+      <c r="FR15" s="40"/>
+      <c r="FS15" s="40"/>
+      <c r="FT15" s="40"/>
+      <c r="FU15" s="40"/>
+      <c r="FV15" s="40"/>
+      <c r="FW15" s="40"/>
+      <c r="FX15" s="40"/>
+      <c r="FY15" s="40"/>
+      <c r="FZ15" s="41"/>
+      <c r="GA15" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="GB15" s="33"/>
-      <c r="GC15" s="33"/>
-      <c r="GD15" s="33"/>
-      <c r="GE15" s="33"/>
-      <c r="GF15" s="33"/>
-      <c r="GG15" s="33"/>
-      <c r="GH15" s="33"/>
-      <c r="GI15" s="33"/>
-      <c r="GJ15" s="33"/>
-      <c r="GK15" s="33"/>
-      <c r="GL15" s="33"/>
-      <c r="GM15" s="33"/>
-      <c r="GN15" s="33"/>
-      <c r="GO15" s="33"/>
-      <c r="GP15" s="33"/>
-      <c r="GQ15" s="33"/>
-      <c r="GR15" s="33"/>
-      <c r="GS15" s="33"/>
-      <c r="GT15" s="34"/>
-      <c r="GU15" s="33" t="s">
+      <c r="GB15" s="40"/>
+      <c r="GC15" s="40"/>
+      <c r="GD15" s="40"/>
+      <c r="GE15" s="40"/>
+      <c r="GF15" s="40"/>
+      <c r="GG15" s="40"/>
+      <c r="GH15" s="40"/>
+      <c r="GI15" s="40"/>
+      <c r="GJ15" s="40"/>
+      <c r="GK15" s="40"/>
+      <c r="GL15" s="40"/>
+      <c r="GM15" s="40"/>
+      <c r="GN15" s="40"/>
+      <c r="GO15" s="40"/>
+      <c r="GP15" s="40"/>
+      <c r="GQ15" s="40"/>
+      <c r="GR15" s="40"/>
+      <c r="GS15" s="40"/>
+      <c r="GT15" s="41"/>
+      <c r="GU15" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="GV15" s="33"/>
-      <c r="GW15" s="33"/>
-      <c r="GX15" s="33"/>
-      <c r="GY15" s="33"/>
-      <c r="GZ15" s="33"/>
-      <c r="HA15" s="33"/>
-      <c r="HB15" s="33"/>
-      <c r="HC15" s="33"/>
-      <c r="HD15" s="33"/>
-      <c r="HE15" s="33"/>
-      <c r="HF15" s="33"/>
-      <c r="HG15" s="33"/>
-      <c r="HH15" s="33"/>
-      <c r="HI15" s="33"/>
-      <c r="HJ15" s="33"/>
-      <c r="HK15" s="33"/>
-      <c r="HL15" s="33"/>
-      <c r="HM15" s="33"/>
-      <c r="HN15" s="34"/>
-      <c r="HO15" s="33" t="s">
+      <c r="GV15" s="40"/>
+      <c r="GW15" s="40"/>
+      <c r="GX15" s="40"/>
+      <c r="GY15" s="40"/>
+      <c r="GZ15" s="40"/>
+      <c r="HA15" s="40"/>
+      <c r="HB15" s="40"/>
+      <c r="HC15" s="40"/>
+      <c r="HD15" s="40"/>
+      <c r="HE15" s="40"/>
+      <c r="HF15" s="40"/>
+      <c r="HG15" s="40"/>
+      <c r="HH15" s="40"/>
+      <c r="HI15" s="40"/>
+      <c r="HJ15" s="40"/>
+      <c r="HK15" s="40"/>
+      <c r="HL15" s="40"/>
+      <c r="HM15" s="40"/>
+      <c r="HN15" s="41"/>
+      <c r="HO15" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="HP15" s="33"/>
-      <c r="HQ15" s="33"/>
-      <c r="HR15" s="33"/>
-      <c r="HS15" s="33"/>
-      <c r="HT15" s="33"/>
-      <c r="HU15" s="33"/>
-      <c r="HV15" s="33"/>
-      <c r="HW15" s="33"/>
-      <c r="HX15" s="33"/>
-      <c r="HY15" s="33"/>
-      <c r="HZ15" s="33"/>
-      <c r="IA15" s="33"/>
-      <c r="IB15" s="33"/>
-      <c r="IC15" s="33"/>
-      <c r="ID15" s="33"/>
-      <c r="IE15" s="33"/>
-      <c r="IF15" s="33"/>
-      <c r="IG15" s="33"/>
-      <c r="IH15" s="34"/>
-      <c r="II15" s="33" t="s">
+      <c r="HP15" s="40"/>
+      <c r="HQ15" s="40"/>
+      <c r="HR15" s="40"/>
+      <c r="HS15" s="40"/>
+      <c r="HT15" s="40"/>
+      <c r="HU15" s="40"/>
+      <c r="HV15" s="40"/>
+      <c r="HW15" s="40"/>
+      <c r="HX15" s="40"/>
+      <c r="HY15" s="40"/>
+      <c r="HZ15" s="40"/>
+      <c r="IA15" s="40"/>
+      <c r="IB15" s="40"/>
+      <c r="IC15" s="40"/>
+      <c r="ID15" s="40"/>
+      <c r="IE15" s="40"/>
+      <c r="IF15" s="40"/>
+      <c r="IG15" s="40"/>
+      <c r="IH15" s="41"/>
+      <c r="II15" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="IJ15" s="33"/>
-      <c r="IK15" s="33"/>
-      <c r="IL15" s="33"/>
-      <c r="IM15" s="33"/>
-      <c r="IN15" s="33"/>
-      <c r="IO15" s="33"/>
-      <c r="IP15" s="33"/>
-      <c r="IQ15" s="33"/>
-      <c r="IR15" s="33"/>
-      <c r="IS15" s="33"/>
-      <c r="IT15" s="33"/>
-      <c r="IU15" s="33"/>
-      <c r="IV15" s="33"/>
-      <c r="IW15" s="33"/>
-      <c r="IX15" s="33"/>
-      <c r="IY15" s="33"/>
-      <c r="IZ15" s="33"/>
-      <c r="JA15" s="33"/>
-      <c r="JB15" s="34"/>
-      <c r="JC15" s="33" t="s">
+      <c r="IJ15" s="40"/>
+      <c r="IK15" s="40"/>
+      <c r="IL15" s="40"/>
+      <c r="IM15" s="40"/>
+      <c r="IN15" s="40"/>
+      <c r="IO15" s="40"/>
+      <c r="IP15" s="40"/>
+      <c r="IQ15" s="40"/>
+      <c r="IR15" s="40"/>
+      <c r="IS15" s="40"/>
+      <c r="IT15" s="40"/>
+      <c r="IU15" s="40"/>
+      <c r="IV15" s="40"/>
+      <c r="IW15" s="40"/>
+      <c r="IX15" s="40"/>
+      <c r="IY15" s="40"/>
+      <c r="IZ15" s="40"/>
+      <c r="JA15" s="40"/>
+      <c r="JB15" s="41"/>
+      <c r="JC15" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="JD15" s="33"/>
-      <c r="JE15" s="33"/>
-      <c r="JF15" s="33"/>
-      <c r="JG15" s="33"/>
-      <c r="JH15" s="33"/>
-      <c r="JI15" s="33"/>
-      <c r="JJ15" s="33"/>
-      <c r="JK15" s="33"/>
-      <c r="JL15" s="33"/>
-      <c r="JM15" s="33"/>
-      <c r="JN15" s="33"/>
-      <c r="JO15" s="33"/>
-      <c r="JP15" s="33"/>
-      <c r="JQ15" s="33"/>
-      <c r="JR15" s="33"/>
-      <c r="JS15" s="33"/>
-      <c r="JT15" s="33"/>
-      <c r="JU15" s="33"/>
-      <c r="JV15" s="34"/>
-      <c r="JW15" s="33" t="s">
+      <c r="JD15" s="40"/>
+      <c r="JE15" s="40"/>
+      <c r="JF15" s="40"/>
+      <c r="JG15" s="40"/>
+      <c r="JH15" s="40"/>
+      <c r="JI15" s="40"/>
+      <c r="JJ15" s="40"/>
+      <c r="JK15" s="40"/>
+      <c r="JL15" s="40"/>
+      <c r="JM15" s="40"/>
+      <c r="JN15" s="40"/>
+      <c r="JO15" s="40"/>
+      <c r="JP15" s="40"/>
+      <c r="JQ15" s="40"/>
+      <c r="JR15" s="40"/>
+      <c r="JS15" s="40"/>
+      <c r="JT15" s="40"/>
+      <c r="JU15" s="40"/>
+      <c r="JV15" s="41"/>
+      <c r="JW15" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="JX15" s="33"/>
-      <c r="JY15" s="33"/>
-      <c r="JZ15" s="33"/>
-      <c r="KA15" s="33"/>
-      <c r="KB15" s="33"/>
-      <c r="KC15" s="33"/>
-      <c r="KD15" s="33"/>
-      <c r="KE15" s="33"/>
-      <c r="KF15" s="33"/>
-      <c r="KG15" s="33"/>
-      <c r="KH15" s="33"/>
-      <c r="KI15" s="33"/>
-      <c r="KJ15" s="33"/>
-      <c r="KK15" s="33"/>
-      <c r="KL15" s="33"/>
-      <c r="KM15" s="33"/>
-      <c r="KN15" s="33"/>
-      <c r="KO15" s="33"/>
-      <c r="KP15" s="34"/>
-      <c r="KQ15" s="33" t="s">
+      <c r="JX15" s="40"/>
+      <c r="JY15" s="40"/>
+      <c r="JZ15" s="40"/>
+      <c r="KA15" s="40"/>
+      <c r="KB15" s="40"/>
+      <c r="KC15" s="40"/>
+      <c r="KD15" s="40"/>
+      <c r="KE15" s="40"/>
+      <c r="KF15" s="40"/>
+      <c r="KG15" s="40"/>
+      <c r="KH15" s="40"/>
+      <c r="KI15" s="40"/>
+      <c r="KJ15" s="40"/>
+      <c r="KK15" s="40"/>
+      <c r="KL15" s="40"/>
+      <c r="KM15" s="40"/>
+      <c r="KN15" s="40"/>
+      <c r="KO15" s="40"/>
+      <c r="KP15" s="41"/>
+      <c r="KQ15" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="KR15" s="33"/>
-      <c r="KS15" s="33"/>
-      <c r="KT15" s="33"/>
-      <c r="KU15" s="33"/>
-      <c r="KV15" s="33"/>
-      <c r="KW15" s="33"/>
-      <c r="KX15" s="33"/>
-      <c r="KY15" s="33"/>
-      <c r="KZ15" s="33"/>
-      <c r="LA15" s="33"/>
-      <c r="LB15" s="33"/>
-      <c r="LC15" s="33"/>
-      <c r="LD15" s="33"/>
-      <c r="LE15" s="33"/>
-      <c r="LF15" s="33"/>
-      <c r="LG15" s="33"/>
-      <c r="LH15" s="33"/>
-      <c r="LI15" s="33"/>
-      <c r="LJ15" s="34"/>
-      <c r="LK15" s="33" t="s">
+      <c r="KR15" s="40"/>
+      <c r="KS15" s="40"/>
+      <c r="KT15" s="40"/>
+      <c r="KU15" s="40"/>
+      <c r="KV15" s="40"/>
+      <c r="KW15" s="40"/>
+      <c r="KX15" s="40"/>
+      <c r="KY15" s="40"/>
+      <c r="KZ15" s="40"/>
+      <c r="LA15" s="40"/>
+      <c r="LB15" s="40"/>
+      <c r="LC15" s="40"/>
+      <c r="LD15" s="40"/>
+      <c r="LE15" s="40"/>
+      <c r="LF15" s="40"/>
+      <c r="LG15" s="40"/>
+      <c r="LH15" s="40"/>
+      <c r="LI15" s="40"/>
+      <c r="LJ15" s="41"/>
+      <c r="LK15" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="LL15" s="33"/>
-      <c r="LM15" s="33"/>
-      <c r="LN15" s="33"/>
-      <c r="LO15" s="33"/>
-      <c r="LP15" s="33"/>
-      <c r="LQ15" s="33"/>
-      <c r="LR15" s="33"/>
-      <c r="LS15" s="33"/>
-      <c r="LT15" s="33"/>
-      <c r="LU15" s="33"/>
-      <c r="LV15" s="33"/>
-      <c r="LW15" s="33"/>
-      <c r="LX15" s="33"/>
-      <c r="LY15" s="33"/>
-      <c r="LZ15" s="33"/>
-      <c r="MA15" s="33"/>
-      <c r="MB15" s="33"/>
-      <c r="MC15" s="33"/>
-      <c r="MD15" s="34"/>
-      <c r="ME15" s="33" t="s">
+      <c r="LL15" s="40"/>
+      <c r="LM15" s="40"/>
+      <c r="LN15" s="40"/>
+      <c r="LO15" s="40"/>
+      <c r="LP15" s="40"/>
+      <c r="LQ15" s="40"/>
+      <c r="LR15" s="40"/>
+      <c r="LS15" s="40"/>
+      <c r="LT15" s="40"/>
+      <c r="LU15" s="40"/>
+      <c r="LV15" s="40"/>
+      <c r="LW15" s="40"/>
+      <c r="LX15" s="40"/>
+      <c r="LY15" s="40"/>
+      <c r="LZ15" s="40"/>
+      <c r="MA15" s="40"/>
+      <c r="MB15" s="40"/>
+      <c r="MC15" s="40"/>
+      <c r="MD15" s="41"/>
+      <c r="ME15" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="MF15" s="33"/>
-      <c r="MG15" s="33"/>
-      <c r="MH15" s="33"/>
-      <c r="MI15" s="33"/>
-      <c r="MJ15" s="33"/>
-      <c r="MK15" s="33"/>
-      <c r="ML15" s="33"/>
-      <c r="MM15" s="33"/>
-      <c r="MN15" s="33"/>
-      <c r="MO15" s="33"/>
-      <c r="MP15" s="33"/>
-      <c r="MQ15" s="33"/>
-      <c r="MR15" s="33"/>
-      <c r="MS15" s="33"/>
-      <c r="MT15" s="33"/>
-      <c r="MU15" s="33"/>
-      <c r="MV15" s="33"/>
-      <c r="MW15" s="33"/>
-      <c r="MX15" s="34"/>
-      <c r="MY15" s="33" t="s">
+      <c r="MF15" s="40"/>
+      <c r="MG15" s="40"/>
+      <c r="MH15" s="40"/>
+      <c r="MI15" s="40"/>
+      <c r="MJ15" s="40"/>
+      <c r="MK15" s="40"/>
+      <c r="ML15" s="40"/>
+      <c r="MM15" s="40"/>
+      <c r="MN15" s="40"/>
+      <c r="MO15" s="40"/>
+      <c r="MP15" s="40"/>
+      <c r="MQ15" s="40"/>
+      <c r="MR15" s="40"/>
+      <c r="MS15" s="40"/>
+      <c r="MT15" s="40"/>
+      <c r="MU15" s="40"/>
+      <c r="MV15" s="40"/>
+      <c r="MW15" s="40"/>
+      <c r="MX15" s="41"/>
+      <c r="MY15" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="MZ15" s="33"/>
-      <c r="NA15" s="33"/>
-      <c r="NB15" s="33"/>
-      <c r="NC15" s="33"/>
-      <c r="ND15" s="33"/>
-      <c r="NE15" s="33"/>
-      <c r="NF15" s="33"/>
-      <c r="NG15" s="33"/>
-      <c r="NH15" s="33"/>
-      <c r="NI15" s="33"/>
-      <c r="NJ15" s="33"/>
-      <c r="NK15" s="33"/>
-      <c r="NL15" s="33"/>
-      <c r="NM15" s="33"/>
-      <c r="NN15" s="33"/>
-      <c r="NO15" s="33"/>
-      <c r="NP15" s="33"/>
-      <c r="NQ15" s="33"/>
-      <c r="NR15" s="34"/>
-      <c r="NS15" s="33" t="s">
+      <c r="MZ15" s="40"/>
+      <c r="NA15" s="40"/>
+      <c r="NB15" s="40"/>
+      <c r="NC15" s="40"/>
+      <c r="ND15" s="40"/>
+      <c r="NE15" s="40"/>
+      <c r="NF15" s="40"/>
+      <c r="NG15" s="40"/>
+      <c r="NH15" s="40"/>
+      <c r="NI15" s="40"/>
+      <c r="NJ15" s="40"/>
+      <c r="NK15" s="40"/>
+      <c r="NL15" s="40"/>
+      <c r="NM15" s="40"/>
+      <c r="NN15" s="40"/>
+      <c r="NO15" s="40"/>
+      <c r="NP15" s="40"/>
+      <c r="NQ15" s="40"/>
+      <c r="NR15" s="41"/>
+      <c r="NS15" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="NT15" s="33"/>
-      <c r="NU15" s="33"/>
-      <c r="NV15" s="33"/>
-      <c r="NW15" s="33"/>
-      <c r="NX15" s="33"/>
-      <c r="NY15" s="33"/>
-      <c r="NZ15" s="33"/>
-      <c r="OA15" s="33"/>
-      <c r="OB15" s="33"/>
-      <c r="OC15" s="33"/>
-      <c r="OD15" s="33"/>
-      <c r="OE15" s="33"/>
-      <c r="OF15" s="33"/>
-      <c r="OG15" s="33"/>
-      <c r="OH15" s="33"/>
-      <c r="OI15" s="33"/>
-      <c r="OJ15" s="33"/>
-      <c r="OK15" s="33"/>
-      <c r="OL15" s="34"/>
-      <c r="OM15" s="33" t="s">
+      <c r="NT15" s="40"/>
+      <c r="NU15" s="40"/>
+      <c r="NV15" s="40"/>
+      <c r="NW15" s="40"/>
+      <c r="NX15" s="40"/>
+      <c r="NY15" s="40"/>
+      <c r="NZ15" s="40"/>
+      <c r="OA15" s="40"/>
+      <c r="OB15" s="40"/>
+      <c r="OC15" s="40"/>
+      <c r="OD15" s="40"/>
+      <c r="OE15" s="40"/>
+      <c r="OF15" s="40"/>
+      <c r="OG15" s="40"/>
+      <c r="OH15" s="40"/>
+      <c r="OI15" s="40"/>
+      <c r="OJ15" s="40"/>
+      <c r="OK15" s="40"/>
+      <c r="OL15" s="41"/>
+      <c r="OM15" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="ON15" s="33"/>
-      <c r="OO15" s="33"/>
-      <c r="OP15" s="33"/>
-      <c r="OQ15" s="33"/>
-      <c r="OR15" s="33"/>
-      <c r="OS15" s="33"/>
-      <c r="OT15" s="33"/>
-      <c r="OU15" s="33"/>
-      <c r="OV15" s="33"/>
-      <c r="OW15" s="33"/>
-      <c r="OX15" s="33"/>
-      <c r="OY15" s="33"/>
-      <c r="OZ15" s="33"/>
-      <c r="PA15" s="33"/>
-      <c r="PB15" s="33"/>
-      <c r="PC15" s="33"/>
-      <c r="PD15" s="33"/>
-      <c r="PE15" s="33"/>
-      <c r="PF15" s="34"/>
-      <c r="PG15" s="33" t="s">
+      <c r="ON15" s="40"/>
+      <c r="OO15" s="40"/>
+      <c r="OP15" s="40"/>
+      <c r="OQ15" s="40"/>
+      <c r="OR15" s="40"/>
+      <c r="OS15" s="40"/>
+      <c r="OT15" s="40"/>
+      <c r="OU15" s="40"/>
+      <c r="OV15" s="40"/>
+      <c r="OW15" s="40"/>
+      <c r="OX15" s="40"/>
+      <c r="OY15" s="40"/>
+      <c r="OZ15" s="40"/>
+      <c r="PA15" s="40"/>
+      <c r="PB15" s="40"/>
+      <c r="PC15" s="40"/>
+      <c r="PD15" s="40"/>
+      <c r="PE15" s="40"/>
+      <c r="PF15" s="41"/>
+      <c r="PG15" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="PH15" s="33"/>
-      <c r="PI15" s="33"/>
-      <c r="PJ15" s="33"/>
-      <c r="PK15" s="33"/>
-      <c r="PL15" s="33"/>
-      <c r="PM15" s="33"/>
-      <c r="PN15" s="33"/>
-      <c r="PO15" s="33"/>
-      <c r="PP15" s="33"/>
-      <c r="PQ15" s="33"/>
-      <c r="PR15" s="33"/>
-      <c r="PS15" s="33"/>
-      <c r="PT15" s="33"/>
-      <c r="PU15" s="33"/>
-      <c r="PV15" s="33"/>
-      <c r="PW15" s="33"/>
-      <c r="PX15" s="33"/>
-      <c r="PY15" s="33"/>
-      <c r="PZ15" s="34"/>
-      <c r="QA15" s="33" t="s">
+      <c r="PH15" s="40"/>
+      <c r="PI15" s="40"/>
+      <c r="PJ15" s="40"/>
+      <c r="PK15" s="40"/>
+      <c r="PL15" s="40"/>
+      <c r="PM15" s="40"/>
+      <c r="PN15" s="40"/>
+      <c r="PO15" s="40"/>
+      <c r="PP15" s="40"/>
+      <c r="PQ15" s="40"/>
+      <c r="PR15" s="40"/>
+      <c r="PS15" s="40"/>
+      <c r="PT15" s="40"/>
+      <c r="PU15" s="40"/>
+      <c r="PV15" s="40"/>
+      <c r="PW15" s="40"/>
+      <c r="PX15" s="40"/>
+      <c r="PY15" s="40"/>
+      <c r="PZ15" s="41"/>
+      <c r="QA15" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="QB15" s="33"/>
-      <c r="QC15" s="33"/>
-      <c r="QD15" s="33"/>
-      <c r="QE15" s="33"/>
-      <c r="QF15" s="33"/>
-      <c r="QG15" s="33"/>
-      <c r="QH15" s="33"/>
-      <c r="QI15" s="33"/>
-      <c r="QJ15" s="33"/>
-      <c r="QK15" s="33"/>
-      <c r="QL15" s="33"/>
-      <c r="QM15" s="33"/>
-      <c r="QN15" s="33"/>
-      <c r="QO15" s="33"/>
-      <c r="QP15" s="33"/>
-      <c r="QQ15" s="33"/>
-      <c r="QR15" s="33"/>
-      <c r="QS15" s="33"/>
-      <c r="QT15" s="34"/>
-      <c r="QU15" s="33" t="s">
+      <c r="QB15" s="40"/>
+      <c r="QC15" s="40"/>
+      <c r="QD15" s="40"/>
+      <c r="QE15" s="40"/>
+      <c r="QF15" s="40"/>
+      <c r="QG15" s="40"/>
+      <c r="QH15" s="40"/>
+      <c r="QI15" s="40"/>
+      <c r="QJ15" s="40"/>
+      <c r="QK15" s="40"/>
+      <c r="QL15" s="40"/>
+      <c r="QM15" s="40"/>
+      <c r="QN15" s="40"/>
+      <c r="QO15" s="40"/>
+      <c r="QP15" s="40"/>
+      <c r="QQ15" s="40"/>
+      <c r="QR15" s="40"/>
+      <c r="QS15" s="40"/>
+      <c r="QT15" s="41"/>
+      <c r="QU15" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="QV15" s="33"/>
-      <c r="QW15" s="33"/>
-      <c r="QX15" s="33"/>
-      <c r="QY15" s="33"/>
-      <c r="QZ15" s="33"/>
-      <c r="RA15" s="33"/>
-      <c r="RB15" s="33"/>
-      <c r="RC15" s="33"/>
-      <c r="RD15" s="33"/>
-      <c r="RE15" s="33"/>
-      <c r="RF15" s="33"/>
-      <c r="RG15" s="33"/>
-      <c r="RH15" s="33"/>
-      <c r="RI15" s="33"/>
-      <c r="RJ15" s="33"/>
-      <c r="RK15" s="33"/>
-      <c r="RL15" s="33"/>
-      <c r="RM15" s="33"/>
-      <c r="RN15" s="34"/>
-      <c r="RO15" s="33" t="s">
+      <c r="QV15" s="40"/>
+      <c r="QW15" s="40"/>
+      <c r="QX15" s="40"/>
+      <c r="QY15" s="40"/>
+      <c r="QZ15" s="40"/>
+      <c r="RA15" s="40"/>
+      <c r="RB15" s="40"/>
+      <c r="RC15" s="40"/>
+      <c r="RD15" s="40"/>
+      <c r="RE15" s="40"/>
+      <c r="RF15" s="40"/>
+      <c r="RG15" s="40"/>
+      <c r="RH15" s="40"/>
+      <c r="RI15" s="40"/>
+      <c r="RJ15" s="40"/>
+      <c r="RK15" s="40"/>
+      <c r="RL15" s="40"/>
+      <c r="RM15" s="40"/>
+      <c r="RN15" s="41"/>
+      <c r="RO15" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="RP15" s="33"/>
-      <c r="RQ15" s="33"/>
-      <c r="RR15" s="33"/>
-      <c r="RS15" s="33"/>
-      <c r="RT15" s="33"/>
-      <c r="RU15" s="33"/>
-      <c r="RV15" s="33"/>
-      <c r="RW15" s="33"/>
-      <c r="RX15" s="33"/>
-      <c r="RY15" s="33"/>
-      <c r="RZ15" s="33"/>
-      <c r="SA15" s="33"/>
-      <c r="SB15" s="33"/>
-      <c r="SC15" s="33"/>
-      <c r="SD15" s="33"/>
-      <c r="SE15" s="33"/>
-      <c r="SF15" s="33"/>
-      <c r="SG15" s="33"/>
-      <c r="SH15" s="34"/>
-      <c r="SI15" s="32"/>
-      <c r="SJ15" s="33"/>
-      <c r="SK15" s="33"/>
-      <c r="SL15" s="33"/>
-      <c r="SM15" s="33"/>
-      <c r="SN15" s="33"/>
-      <c r="SO15" s="33"/>
-      <c r="SP15" s="33"/>
-      <c r="SQ15" s="33"/>
-      <c r="SR15" s="33"/>
-      <c r="SS15" s="33"/>
-      <c r="ST15" s="33"/>
-      <c r="SU15" s="33"/>
-      <c r="SV15" s="33"/>
-      <c r="SW15" s="33"/>
-      <c r="SX15" s="33"/>
-      <c r="SY15" s="33"/>
-      <c r="SZ15" s="33"/>
-      <c r="TA15" s="33"/>
-      <c r="TB15" s="34"/>
-      <c r="TC15" s="32"/>
-      <c r="TD15" s="33"/>
-      <c r="TE15" s="33"/>
-      <c r="TF15" s="33"/>
-      <c r="TG15" s="33"/>
-      <c r="TH15" s="33"/>
-      <c r="TI15" s="33"/>
-      <c r="TJ15" s="33"/>
-      <c r="TK15" s="33"/>
-      <c r="TL15" s="33"/>
-      <c r="TM15" s="33"/>
-      <c r="TN15" s="33"/>
-      <c r="TO15" s="33"/>
-      <c r="TP15" s="33"/>
-      <c r="TQ15" s="33"/>
-      <c r="TR15" s="33"/>
-      <c r="TS15" s="33"/>
-      <c r="TT15" s="33"/>
-      <c r="TU15" s="33"/>
-      <c r="TV15" s="34"/>
-      <c r="TW15" s="32"/>
-      <c r="TX15" s="33"/>
-      <c r="TY15" s="33"/>
-      <c r="TZ15" s="33"/>
-      <c r="UA15" s="33"/>
-      <c r="UB15" s="33"/>
-      <c r="UC15" s="33"/>
-      <c r="UD15" s="33"/>
-      <c r="UE15" s="33"/>
-      <c r="UF15" s="33"/>
-      <c r="UG15" s="33"/>
-      <c r="UH15" s="33"/>
-      <c r="UI15" s="33"/>
-      <c r="UJ15" s="33"/>
-      <c r="UK15" s="33"/>
-      <c r="UL15" s="33"/>
-      <c r="UM15" s="33"/>
-      <c r="UN15" s="33"/>
-      <c r="UO15" s="33"/>
-      <c r="UP15" s="34"/>
-      <c r="UQ15" s="32"/>
-      <c r="UR15" s="33"/>
-      <c r="US15" s="33"/>
-      <c r="UT15" s="33"/>
-      <c r="UU15" s="33"/>
-      <c r="UV15" s="33"/>
-      <c r="UW15" s="33"/>
-      <c r="UX15" s="33"/>
-      <c r="UY15" s="33"/>
-      <c r="UZ15" s="33"/>
-      <c r="VA15" s="33"/>
-      <c r="VB15" s="33"/>
-      <c r="VC15" s="33"/>
-      <c r="VD15" s="33"/>
-      <c r="VE15" s="33"/>
-      <c r="VF15" s="33"/>
-      <c r="VG15" s="33"/>
-      <c r="VH15" s="33"/>
-      <c r="VI15" s="33"/>
-      <c r="VJ15" s="34"/>
-      <c r="VK15" s="32"/>
-      <c r="VL15" s="33"/>
-      <c r="VM15" s="33"/>
-      <c r="VN15" s="33"/>
-      <c r="VO15" s="33"/>
-      <c r="VP15" s="33"/>
-      <c r="VQ15" s="33"/>
-      <c r="VR15" s="33"/>
-      <c r="VS15" s="33"/>
-      <c r="VT15" s="33"/>
-      <c r="VU15" s="33"/>
-      <c r="VV15" s="33"/>
-      <c r="VW15" s="33"/>
-      <c r="VX15" s="33"/>
-      <c r="VY15" s="33"/>
-      <c r="VZ15" s="33"/>
-      <c r="WA15" s="33"/>
-      <c r="WB15" s="33"/>
-      <c r="WC15" s="33"/>
-      <c r="WD15" s="34"/>
-      <c r="WE15" s="32"/>
-      <c r="WF15" s="33"/>
-      <c r="WG15" s="33"/>
-      <c r="WH15" s="33"/>
-      <c r="WI15" s="33"/>
-      <c r="WJ15" s="33"/>
-      <c r="WK15" s="33"/>
-      <c r="WL15" s="33"/>
-      <c r="WM15" s="33"/>
-      <c r="WN15" s="33"/>
-      <c r="WO15" s="33"/>
-      <c r="WP15" s="33"/>
-      <c r="WQ15" s="33"/>
-      <c r="WR15" s="33"/>
-      <c r="WS15" s="33"/>
-      <c r="WT15" s="33"/>
-      <c r="WU15" s="33"/>
-      <c r="WV15" s="33"/>
-      <c r="WW15" s="33"/>
-      <c r="WX15" s="34"/>
-      <c r="WY15" s="32"/>
-      <c r="WZ15" s="33"/>
-      <c r="XA15" s="33"/>
-      <c r="XB15" s="33"/>
-      <c r="XC15" s="33"/>
-      <c r="XD15" s="33"/>
-      <c r="XE15" s="33"/>
-      <c r="XF15" s="33"/>
-      <c r="XG15" s="33"/>
-      <c r="XH15" s="33"/>
-      <c r="XI15" s="33"/>
-      <c r="XJ15" s="33"/>
-      <c r="XK15" s="33"/>
-      <c r="XL15" s="33"/>
-      <c r="XM15" s="33"/>
-      <c r="XN15" s="33"/>
-      <c r="XO15" s="33"/>
-      <c r="XP15" s="33"/>
-      <c r="XQ15" s="33"/>
-      <c r="XR15" s="34"/>
-      <c r="XS15" s="32"/>
-      <c r="XT15" s="33"/>
-      <c r="XU15" s="33"/>
-      <c r="XV15" s="33"/>
-      <c r="XW15" s="33"/>
-      <c r="XX15" s="33"/>
-      <c r="XY15" s="33"/>
-      <c r="XZ15" s="33"/>
-      <c r="YA15" s="33"/>
-      <c r="YB15" s="33"/>
-      <c r="YC15" s="33"/>
-      <c r="YD15" s="33"/>
-      <c r="YE15" s="33"/>
-      <c r="YF15" s="33"/>
-      <c r="YG15" s="33"/>
-      <c r="YH15" s="33"/>
-      <c r="YI15" s="33"/>
-      <c r="YJ15" s="33"/>
-      <c r="YK15" s="33"/>
-      <c r="YL15" s="34"/>
-      <c r="YM15" s="32"/>
-      <c r="YN15" s="33"/>
-      <c r="YO15" s="33"/>
-      <c r="YP15" s="33"/>
-      <c r="YQ15" s="33"/>
-      <c r="YR15" s="33"/>
-      <c r="YS15" s="33"/>
-      <c r="YT15" s="33"/>
-      <c r="YU15" s="33"/>
-      <c r="YV15" s="33"/>
-      <c r="YW15" s="33"/>
-      <c r="YX15" s="33"/>
-      <c r="YY15" s="33"/>
-      <c r="YZ15" s="33"/>
-      <c r="ZA15" s="33"/>
-      <c r="ZB15" s="33"/>
-      <c r="ZC15" s="33"/>
-      <c r="ZD15" s="33"/>
-      <c r="ZE15" s="33"/>
-      <c r="ZF15" s="34"/>
-      <c r="ZG15" s="32"/>
-      <c r="ZH15" s="33"/>
-      <c r="ZI15" s="33"/>
-      <c r="ZJ15" s="33"/>
-      <c r="ZK15" s="33"/>
-      <c r="ZL15" s="33"/>
-      <c r="ZM15" s="33"/>
-      <c r="ZN15" s="33"/>
-      <c r="ZO15" s="33"/>
-      <c r="ZP15" s="33"/>
-      <c r="ZQ15" s="33"/>
-      <c r="ZR15" s="33"/>
-      <c r="ZS15" s="33"/>
-      <c r="ZT15" s="33"/>
-      <c r="ZU15" s="33"/>
-      <c r="ZV15" s="33"/>
-      <c r="ZW15" s="33"/>
-      <c r="ZX15" s="33"/>
-      <c r="ZY15" s="33"/>
-      <c r="ZZ15" s="34"/>
-      <c r="AAA15" s="32"/>
-      <c r="AAB15" s="33"/>
-      <c r="AAC15" s="33"/>
-      <c r="AAD15" s="33"/>
-      <c r="AAE15" s="33"/>
-      <c r="AAF15" s="33"/>
-      <c r="AAG15" s="33"/>
-      <c r="AAH15" s="33"/>
-      <c r="AAI15" s="33"/>
-      <c r="AAJ15" s="33"/>
-      <c r="AAK15" s="33"/>
-      <c r="AAL15" s="33"/>
-      <c r="AAM15" s="33"/>
-      <c r="AAN15" s="33"/>
-      <c r="AAO15" s="33"/>
-      <c r="AAP15" s="33"/>
-      <c r="AAQ15" s="33"/>
-      <c r="AAR15" s="33"/>
-      <c r="AAS15" s="33"/>
-      <c r="AAT15" s="34"/>
-      <c r="AAU15" s="32"/>
-      <c r="AAV15" s="33"/>
-      <c r="AAW15" s="33"/>
-      <c r="AAX15" s="33"/>
-      <c r="AAY15" s="33"/>
-      <c r="AAZ15" s="33"/>
-      <c r="ABA15" s="33"/>
-      <c r="ABB15" s="33"/>
-      <c r="ABC15" s="33"/>
-      <c r="ABD15" s="33"/>
-      <c r="ABE15" s="33"/>
-      <c r="ABF15" s="33"/>
-      <c r="ABG15" s="33"/>
-      <c r="ABH15" s="33"/>
-      <c r="ABI15" s="33"/>
-      <c r="ABJ15" s="33"/>
-      <c r="ABK15" s="33"/>
-      <c r="ABL15" s="33"/>
-      <c r="ABM15" s="33"/>
-      <c r="ABN15" s="34"/>
-      <c r="ABO15" s="32"/>
-      <c r="ABP15" s="33"/>
-      <c r="ABQ15" s="33"/>
-      <c r="ABR15" s="33"/>
-      <c r="ABS15" s="33"/>
-      <c r="ABT15" s="33"/>
-      <c r="ABU15" s="33"/>
-      <c r="ABV15" s="33"/>
-      <c r="ABW15" s="33"/>
-      <c r="ABX15" s="33"/>
-      <c r="ABY15" s="33"/>
-      <c r="ABZ15" s="33"/>
-      <c r="ACA15" s="33"/>
-      <c r="ACB15" s="33"/>
-      <c r="ACC15" s="33"/>
-      <c r="ACD15" s="33"/>
-      <c r="ACE15" s="33"/>
-      <c r="ACF15" s="33"/>
-      <c r="ACG15" s="33"/>
-      <c r="ACH15" s="34"/>
-      <c r="ACI15" s="32"/>
-      <c r="ACJ15" s="33"/>
-      <c r="ACK15" s="33"/>
-      <c r="ACL15" s="33"/>
-      <c r="ACM15" s="33"/>
-      <c r="ACN15" s="33"/>
-      <c r="ACO15" s="33"/>
-      <c r="ACP15" s="33"/>
-      <c r="ACQ15" s="33"/>
-      <c r="ACR15" s="33"/>
-      <c r="ACS15" s="33"/>
-      <c r="ACT15" s="33"/>
-      <c r="ACU15" s="33"/>
-      <c r="ACV15" s="33"/>
-      <c r="ACW15" s="33"/>
-      <c r="ACX15" s="33"/>
-      <c r="ACY15" s="33"/>
-      <c r="ACZ15" s="33"/>
-      <c r="ADA15" s="33"/>
-      <c r="ADB15" s="34"/>
-      <c r="ADC15" s="32"/>
-      <c r="ADD15" s="33"/>
-      <c r="ADE15" s="33"/>
-      <c r="ADF15" s="33"/>
-      <c r="ADG15" s="33"/>
-      <c r="ADH15" s="33"/>
-      <c r="ADI15" s="33"/>
-      <c r="ADJ15" s="33"/>
-      <c r="ADK15" s="33"/>
-      <c r="ADL15" s="33"/>
-      <c r="ADM15" s="33"/>
-      <c r="ADN15" s="33"/>
-      <c r="ADO15" s="33"/>
-      <c r="ADP15" s="33"/>
-      <c r="ADQ15" s="33"/>
-      <c r="ADR15" s="33"/>
-      <c r="ADS15" s="33"/>
-      <c r="ADT15" s="33"/>
-      <c r="ADU15" s="33"/>
-      <c r="ADV15" s="34"/>
-      <c r="ADW15" s="32"/>
-      <c r="ADX15" s="33"/>
-      <c r="ADY15" s="33"/>
-      <c r="ADZ15" s="33"/>
-      <c r="AEA15" s="33"/>
-      <c r="AEB15" s="33"/>
-      <c r="AEC15" s="33"/>
-      <c r="AED15" s="33"/>
-      <c r="AEE15" s="33"/>
-      <c r="AEF15" s="33"/>
-      <c r="AEG15" s="33"/>
-      <c r="AEH15" s="33"/>
-      <c r="AEI15" s="33"/>
-      <c r="AEJ15" s="33"/>
-      <c r="AEK15" s="33"/>
-      <c r="AEL15" s="33"/>
-      <c r="AEM15" s="33"/>
-      <c r="AEN15" s="33"/>
-      <c r="AEO15" s="33"/>
-      <c r="AEP15" s="34"/>
-      <c r="AEQ15" s="32"/>
-      <c r="AER15" s="33"/>
-      <c r="AES15" s="33"/>
-      <c r="AET15" s="33"/>
-      <c r="AEU15" s="33"/>
-      <c r="AEV15" s="33"/>
-      <c r="AEW15" s="33"/>
-      <c r="AEX15" s="33"/>
-      <c r="AEY15" s="33"/>
-      <c r="AEZ15" s="33"/>
-      <c r="AFA15" s="33"/>
-      <c r="AFB15" s="33"/>
-      <c r="AFC15" s="33"/>
-      <c r="AFD15" s="33"/>
-      <c r="AFE15" s="33"/>
-      <c r="AFF15" s="33"/>
-      <c r="AFG15" s="33"/>
-      <c r="AFH15" s="33"/>
-      <c r="AFI15" s="33"/>
-      <c r="AFJ15" s="34"/>
-      <c r="AFK15" s="32"/>
-      <c r="AFL15" s="33"/>
-      <c r="AFM15" s="33"/>
-      <c r="AFN15" s="33"/>
-      <c r="AFO15" s="33"/>
-      <c r="AFP15" s="33"/>
-      <c r="AFQ15" s="33"/>
-      <c r="AFR15" s="33"/>
-      <c r="AFS15" s="33"/>
-      <c r="AFT15" s="33"/>
-      <c r="AFU15" s="33"/>
-      <c r="AFV15" s="33"/>
-      <c r="AFW15" s="33"/>
-      <c r="AFX15" s="33"/>
-      <c r="AFY15" s="33"/>
-      <c r="AFZ15" s="33"/>
-      <c r="AGA15" s="33"/>
-      <c r="AGB15" s="33"/>
-      <c r="AGC15" s="33"/>
-      <c r="AGD15" s="34"/>
-      <c r="AGE15" s="32"/>
-      <c r="AGF15" s="33"/>
-      <c r="AGG15" s="33"/>
-      <c r="AGH15" s="33"/>
-      <c r="AGI15" s="33"/>
-      <c r="AGJ15" s="33"/>
-      <c r="AGK15" s="33"/>
-      <c r="AGL15" s="33"/>
-      <c r="AGM15" s="33"/>
-      <c r="AGN15" s="33"/>
-      <c r="AGO15" s="33"/>
-      <c r="AGP15" s="33"/>
-      <c r="AGQ15" s="33"/>
-      <c r="AGR15" s="33"/>
-      <c r="AGS15" s="33"/>
-      <c r="AGT15" s="33"/>
-      <c r="AGU15" s="33"/>
-      <c r="AGV15" s="33"/>
-      <c r="AGW15" s="33"/>
-      <c r="AGX15" s="34"/>
-      <c r="AGY15" s="32"/>
-      <c r="AGZ15" s="33"/>
-      <c r="AHA15" s="33"/>
-      <c r="AHB15" s="33"/>
-      <c r="AHC15" s="33"/>
-      <c r="AHD15" s="33"/>
-      <c r="AHE15" s="33"/>
-      <c r="AHF15" s="33"/>
-      <c r="AHG15" s="33"/>
-      <c r="AHH15" s="33"/>
-      <c r="AHI15" s="33"/>
-      <c r="AHJ15" s="33"/>
-      <c r="AHK15" s="33"/>
-      <c r="AHL15" s="33"/>
-      <c r="AHM15" s="33"/>
-      <c r="AHN15" s="33"/>
-      <c r="AHO15" s="33"/>
-      <c r="AHP15" s="33"/>
-      <c r="AHQ15" s="33"/>
-      <c r="AHR15" s="34"/>
-      <c r="AHS15" s="32"/>
-      <c r="AHT15" s="33"/>
-      <c r="AHU15" s="33"/>
-      <c r="AHV15" s="33"/>
-      <c r="AHW15" s="33"/>
-      <c r="AHX15" s="33"/>
-      <c r="AHY15" s="33"/>
-      <c r="AHZ15" s="33"/>
-      <c r="AIA15" s="33"/>
-      <c r="AIB15" s="33"/>
-      <c r="AIC15" s="33"/>
-      <c r="AID15" s="33"/>
-      <c r="AIE15" s="33"/>
-      <c r="AIF15" s="33"/>
-      <c r="AIG15" s="33"/>
-      <c r="AIH15" s="33"/>
-      <c r="AII15" s="33"/>
-      <c r="AIJ15" s="33"/>
-      <c r="AIK15" s="33"/>
-      <c r="AIL15" s="34"/>
-      <c r="AIM15" s="32"/>
-      <c r="AIN15" s="33"/>
-      <c r="AIO15" s="33"/>
-      <c r="AIP15" s="33"/>
-      <c r="AIQ15" s="33"/>
-      <c r="AIR15" s="33"/>
-      <c r="AIS15" s="33"/>
-      <c r="AIT15" s="33"/>
-      <c r="AIU15" s="33"/>
-      <c r="AIV15" s="33"/>
-      <c r="AIW15" s="33"/>
-      <c r="AIX15" s="33"/>
-      <c r="AIY15" s="33"/>
-      <c r="AIZ15" s="33"/>
-      <c r="AJA15" s="33"/>
-      <c r="AJB15" s="33"/>
-      <c r="AJC15" s="33"/>
-      <c r="AJD15" s="33"/>
-      <c r="AJE15" s="33"/>
-      <c r="AJF15" s="34"/>
-      <c r="AJG15" s="32"/>
-      <c r="AJH15" s="33"/>
-      <c r="AJI15" s="33"/>
-      <c r="AJJ15" s="33"/>
-      <c r="AJK15" s="33"/>
-      <c r="AJL15" s="33"/>
-      <c r="AJM15" s="33"/>
-      <c r="AJN15" s="33"/>
-      <c r="AJO15" s="33"/>
-      <c r="AJP15" s="33"/>
-      <c r="AJQ15" s="33"/>
-      <c r="AJR15" s="33"/>
-      <c r="AJS15" s="33"/>
-      <c r="AJT15" s="33"/>
-      <c r="AJU15" s="33"/>
-      <c r="AJV15" s="33"/>
-      <c r="AJW15" s="33"/>
-      <c r="AJX15" s="33"/>
-      <c r="AJY15" s="33"/>
-      <c r="AJZ15" s="34"/>
-      <c r="AKA15" s="32"/>
-      <c r="AKB15" s="33"/>
-      <c r="AKC15" s="33"/>
-      <c r="AKD15" s="33"/>
-      <c r="AKE15" s="33"/>
-      <c r="AKF15" s="33"/>
-      <c r="AKG15" s="33"/>
-      <c r="AKH15" s="33"/>
-      <c r="AKI15" s="33"/>
-      <c r="AKJ15" s="33"/>
-      <c r="AKK15" s="33"/>
-      <c r="AKL15" s="33"/>
-      <c r="AKM15" s="33"/>
-      <c r="AKN15" s="33"/>
-      <c r="AKO15" s="33"/>
-      <c r="AKP15" s="33"/>
-      <c r="AKQ15" s="33"/>
-      <c r="AKR15" s="33"/>
-      <c r="AKS15" s="33"/>
-      <c r="AKT15" s="34"/>
-      <c r="AKU15" s="32"/>
-      <c r="AKV15" s="33"/>
-      <c r="AKW15" s="33"/>
-      <c r="AKX15" s="33"/>
-      <c r="AKY15" s="33"/>
-      <c r="AKZ15" s="33"/>
-      <c r="ALA15" s="33"/>
-      <c r="ALB15" s="33"/>
-      <c r="ALC15" s="33"/>
-      <c r="ALD15" s="33"/>
-      <c r="ALE15" s="33"/>
-      <c r="ALF15" s="33"/>
-      <c r="ALG15" s="33"/>
-      <c r="ALH15" s="33"/>
-      <c r="ALI15" s="33"/>
-      <c r="ALJ15" s="33"/>
-      <c r="ALK15" s="33"/>
-      <c r="ALL15" s="33"/>
-      <c r="ALM15" s="33"/>
-      <c r="ALN15" s="34"/>
-      <c r="ALO15" s="32"/>
-      <c r="ALP15" s="33"/>
-      <c r="ALQ15" s="33"/>
-      <c r="ALR15" s="33"/>
-      <c r="ALS15" s="33"/>
-      <c r="ALT15" s="33"/>
-      <c r="ALU15" s="33"/>
-      <c r="ALV15" s="33"/>
-      <c r="ALW15" s="33"/>
-      <c r="ALX15" s="33"/>
-      <c r="ALY15" s="33"/>
-      <c r="ALZ15" s="33"/>
-      <c r="AMA15" s="33"/>
-      <c r="AMB15" s="33"/>
-      <c r="AMC15" s="33"/>
-      <c r="AMD15" s="33"/>
-      <c r="AME15" s="33"/>
-      <c r="AMF15" s="33"/>
-      <c r="AMG15" s="33"/>
-      <c r="AMH15" s="34"/>
-      <c r="AMI15" s="32"/>
-      <c r="AMJ15" s="33"/>
-      <c r="AMK15" s="33"/>
-      <c r="AML15" s="33"/>
-      <c r="AMM15" s="33"/>
-      <c r="AMN15" s="33"/>
-      <c r="AMO15" s="33"/>
-      <c r="AMP15" s="33"/>
-      <c r="AMQ15" s="33"/>
-      <c r="AMR15" s="33"/>
-      <c r="AMS15" s="33"/>
-      <c r="AMT15" s="33"/>
-      <c r="AMU15" s="33"/>
-      <c r="AMV15" s="33"/>
-      <c r="AMW15" s="33"/>
-      <c r="AMX15" s="33"/>
-      <c r="AMY15" s="33"/>
-      <c r="AMZ15" s="33"/>
-      <c r="ANA15" s="33"/>
-      <c r="ANB15" s="34"/>
-      <c r="ANC15" s="32"/>
-      <c r="AND15" s="33"/>
-      <c r="ANE15" s="33"/>
-      <c r="ANF15" s="33"/>
-      <c r="ANG15" s="33"/>
-      <c r="ANH15" s="33"/>
-      <c r="ANI15" s="33"/>
-      <c r="ANJ15" s="33"/>
-      <c r="ANK15" s="33"/>
-      <c r="ANL15" s="33"/>
-      <c r="ANM15" s="33"/>
-      <c r="ANN15" s="33"/>
-      <c r="ANO15" s="33"/>
-      <c r="ANP15" s="33"/>
-      <c r="ANQ15" s="33"/>
-      <c r="ANR15" s="33"/>
-      <c r="ANS15" s="33"/>
-      <c r="ANT15" s="33"/>
-      <c r="ANU15" s="33"/>
-      <c r="ANV15" s="34"/>
-      <c r="ANW15" s="32"/>
-      <c r="ANX15" s="33"/>
-      <c r="ANY15" s="33"/>
-      <c r="ANZ15" s="33"/>
-      <c r="AOA15" s="33"/>
-      <c r="AOB15" s="33"/>
-      <c r="AOC15" s="33"/>
-      <c r="AOD15" s="33"/>
-      <c r="AOE15" s="33"/>
-      <c r="AOF15" s="33"/>
-      <c r="AOG15" s="33"/>
-      <c r="AOH15" s="33"/>
-      <c r="AOI15" s="33"/>
-      <c r="AOJ15" s="33"/>
-      <c r="AOK15" s="33"/>
-      <c r="AOL15" s="33"/>
-      <c r="AOM15" s="33"/>
-      <c r="AON15" s="33"/>
-      <c r="AOO15" s="33"/>
-      <c r="AOP15" s="34"/>
+      <c r="RP15" s="40"/>
+      <c r="RQ15" s="40"/>
+      <c r="RR15" s="40"/>
+      <c r="RS15" s="40"/>
+      <c r="RT15" s="40"/>
+      <c r="RU15" s="40"/>
+      <c r="RV15" s="40"/>
+      <c r="RW15" s="40"/>
+      <c r="RX15" s="40"/>
+      <c r="RY15" s="40"/>
+      <c r="RZ15" s="40"/>
+      <c r="SA15" s="40"/>
+      <c r="SB15" s="40"/>
+      <c r="SC15" s="40"/>
+      <c r="SD15" s="40"/>
+      <c r="SE15" s="40"/>
+      <c r="SF15" s="40"/>
+      <c r="SG15" s="40"/>
+      <c r="SH15" s="41"/>
+      <c r="SI15" s="39"/>
+      <c r="SJ15" s="40"/>
+      <c r="SK15" s="40"/>
+      <c r="SL15" s="40"/>
+      <c r="SM15" s="40"/>
+      <c r="SN15" s="40"/>
+      <c r="SO15" s="40"/>
+      <c r="SP15" s="40"/>
+      <c r="SQ15" s="40"/>
+      <c r="SR15" s="40"/>
+      <c r="SS15" s="40"/>
+      <c r="ST15" s="40"/>
+      <c r="SU15" s="40"/>
+      <c r="SV15" s="40"/>
+      <c r="SW15" s="40"/>
+      <c r="SX15" s="40"/>
+      <c r="SY15" s="40"/>
+      <c r="SZ15" s="40"/>
+      <c r="TA15" s="40"/>
+      <c r="TB15" s="41"/>
+      <c r="TC15" s="39"/>
+      <c r="TD15" s="40"/>
+      <c r="TE15" s="40"/>
+      <c r="TF15" s="40"/>
+      <c r="TG15" s="40"/>
+      <c r="TH15" s="40"/>
+      <c r="TI15" s="40"/>
+      <c r="TJ15" s="40"/>
+      <c r="TK15" s="40"/>
+      <c r="TL15" s="40"/>
+      <c r="TM15" s="40"/>
+      <c r="TN15" s="40"/>
+      <c r="TO15" s="40"/>
+      <c r="TP15" s="40"/>
+      <c r="TQ15" s="40"/>
+      <c r="TR15" s="40"/>
+      <c r="TS15" s="40"/>
+      <c r="TT15" s="40"/>
+      <c r="TU15" s="40"/>
+      <c r="TV15" s="41"/>
+      <c r="TW15" s="39"/>
+      <c r="TX15" s="40"/>
+      <c r="TY15" s="40"/>
+      <c r="TZ15" s="40"/>
+      <c r="UA15" s="40"/>
+      <c r="UB15" s="40"/>
+      <c r="UC15" s="40"/>
+      <c r="UD15" s="40"/>
+      <c r="UE15" s="40"/>
+      <c r="UF15" s="40"/>
+      <c r="UG15" s="40"/>
+      <c r="UH15" s="40"/>
+      <c r="UI15" s="40"/>
+      <c r="UJ15" s="40"/>
+      <c r="UK15" s="40"/>
+      <c r="UL15" s="40"/>
+      <c r="UM15" s="40"/>
+      <c r="UN15" s="40"/>
+      <c r="UO15" s="40"/>
+      <c r="UP15" s="41"/>
+      <c r="UQ15" s="39"/>
+      <c r="UR15" s="40"/>
+      <c r="US15" s="40"/>
+      <c r="UT15" s="40"/>
+      <c r="UU15" s="40"/>
+      <c r="UV15" s="40"/>
+      <c r="UW15" s="40"/>
+      <c r="UX15" s="40"/>
+      <c r="UY15" s="40"/>
+      <c r="UZ15" s="40"/>
+      <c r="VA15" s="40"/>
+      <c r="VB15" s="40"/>
+      <c r="VC15" s="40"/>
+      <c r="VD15" s="40"/>
+      <c r="VE15" s="40"/>
+      <c r="VF15" s="40"/>
+      <c r="VG15" s="40"/>
+      <c r="VH15" s="40"/>
+      <c r="VI15" s="40"/>
+      <c r="VJ15" s="41"/>
+      <c r="VK15" s="39"/>
+      <c r="VL15" s="40"/>
+      <c r="VM15" s="40"/>
+      <c r="VN15" s="40"/>
+      <c r="VO15" s="40"/>
+      <c r="VP15" s="40"/>
+      <c r="VQ15" s="40"/>
+      <c r="VR15" s="40"/>
+      <c r="VS15" s="40"/>
+      <c r="VT15" s="40"/>
+      <c r="VU15" s="40"/>
+      <c r="VV15" s="40"/>
+      <c r="VW15" s="40"/>
+      <c r="VX15" s="40"/>
+      <c r="VY15" s="40"/>
+      <c r="VZ15" s="40"/>
+      <c r="WA15" s="40"/>
+      <c r="WB15" s="40"/>
+      <c r="WC15" s="40"/>
+      <c r="WD15" s="41"/>
+      <c r="WE15" s="39"/>
+      <c r="WF15" s="40"/>
+      <c r="WG15" s="40"/>
+      <c r="WH15" s="40"/>
+      <c r="WI15" s="40"/>
+      <c r="WJ15" s="40"/>
+      <c r="WK15" s="40"/>
+      <c r="WL15" s="40"/>
+      <c r="WM15" s="40"/>
+      <c r="WN15" s="40"/>
+      <c r="WO15" s="40"/>
+      <c r="WP15" s="40"/>
+      <c r="WQ15" s="40"/>
+      <c r="WR15" s="40"/>
+      <c r="WS15" s="40"/>
+      <c r="WT15" s="40"/>
+      <c r="WU15" s="40"/>
+      <c r="WV15" s="40"/>
+      <c r="WW15" s="40"/>
+      <c r="WX15" s="41"/>
+      <c r="WY15" s="39"/>
+      <c r="WZ15" s="40"/>
+      <c r="XA15" s="40"/>
+      <c r="XB15" s="40"/>
+      <c r="XC15" s="40"/>
+      <c r="XD15" s="40"/>
+      <c r="XE15" s="40"/>
+      <c r="XF15" s="40"/>
+      <c r="XG15" s="40"/>
+      <c r="XH15" s="40"/>
+      <c r="XI15" s="40"/>
+      <c r="XJ15" s="40"/>
+      <c r="XK15" s="40"/>
+      <c r="XL15" s="40"/>
+      <c r="XM15" s="40"/>
+      <c r="XN15" s="40"/>
+      <c r="XO15" s="40"/>
+      <c r="XP15" s="40"/>
+      <c r="XQ15" s="40"/>
+      <c r="XR15" s="41"/>
+      <c r="XS15" s="39"/>
+      <c r="XT15" s="40"/>
+      <c r="XU15" s="40"/>
+      <c r="XV15" s="40"/>
+      <c r="XW15" s="40"/>
+      <c r="XX15" s="40"/>
+      <c r="XY15" s="40"/>
+      <c r="XZ15" s="40"/>
+      <c r="YA15" s="40"/>
+      <c r="YB15" s="40"/>
+      <c r="YC15" s="40"/>
+      <c r="YD15" s="40"/>
+      <c r="YE15" s="40"/>
+      <c r="YF15" s="40"/>
+      <c r="YG15" s="40"/>
+      <c r="YH15" s="40"/>
+      <c r="YI15" s="40"/>
+      <c r="YJ15" s="40"/>
+      <c r="YK15" s="40"/>
+      <c r="YL15" s="41"/>
+      <c r="YM15" s="39"/>
+      <c r="YN15" s="40"/>
+      <c r="YO15" s="40"/>
+      <c r="YP15" s="40"/>
+      <c r="YQ15" s="40"/>
+      <c r="YR15" s="40"/>
+      <c r="YS15" s="40"/>
+      <c r="YT15" s="40"/>
+      <c r="YU15" s="40"/>
+      <c r="YV15" s="40"/>
+      <c r="YW15" s="40"/>
+      <c r="YX15" s="40"/>
+      <c r="YY15" s="40"/>
+      <c r="YZ15" s="40"/>
+      <c r="ZA15" s="40"/>
+      <c r="ZB15" s="40"/>
+      <c r="ZC15" s="40"/>
+      <c r="ZD15" s="40"/>
+      <c r="ZE15" s="40"/>
+      <c r="ZF15" s="41"/>
+      <c r="ZG15" s="39"/>
+      <c r="ZH15" s="40"/>
+      <c r="ZI15" s="40"/>
+      <c r="ZJ15" s="40"/>
+      <c r="ZK15" s="40"/>
+      <c r="ZL15" s="40"/>
+      <c r="ZM15" s="40"/>
+      <c r="ZN15" s="40"/>
+      <c r="ZO15" s="40"/>
+      <c r="ZP15" s="40"/>
+      <c r="ZQ15" s="40"/>
+      <c r="ZR15" s="40"/>
+      <c r="ZS15" s="40"/>
+      <c r="ZT15" s="40"/>
+      <c r="ZU15" s="40"/>
+      <c r="ZV15" s="40"/>
+      <c r="ZW15" s="40"/>
+      <c r="ZX15" s="40"/>
+      <c r="ZY15" s="40"/>
+      <c r="ZZ15" s="41"/>
+      <c r="AAA15" s="39"/>
+      <c r="AAB15" s="40"/>
+      <c r="AAC15" s="40"/>
+      <c r="AAD15" s="40"/>
+      <c r="AAE15" s="40"/>
+      <c r="AAF15" s="40"/>
+      <c r="AAG15" s="40"/>
+      <c r="AAH15" s="40"/>
+      <c r="AAI15" s="40"/>
+      <c r="AAJ15" s="40"/>
+      <c r="AAK15" s="40"/>
+      <c r="AAL15" s="40"/>
+      <c r="AAM15" s="40"/>
+      <c r="AAN15" s="40"/>
+      <c r="AAO15" s="40"/>
+      <c r="AAP15" s="40"/>
+      <c r="AAQ15" s="40"/>
+      <c r="AAR15" s="40"/>
+      <c r="AAS15" s="40"/>
+      <c r="AAT15" s="41"/>
+      <c r="AAU15" s="39"/>
+      <c r="AAV15" s="40"/>
+      <c r="AAW15" s="40"/>
+      <c r="AAX15" s="40"/>
+      <c r="AAY15" s="40"/>
+      <c r="AAZ15" s="40"/>
+      <c r="ABA15" s="40"/>
+      <c r="ABB15" s="40"/>
+      <c r="ABC15" s="40"/>
+      <c r="ABD15" s="40"/>
+      <c r="ABE15" s="40"/>
+      <c r="ABF15" s="40"/>
+      <c r="ABG15" s="40"/>
+      <c r="ABH15" s="40"/>
+      <c r="ABI15" s="40"/>
+      <c r="ABJ15" s="40"/>
+      <c r="ABK15" s="40"/>
+      <c r="ABL15" s="40"/>
+      <c r="ABM15" s="40"/>
+      <c r="ABN15" s="41"/>
+      <c r="ABO15" s="39"/>
+      <c r="ABP15" s="40"/>
+      <c r="ABQ15" s="40"/>
+      <c r="ABR15" s="40"/>
+      <c r="ABS15" s="40"/>
+      <c r="ABT15" s="40"/>
+      <c r="ABU15" s="40"/>
+      <c r="ABV15" s="40"/>
+      <c r="ABW15" s="40"/>
+      <c r="ABX15" s="40"/>
+      <c r="ABY15" s="40"/>
+      <c r="ABZ15" s="40"/>
+      <c r="ACA15" s="40"/>
+      <c r="ACB15" s="40"/>
+      <c r="ACC15" s="40"/>
+      <c r="ACD15" s="40"/>
+      <c r="ACE15" s="40"/>
+      <c r="ACF15" s="40"/>
+      <c r="ACG15" s="40"/>
+      <c r="ACH15" s="41"/>
+      <c r="ACI15" s="39"/>
+      <c r="ACJ15" s="40"/>
+      <c r="ACK15" s="40"/>
+      <c r="ACL15" s="40"/>
+      <c r="ACM15" s="40"/>
+      <c r="ACN15" s="40"/>
+      <c r="ACO15" s="40"/>
+      <c r="ACP15" s="40"/>
+      <c r="ACQ15" s="40"/>
+      <c r="ACR15" s="40"/>
+      <c r="ACS15" s="40"/>
+      <c r="ACT15" s="40"/>
+      <c r="ACU15" s="40"/>
+      <c r="ACV15" s="40"/>
+      <c r="ACW15" s="40"/>
+      <c r="ACX15" s="40"/>
+      <c r="ACY15" s="40"/>
+      <c r="ACZ15" s="40"/>
+      <c r="ADA15" s="40"/>
+      <c r="ADB15" s="41"/>
+      <c r="ADC15" s="39"/>
+      <c r="ADD15" s="40"/>
+      <c r="ADE15" s="40"/>
+      <c r="ADF15" s="40"/>
+      <c r="ADG15" s="40"/>
+      <c r="ADH15" s="40"/>
+      <c r="ADI15" s="40"/>
+      <c r="ADJ15" s="40"/>
+      <c r="ADK15" s="40"/>
+      <c r="ADL15" s="40"/>
+      <c r="ADM15" s="40"/>
+      <c r="ADN15" s="40"/>
+      <c r="ADO15" s="40"/>
+      <c r="ADP15" s="40"/>
+      <c r="ADQ15" s="40"/>
+      <c r="ADR15" s="40"/>
+      <c r="ADS15" s="40"/>
+      <c r="ADT15" s="40"/>
+      <c r="ADU15" s="40"/>
+      <c r="ADV15" s="41"/>
+      <c r="ADW15" s="39"/>
+      <c r="ADX15" s="40"/>
+      <c r="ADY15" s="40"/>
+      <c r="ADZ15" s="40"/>
+      <c r="AEA15" s="40"/>
+      <c r="AEB15" s="40"/>
+      <c r="AEC15" s="40"/>
+      <c r="AED15" s="40"/>
+      <c r="AEE15" s="40"/>
+      <c r="AEF15" s="40"/>
+      <c r="AEG15" s="40"/>
+      <c r="AEH15" s="40"/>
+      <c r="AEI15" s="40"/>
+      <c r="AEJ15" s="40"/>
+      <c r="AEK15" s="40"/>
+      <c r="AEL15" s="40"/>
+      <c r="AEM15" s="40"/>
+      <c r="AEN15" s="40"/>
+      <c r="AEO15" s="40"/>
+      <c r="AEP15" s="41"/>
+      <c r="AEQ15" s="39"/>
+      <c r="AER15" s="40"/>
+      <c r="AES15" s="40"/>
+      <c r="AET15" s="40"/>
+      <c r="AEU15" s="40"/>
+      <c r="AEV15" s="40"/>
+      <c r="AEW15" s="40"/>
+      <c r="AEX15" s="40"/>
+      <c r="AEY15" s="40"/>
+      <c r="AEZ15" s="40"/>
+      <c r="AFA15" s="40"/>
+      <c r="AFB15" s="40"/>
+      <c r="AFC15" s="40"/>
+      <c r="AFD15" s="40"/>
+      <c r="AFE15" s="40"/>
+      <c r="AFF15" s="40"/>
+      <c r="AFG15" s="40"/>
+      <c r="AFH15" s="40"/>
+      <c r="AFI15" s="40"/>
+      <c r="AFJ15" s="41"/>
+      <c r="AFK15" s="39"/>
+      <c r="AFL15" s="40"/>
+      <c r="AFM15" s="40"/>
+      <c r="AFN15" s="40"/>
+      <c r="AFO15" s="40"/>
+      <c r="AFP15" s="40"/>
+      <c r="AFQ15" s="40"/>
+      <c r="AFR15" s="40"/>
+      <c r="AFS15" s="40"/>
+      <c r="AFT15" s="40"/>
+      <c r="AFU15" s="40"/>
+      <c r="AFV15" s="40"/>
+      <c r="AFW15" s="40"/>
+      <c r="AFX15" s="40"/>
+      <c r="AFY15" s="40"/>
+      <c r="AFZ15" s="40"/>
+      <c r="AGA15" s="40"/>
+      <c r="AGB15" s="40"/>
+      <c r="AGC15" s="40"/>
+      <c r="AGD15" s="41"/>
+      <c r="AGE15" s="39"/>
+      <c r="AGF15" s="40"/>
+      <c r="AGG15" s="40"/>
+      <c r="AGH15" s="40"/>
+      <c r="AGI15" s="40"/>
+      <c r="AGJ15" s="40"/>
+      <c r="AGK15" s="40"/>
+      <c r="AGL15" s="40"/>
+      <c r="AGM15" s="40"/>
+      <c r="AGN15" s="40"/>
+      <c r="AGO15" s="40"/>
+      <c r="AGP15" s="40"/>
+      <c r="AGQ15" s="40"/>
+      <c r="AGR15" s="40"/>
+      <c r="AGS15" s="40"/>
+      <c r="AGT15" s="40"/>
+      <c r="AGU15" s="40"/>
+      <c r="AGV15" s="40"/>
+      <c r="AGW15" s="40"/>
+      <c r="AGX15" s="41"/>
+      <c r="AGY15" s="39"/>
+      <c r="AGZ15" s="40"/>
+      <c r="AHA15" s="40"/>
+      <c r="AHB15" s="40"/>
+      <c r="AHC15" s="40"/>
+      <c r="AHD15" s="40"/>
+      <c r="AHE15" s="40"/>
+      <c r="AHF15" s="40"/>
+      <c r="AHG15" s="40"/>
+      <c r="AHH15" s="40"/>
+      <c r="AHI15" s="40"/>
+      <c r="AHJ15" s="40"/>
+      <c r="AHK15" s="40"/>
+      <c r="AHL15" s="40"/>
+      <c r="AHM15" s="40"/>
+      <c r="AHN15" s="40"/>
+      <c r="AHO15" s="40"/>
+      <c r="AHP15" s="40"/>
+      <c r="AHQ15" s="40"/>
+      <c r="AHR15" s="41"/>
+      <c r="AHS15" s="39"/>
+      <c r="AHT15" s="40"/>
+      <c r="AHU15" s="40"/>
+      <c r="AHV15" s="40"/>
+      <c r="AHW15" s="40"/>
+      <c r="AHX15" s="40"/>
+      <c r="AHY15" s="40"/>
+      <c r="AHZ15" s="40"/>
+      <c r="AIA15" s="40"/>
+      <c r="AIB15" s="40"/>
+      <c r="AIC15" s="40"/>
+      <c r="AID15" s="40"/>
+      <c r="AIE15" s="40"/>
+      <c r="AIF15" s="40"/>
+      <c r="AIG15" s="40"/>
+      <c r="AIH15" s="40"/>
+      <c r="AII15" s="40"/>
+      <c r="AIJ15" s="40"/>
+      <c r="AIK15" s="40"/>
+      <c r="AIL15" s="41"/>
+      <c r="AIM15" s="39"/>
+      <c r="AIN15" s="40"/>
+      <c r="AIO15" s="40"/>
+      <c r="AIP15" s="40"/>
+      <c r="AIQ15" s="40"/>
+      <c r="AIR15" s="40"/>
+      <c r="AIS15" s="40"/>
+      <c r="AIT15" s="40"/>
+      <c r="AIU15" s="40"/>
+      <c r="AIV15" s="40"/>
+      <c r="AIW15" s="40"/>
+      <c r="AIX15" s="40"/>
+      <c r="AIY15" s="40"/>
+      <c r="AIZ15" s="40"/>
+      <c r="AJA15" s="40"/>
+      <c r="AJB15" s="40"/>
+      <c r="AJC15" s="40"/>
+      <c r="AJD15" s="40"/>
+      <c r="AJE15" s="40"/>
+      <c r="AJF15" s="41"/>
+      <c r="AJG15" s="39"/>
+      <c r="AJH15" s="40"/>
+      <c r="AJI15" s="40"/>
+      <c r="AJJ15" s="40"/>
+      <c r="AJK15" s="40"/>
+      <c r="AJL15" s="40"/>
+      <c r="AJM15" s="40"/>
+      <c r="AJN15" s="40"/>
+      <c r="AJO15" s="40"/>
+      <c r="AJP15" s="40"/>
+      <c r="AJQ15" s="40"/>
+      <c r="AJR15" s="40"/>
+      <c r="AJS15" s="40"/>
+      <c r="AJT15" s="40"/>
+      <c r="AJU15" s="40"/>
+      <c r="AJV15" s="40"/>
+      <c r="AJW15" s="40"/>
+      <c r="AJX15" s="40"/>
+      <c r="AJY15" s="40"/>
+      <c r="AJZ15" s="41"/>
+      <c r="AKA15" s="39"/>
+      <c r="AKB15" s="40"/>
+      <c r="AKC15" s="40"/>
+      <c r="AKD15" s="40"/>
+      <c r="AKE15" s="40"/>
+      <c r="AKF15" s="40"/>
+      <c r="AKG15" s="40"/>
+      <c r="AKH15" s="40"/>
+      <c r="AKI15" s="40"/>
+      <c r="AKJ15" s="40"/>
+      <c r="AKK15" s="40"/>
+      <c r="AKL15" s="40"/>
+      <c r="AKM15" s="40"/>
+      <c r="AKN15" s="40"/>
+      <c r="AKO15" s="40"/>
+      <c r="AKP15" s="40"/>
+      <c r="AKQ15" s="40"/>
+      <c r="AKR15" s="40"/>
+      <c r="AKS15" s="40"/>
+      <c r="AKT15" s="41"/>
+      <c r="AKU15" s="39"/>
+      <c r="AKV15" s="40"/>
+      <c r="AKW15" s="40"/>
+      <c r="AKX15" s="40"/>
+      <c r="AKY15" s="40"/>
+      <c r="AKZ15" s="40"/>
+      <c r="ALA15" s="40"/>
+      <c r="ALB15" s="40"/>
+      <c r="ALC15" s="40"/>
+      <c r="ALD15" s="40"/>
+      <c r="ALE15" s="40"/>
+      <c r="ALF15" s="40"/>
+      <c r="ALG15" s="40"/>
+      <c r="ALH15" s="40"/>
+      <c r="ALI15" s="40"/>
+      <c r="ALJ15" s="40"/>
+      <c r="ALK15" s="40"/>
+      <c r="ALL15" s="40"/>
+      <c r="ALM15" s="40"/>
+      <c r="ALN15" s="41"/>
+      <c r="ALO15" s="39"/>
+      <c r="ALP15" s="40"/>
+      <c r="ALQ15" s="40"/>
+      <c r="ALR15" s="40"/>
+      <c r="ALS15" s="40"/>
+      <c r="ALT15" s="40"/>
+      <c r="ALU15" s="40"/>
+      <c r="ALV15" s="40"/>
+      <c r="ALW15" s="40"/>
+      <c r="ALX15" s="40"/>
+      <c r="ALY15" s="40"/>
+      <c r="ALZ15" s="40"/>
+      <c r="AMA15" s="40"/>
+      <c r="AMB15" s="40"/>
+      <c r="AMC15" s="40"/>
+      <c r="AMD15" s="40"/>
+      <c r="AME15" s="40"/>
+      <c r="AMF15" s="40"/>
+      <c r="AMG15" s="40"/>
+      <c r="AMH15" s="41"/>
+      <c r="AMI15" s="39"/>
+      <c r="AMJ15" s="40"/>
+      <c r="AMK15" s="40"/>
+      <c r="AML15" s="40"/>
+      <c r="AMM15" s="40"/>
+      <c r="AMN15" s="40"/>
+      <c r="AMO15" s="40"/>
+      <c r="AMP15" s="40"/>
+      <c r="AMQ15" s="40"/>
+      <c r="AMR15" s="40"/>
+      <c r="AMS15" s="40"/>
+      <c r="AMT15" s="40"/>
+      <c r="AMU15" s="40"/>
+      <c r="AMV15" s="40"/>
+      <c r="AMW15" s="40"/>
+      <c r="AMX15" s="40"/>
+      <c r="AMY15" s="40"/>
+      <c r="AMZ15" s="40"/>
+      <c r="ANA15" s="40"/>
+      <c r="ANB15" s="41"/>
+      <c r="ANC15" s="39"/>
+      <c r="AND15" s="40"/>
+      <c r="ANE15" s="40"/>
+      <c r="ANF15" s="40"/>
+      <c r="ANG15" s="40"/>
+      <c r="ANH15" s="40"/>
+      <c r="ANI15" s="40"/>
+      <c r="ANJ15" s="40"/>
+      <c r="ANK15" s="40"/>
+      <c r="ANL15" s="40"/>
+      <c r="ANM15" s="40"/>
+      <c r="ANN15" s="40"/>
+      <c r="ANO15" s="40"/>
+      <c r="ANP15" s="40"/>
+      <c r="ANQ15" s="40"/>
+      <c r="ANR15" s="40"/>
+      <c r="ANS15" s="40"/>
+      <c r="ANT15" s="40"/>
+      <c r="ANU15" s="40"/>
+      <c r="ANV15" s="41"/>
+      <c r="ANW15" s="39"/>
+      <c r="ANX15" s="40"/>
+      <c r="ANY15" s="40"/>
+      <c r="ANZ15" s="40"/>
+      <c r="AOA15" s="40"/>
+      <c r="AOB15" s="40"/>
+      <c r="AOC15" s="40"/>
+      <c r="AOD15" s="40"/>
+      <c r="AOE15" s="40"/>
+      <c r="AOF15" s="40"/>
+      <c r="AOG15" s="40"/>
+      <c r="AOH15" s="40"/>
+      <c r="AOI15" s="40"/>
+      <c r="AOJ15" s="40"/>
+      <c r="AOK15" s="40"/>
+      <c r="AOL15" s="40"/>
+      <c r="AOM15" s="40"/>
+      <c r="AON15" s="40"/>
+      <c r="AOO15" s="40"/>
+      <c r="AOP15" s="41"/>
     </row>
     <row r="16" spans="1:1082" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
@@ -11302,39 +11305,39 @@
       <c r="AOP16" s="7"/>
     </row>
     <row r="17" spans="2:155" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="52"/>
-      <c r="Q17" s="56" t="s">
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="55"/>
+      <c r="Q17" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="R17" s="57"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="58"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="44"/>
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
-      <c r="Z17" s="64" t="s">
+      <c r="Z17" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="AA17" s="65"/>
-      <c r="AB17" s="65"/>
-      <c r="AC17" s="65"/>
-      <c r="AD17" s="65"/>
-      <c r="AE17" s="65"/>
-      <c r="AF17" s="66"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="32"/>
+      <c r="AD17" s="32"/>
+      <c r="AE17" s="32"/>
+      <c r="AF17" s="33"/>
       <c r="AQ17" s="6"/>
       <c r="AR17" s="6"/>
       <c r="AS17" s="6"/>
@@ -11453,42 +11456,42 @@
       <c r="D18" s="19">
         <v>0</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="39"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="63"/>
       <c r="Q18" s="4">
         <v>0</v>
       </c>
-      <c r="R18" s="59" t="s">
+      <c r="R18" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="60"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="35"/>
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
       <c r="Z18" s="4">
         <v>0</v>
       </c>
-      <c r="AA18" s="59" t="s">
+      <c r="AA18" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="59"/>
-      <c r="AD18" s="59"/>
-      <c r="AE18" s="59"/>
-      <c r="AF18" s="60"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="35"/>
       <c r="AQ18" s="6"/>
       <c r="AR18" s="6"/>
       <c r="AS18" s="6"/>
@@ -11607,42 +11610,42 @@
       <c r="D19" s="18">
         <v>0</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="31"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="58"/>
       <c r="Q19" s="2">
         <v>1</v>
       </c>
-      <c r="R19" s="43" t="s">
+      <c r="R19" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="44"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="30"/>
       <c r="X19" s="11"/>
       <c r="Y19" s="11"/>
       <c r="Z19" s="2">
         <v>1</v>
       </c>
-      <c r="AA19" s="43" t="s">
+      <c r="AA19" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="AB19" s="43"/>
-      <c r="AC19" s="43"/>
-      <c r="AD19" s="43"/>
-      <c r="AE19" s="43"/>
-      <c r="AF19" s="44"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="30"/>
       <c r="AQ19" s="6"/>
       <c r="AR19" s="6"/>
       <c r="AS19" s="6"/>
@@ -11746,42 +11749,42 @@
     </row>
     <row r="20" spans="2:155" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D20" s="13"/>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="42"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="66"/>
       <c r="Q20" s="2">
         <v>2</v>
       </c>
-      <c r="R20" s="43" t="s">
+      <c r="R20" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="44"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="30"/>
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
       <c r="Z20" s="4">
         <v>2</v>
       </c>
-      <c r="AA20" s="43" t="s">
+      <c r="AA20" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="AB20" s="43"/>
-      <c r="AC20" s="43"/>
-      <c r="AD20" s="43"/>
-      <c r="AE20" s="43"/>
-      <c r="AF20" s="44"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="30"/>
       <c r="AQ20" s="6"/>
       <c r="AR20" s="6"/>
       <c r="AS20" s="6"/>
@@ -11887,42 +11890,42 @@
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
       <c r="N21" s="14"/>
       <c r="Q21" s="2">
         <v>3</v>
       </c>
-      <c r="R21" s="43" t="s">
+      <c r="R21" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="44"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="30"/>
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
       <c r="Z21" s="2">
         <v>3</v>
       </c>
-      <c r="AA21" s="43" t="s">
+      <c r="AA21" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="AB21" s="43"/>
-      <c r="AC21" s="43"/>
-      <c r="AD21" s="43"/>
-      <c r="AE21" s="43"/>
-      <c r="AF21" s="44"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="30"/>
       <c r="AQ21" s="6"/>
       <c r="AR21" s="6"/>
       <c r="AS21" s="6"/>
@@ -12028,40 +12031,40 @@
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
       <c r="N22" s="15"/>
       <c r="Q22" s="2">
         <v>4</v>
       </c>
-      <c r="R22" s="43" t="s">
+      <c r="R22" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="44"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="30"/>
       <c r="X22" s="11"/>
       <c r="Y22" s="11"/>
       <c r="Z22" s="4">
         <v>4</v>
       </c>
-      <c r="AA22" s="43" t="s">
+      <c r="AA22" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AB22" s="43"/>
-      <c r="AC22" s="43"/>
-      <c r="AD22" s="43"/>
-      <c r="AE22" s="43"/>
-      <c r="AF22" s="44"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="30"/>
       <c r="AQ22" s="6"/>
       <c r="AR22" s="6"/>
       <c r="AS22" s="6"/>
@@ -12180,27 +12183,27 @@
       <c r="Q23" s="2">
         <v>5</v>
       </c>
-      <c r="R23" s="43" t="s">
+      <c r="R23" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="44"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="30"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
       <c r="Z23" s="12">
         <v>5</v>
       </c>
-      <c r="AA23" s="62" t="s">
+      <c r="AA23" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="AB23" s="62"/>
-      <c r="AC23" s="62"/>
-      <c r="AD23" s="62"/>
-      <c r="AE23" s="62"/>
-      <c r="AF23" s="63"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="37"/>
       <c r="AQ23" s="6"/>
       <c r="AR23" s="6"/>
       <c r="AS23" s="6"/>
@@ -12319,14 +12322,14 @@
       <c r="Q24" s="2">
         <v>6</v>
       </c>
-      <c r="R24" s="43" t="s">
+      <c r="R24" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="44"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="30"/>
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
       <c r="Z24" s="11"/>
@@ -12448,14 +12451,14 @@
       <c r="Q25" s="2">
         <v>7</v>
       </c>
-      <c r="R25" s="43" t="s">
+      <c r="R25" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="44"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="30"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
       <c r="Z25" s="11"/>
@@ -12577,14 +12580,14 @@
       <c r="Q26" s="2">
         <v>8</v>
       </c>
-      <c r="R26" s="43" t="s">
+      <c r="R26" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="43"/>
-      <c r="W26" s="44"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="30"/>
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>
       <c r="Z26" s="11"/>
@@ -12706,14 +12709,14 @@
       <c r="Q27" s="2">
         <v>9</v>
       </c>
-      <c r="R27" s="43" t="s">
+      <c r="R27" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="44"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="30"/>
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
       <c r="Z27" s="11"/>
@@ -12822,14 +12825,14 @@
       <c r="Q28" s="2">
         <v>10</v>
       </c>
-      <c r="R28" s="43" t="s">
+      <c r="R28" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="43"/>
-      <c r="W28" s="44"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="30"/>
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
       <c r="Z28" s="11"/>
@@ -12938,14 +12941,14 @@
       <c r="Q29" s="2">
         <v>11</v>
       </c>
-      <c r="R29" s="43" t="s">
+      <c r="R29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="44"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="30"/>
       <c r="X29" s="11"/>
       <c r="Y29" s="11"/>
       <c r="Z29" s="11"/>
@@ -13054,14 +13057,14 @@
       <c r="Q30" s="2">
         <v>12</v>
       </c>
-      <c r="R30" s="43" t="s">
+      <c r="R30" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43"/>
-      <c r="W30" s="44"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="30"/>
       <c r="X30" s="11"/>
       <c r="Y30" s="11"/>
       <c r="Z30" s="11"/>
@@ -13170,14 +13173,14 @@
       <c r="Q31" s="2">
         <v>13</v>
       </c>
-      <c r="R31" s="43" t="s">
+      <c r="R31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="43"/>
-      <c r="W31" s="44"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="30"/>
       <c r="X31" s="11"/>
       <c r="Y31" s="11"/>
       <c r="Z31" s="11"/>
@@ -13286,14 +13289,14 @@
       <c r="Q32" s="2">
         <v>14</v>
       </c>
-      <c r="R32" s="43" t="s">
+      <c r="R32" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S32" s="43"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="44"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="30"/>
       <c r="AQ32" s="6"/>
       <c r="AR32" s="6"/>
       <c r="AS32" s="6"/>
@@ -13399,14 +13402,14 @@
       <c r="Q33" s="2">
         <v>15</v>
       </c>
-      <c r="R33" s="43" t="s">
+      <c r="R33" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="S33" s="43"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="43"/>
-      <c r="V33" s="43"/>
-      <c r="W33" s="44"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="30"/>
       <c r="AQ33" s="6"/>
       <c r="AR33" s="6"/>
       <c r="AS33" s="6"/>
@@ -13512,14 +13515,14 @@
       <c r="Q34" s="12">
         <v>16</v>
       </c>
-      <c r="R34" s="62" t="s">
+      <c r="R34" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S34" s="62"/>
-      <c r="T34" s="62"/>
-      <c r="U34" s="62"/>
-      <c r="V34" s="62"/>
-      <c r="W34" s="63"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="37"/>
       <c r="AQ34" s="6"/>
       <c r="AR34" s="6"/>
       <c r="AS34" s="6"/>
@@ -33938,36 +33941,66 @@
       <c r="EL233" s="6"/>
     </row>
     <row r="1048576" spans="18:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R1048576" s="61"/>
-      <c r="S1048576" s="61"/>
-      <c r="T1048576" s="61"/>
-      <c r="U1048576" s="61"/>
-      <c r="V1048576" s="61"/>
-      <c r="W1048576" s="61"/>
+      <c r="R1048576" s="38"/>
+      <c r="S1048576" s="38"/>
+      <c r="T1048576" s="38"/>
+      <c r="U1048576" s="38"/>
+      <c r="V1048576" s="38"/>
+      <c r="W1048576" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="R22:W22"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="Z17:AF17"/>
-    <mergeCell ref="AA18:AF18"/>
-    <mergeCell ref="AA19:AF19"/>
-    <mergeCell ref="AA20:AF20"/>
-    <mergeCell ref="AA21:AF21"/>
-    <mergeCell ref="AA22:AF22"/>
-    <mergeCell ref="AA23:AF23"/>
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="R33:W33"/>
-    <mergeCell ref="R1048576:W1048576"/>
-    <mergeCell ref="R34:W34"/>
-    <mergeCell ref="R23:W23"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="R25:W25"/>
-    <mergeCell ref="R26:W26"/>
-    <mergeCell ref="R27:W27"/>
-    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="E19:N19"/>
+    <mergeCell ref="ME15:MX15"/>
+    <mergeCell ref="E21:M22"/>
+    <mergeCell ref="DS15:EL15"/>
+    <mergeCell ref="E18:N18"/>
+    <mergeCell ref="AQ15:BJ15"/>
+    <mergeCell ref="BK15:CD15"/>
+    <mergeCell ref="CE15:CX15"/>
+    <mergeCell ref="CY15:DR15"/>
+    <mergeCell ref="E20:N20"/>
+    <mergeCell ref="R20:W20"/>
+    <mergeCell ref="R21:W21"/>
+    <mergeCell ref="II15:JB15"/>
+    <mergeCell ref="JC15:JV15"/>
+    <mergeCell ref="JW15:KP15"/>
+    <mergeCell ref="KQ15:LJ15"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="C15:V15"/>
+    <mergeCell ref="D17:N17"/>
+    <mergeCell ref="W15:AP15"/>
+    <mergeCell ref="LK15:MD15"/>
+    <mergeCell ref="EM15:FF15"/>
+    <mergeCell ref="FG15:FZ15"/>
+    <mergeCell ref="GA15:GT15"/>
+    <mergeCell ref="GU15:HN15"/>
+    <mergeCell ref="HO15:IH15"/>
+    <mergeCell ref="ANW15:AOP15"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="AGE15:AGX15"/>
+    <mergeCell ref="AGY15:AHR15"/>
+    <mergeCell ref="AHS15:AIL15"/>
+    <mergeCell ref="AIM15:AJF15"/>
+    <mergeCell ref="AJG15:AJZ15"/>
+    <mergeCell ref="AKA15:AKT15"/>
+    <mergeCell ref="ABO15:ACH15"/>
+    <mergeCell ref="ACI15:ADB15"/>
+    <mergeCell ref="ADC15:ADV15"/>
+    <mergeCell ref="ADW15:AEP15"/>
+    <mergeCell ref="AEQ15:AFJ15"/>
+    <mergeCell ref="AFK15:AGD15"/>
+    <mergeCell ref="WY15:XR15"/>
+    <mergeCell ref="XS15:YL15"/>
+    <mergeCell ref="AKU15:ALN15"/>
+    <mergeCell ref="ALO15:AMH15"/>
+    <mergeCell ref="AMI15:ANB15"/>
+    <mergeCell ref="ANC15:ANV15"/>
+    <mergeCell ref="YM15:ZF15"/>
+    <mergeCell ref="ZG15:ZZ15"/>
+    <mergeCell ref="AAA15:AAT15"/>
+    <mergeCell ref="AAU15:ABN15"/>
     <mergeCell ref="WE15:WX15"/>
     <mergeCell ref="NS15:OL15"/>
     <mergeCell ref="Q17:W17"/>
@@ -33984,57 +34017,27 @@
     <mergeCell ref="QU15:RN15"/>
     <mergeCell ref="RO15:SH15"/>
     <mergeCell ref="MY15:NR15"/>
-    <mergeCell ref="AKU15:ALN15"/>
-    <mergeCell ref="ALO15:AMH15"/>
-    <mergeCell ref="AMI15:ANB15"/>
-    <mergeCell ref="ANC15:ANV15"/>
-    <mergeCell ref="YM15:ZF15"/>
-    <mergeCell ref="ZG15:ZZ15"/>
-    <mergeCell ref="AAA15:AAT15"/>
-    <mergeCell ref="AAU15:ABN15"/>
-    <mergeCell ref="ANW15:AOP15"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="AGE15:AGX15"/>
-    <mergeCell ref="AGY15:AHR15"/>
-    <mergeCell ref="AHS15:AIL15"/>
-    <mergeCell ref="AIM15:AJF15"/>
-    <mergeCell ref="AJG15:AJZ15"/>
-    <mergeCell ref="AKA15:AKT15"/>
-    <mergeCell ref="ABO15:ACH15"/>
-    <mergeCell ref="ACI15:ADB15"/>
-    <mergeCell ref="ADC15:ADV15"/>
-    <mergeCell ref="ADW15:AEP15"/>
-    <mergeCell ref="AEQ15:AFJ15"/>
-    <mergeCell ref="AFK15:AGD15"/>
-    <mergeCell ref="WY15:XR15"/>
-    <mergeCell ref="XS15:YL15"/>
-    <mergeCell ref="LK15:MD15"/>
-    <mergeCell ref="EM15:FF15"/>
-    <mergeCell ref="FG15:FZ15"/>
-    <mergeCell ref="GA15:GT15"/>
-    <mergeCell ref="GU15:HN15"/>
-    <mergeCell ref="HO15:IH15"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:R1"/>
-    <mergeCell ref="C15:V15"/>
-    <mergeCell ref="D17:N17"/>
-    <mergeCell ref="W15:AP15"/>
-    <mergeCell ref="E19:N19"/>
-    <mergeCell ref="ME15:MX15"/>
-    <mergeCell ref="E21:M22"/>
-    <mergeCell ref="DS15:EL15"/>
-    <mergeCell ref="E18:N18"/>
-    <mergeCell ref="AQ15:BJ15"/>
-    <mergeCell ref="BK15:CD15"/>
-    <mergeCell ref="CE15:CX15"/>
-    <mergeCell ref="CY15:DR15"/>
-    <mergeCell ref="E20:N20"/>
-    <mergeCell ref="R20:W20"/>
-    <mergeCell ref="R21:W21"/>
-    <mergeCell ref="II15:JB15"/>
-    <mergeCell ref="JC15:JV15"/>
-    <mergeCell ref="JW15:KP15"/>
-    <mergeCell ref="KQ15:LJ15"/>
+    <mergeCell ref="R32:W32"/>
+    <mergeCell ref="R33:W33"/>
+    <mergeCell ref="R1048576:W1048576"/>
+    <mergeCell ref="R34:W34"/>
+    <mergeCell ref="R23:W23"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="R25:W25"/>
+    <mergeCell ref="R26:W26"/>
+    <mergeCell ref="R27:W27"/>
+    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="R22:W22"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="Z17:AF17"/>
+    <mergeCell ref="AA18:AF18"/>
+    <mergeCell ref="AA19:AF19"/>
+    <mergeCell ref="AA20:AF20"/>
+    <mergeCell ref="AA21:AF21"/>
+    <mergeCell ref="AA22:AF22"/>
+    <mergeCell ref="AA23:AF23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
